--- a/uds2018info_T5_T5A.xlsx
+++ b/uds2018info_T5_T5A.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="817">
   <si>
     <t xml:space="preserve">BHCMISID</t>
   </si>
@@ -414,6 +414,144 @@
   </si>
   <si>
     <t xml:space="preserve">T5_L34_Cb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L1_Ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L1_Cb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L2_Ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L2_Cb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L3_Ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L3_Cb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L4_Ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L4_Cb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L5_Ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L5_Cb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L7_Ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L7_Cb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L9a_Ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L9a_Cb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L9b_Ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L9b_Cb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L10_Ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L10_Cb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L11_Ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L11_Cb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L16_Ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L16_Cb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L17_Ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L17_Cb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L17a_Ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L17a_Cb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L20a_Ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L20a_Cb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L20a1_Ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L20a1_Cb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L20a2_Ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L20a2_Cb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L20b_Ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L20b_Cb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L22a_Ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L22a_Cb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L22b_Ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L22b_Cb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L30a1_Ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L30a1_Cb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L30a2_Ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L30a2_Cb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L30a3_Ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L30a3_Cb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L30a4_Ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5A_L30a4_Cb</t>
   </si>
   <si>
     <t xml:space="preserve">0613350</t>
@@ -3059,115 +3197,253 @@
       <c r="ED1" t="s">
         <v>133</v>
       </c>
+      <c r="EE1" t="s">
+        <v>134</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>135</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>136</v>
+      </c>
+      <c r="EH1" t="s">
+        <v>137</v>
+      </c>
+      <c r="EI1" t="s">
+        <v>138</v>
+      </c>
+      <c r="EJ1" t="s">
+        <v>139</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>140</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>141</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>142</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>143</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>144</v>
+      </c>
+      <c r="EP1" t="s">
+        <v>145</v>
+      </c>
+      <c r="EQ1" t="s">
+        <v>146</v>
+      </c>
+      <c r="ER1" t="s">
+        <v>147</v>
+      </c>
+      <c r="ES1" t="s">
+        <v>148</v>
+      </c>
+      <c r="ET1" t="s">
+        <v>149</v>
+      </c>
+      <c r="EU1" t="s">
+        <v>150</v>
+      </c>
+      <c r="EV1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EW1" t="s">
+        <v>152</v>
+      </c>
+      <c r="EX1" t="s">
+        <v>153</v>
+      </c>
+      <c r="EY1" t="s">
+        <v>154</v>
+      </c>
+      <c r="EZ1" t="s">
+        <v>155</v>
+      </c>
+      <c r="FA1" t="s">
+        <v>156</v>
+      </c>
+      <c r="FB1" t="s">
+        <v>157</v>
+      </c>
+      <c r="FC1" t="s">
+        <v>158</v>
+      </c>
+      <c r="FD1" t="s">
+        <v>159</v>
+      </c>
+      <c r="FE1" t="s">
+        <v>160</v>
+      </c>
+      <c r="FF1" t="s">
+        <v>161</v>
+      </c>
+      <c r="FG1" t="s">
+        <v>162</v>
+      </c>
+      <c r="FH1" t="s">
+        <v>163</v>
+      </c>
+      <c r="FI1" t="s">
+        <v>164</v>
+      </c>
+      <c r="FJ1" t="s">
+        <v>165</v>
+      </c>
+      <c r="FK1" t="s">
+        <v>166</v>
+      </c>
+      <c r="FL1" t="s">
+        <v>167</v>
+      </c>
+      <c r="FM1" t="s">
+        <v>168</v>
+      </c>
+      <c r="FN1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FO1" t="s">
+        <v>170</v>
+      </c>
+      <c r="FP1" t="s">
+        <v>171</v>
+      </c>
+      <c r="FQ1" t="s">
+        <v>172</v>
+      </c>
+      <c r="FR1" t="s">
+        <v>173</v>
+      </c>
+      <c r="FS1" t="s">
+        <v>174</v>
+      </c>
+      <c r="FT1" t="s">
+        <v>175</v>
+      </c>
+      <c r="FU1" t="s">
+        <v>176</v>
+      </c>
+      <c r="FV1" t="s">
+        <v>177</v>
+      </c>
+      <c r="FW1" t="s">
+        <v>178</v>
+      </c>
+      <c r="FX1" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="F2"/>
       <c r="G2" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="H2" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="I2" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="J2" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="K2" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="L2"/>
       <c r="M2" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="N2" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="O2" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="P2" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="Q2"/>
       <c r="R2" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="S2" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="T2" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="U2" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="V2"/>
       <c r="W2" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="X2" t="s">
-        <v>150</v>
+        <v>196</v>
       </c>
       <c r="Y2" t="s">
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="Z2" t="s">
-        <v>152</v>
+        <v>198</v>
       </c>
       <c r="AA2"/>
       <c r="AB2" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="AC2" t="s">
-        <v>153</v>
+        <v>199</v>
       </c>
       <c r="AD2" t="s">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="AE2" t="s">
-        <v>155</v>
+        <v>201</v>
       </c>
       <c r="AF2"/>
       <c r="AG2" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="AH2" t="s">
-        <v>156</v>
+        <v>202</v>
       </c>
       <c r="AI2" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="AJ2" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AK2" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AL2" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AM2" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AN2" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AO2" t="n">
         <v>6.6</v>
@@ -3362,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="DA2" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="DB2" t="n">
         <v>1.3</v>
@@ -3404,7 +3680,7 @@
         <v>0</v>
       </c>
       <c r="DO2" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="DP2" t="n">
         <v>12.21</v>
@@ -3419,7 +3695,7 @@
         <v>1578</v>
       </c>
       <c r="DT2" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="DU2" t="n">
         <v>13.31</v>
@@ -3450,116 +3726,254 @@
       </c>
       <c r="ED2" t="n">
         <v>141766</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>8</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>700</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>3</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>1334</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>3</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>376</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>6</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>30</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>1425</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>2</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>82</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>2</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>417</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>2</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>138</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>22</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>4</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>242</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>9</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>15</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>1318</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>5</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>52</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>201</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>187</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>93</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>211</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="D3" t="s">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="E3" t="s">
-        <v>167</v>
+        <v>213</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="s">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="H3" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="I3" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="J3" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="K3" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="L3"/>
       <c r="M3" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="N3" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="O3" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="P3" t="s">
-        <v>174</v>
+        <v>220</v>
       </c>
       <c r="Q3"/>
       <c r="R3" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="S3" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="T3" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="U3" t="s">
-        <v>176</v>
+        <v>222</v>
       </c>
       <c r="V3"/>
       <c r="W3" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="X3" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="Y3" t="s">
-        <v>179</v>
+        <v>225</v>
       </c>
       <c r="Z3" t="s">
-        <v>176</v>
+        <v>222</v>
       </c>
       <c r="AA3"/>
       <c r="AB3" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="AC3" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="AD3" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="AE3" t="s">
-        <v>174</v>
+        <v>220</v>
       </c>
       <c r="AF3"/>
       <c r="AG3" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="AH3" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="AI3" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="AJ3" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AK3" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="AL3" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AM3" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="AN3" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AO3" t="n">
         <v>0.8</v>
@@ -3701,117 +4115,187 @@
       <c r="ED3" t="n">
         <v>6931</v>
       </c>
+      <c r="EE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF3" t="n">
+        <v>73</v>
+      </c>
+      <c r="EG3"/>
+      <c r="EH3"/>
+      <c r="EI3"/>
+      <c r="EJ3"/>
+      <c r="EK3"/>
+      <c r="EL3"/>
+      <c r="EM3"/>
+      <c r="EN3"/>
+      <c r="EO3"/>
+      <c r="EP3"/>
+      <c r="EQ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="ER3" t="n">
+        <v>214</v>
+      </c>
+      <c r="ES3"/>
+      <c r="ET3"/>
+      <c r="EU3"/>
+      <c r="EV3"/>
+      <c r="EW3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX3" t="n">
+        <v>47</v>
+      </c>
+      <c r="EY3"/>
+      <c r="EZ3"/>
+      <c r="FA3"/>
+      <c r="FB3"/>
+      <c r="FC3"/>
+      <c r="FD3"/>
+      <c r="FE3"/>
+      <c r="FF3"/>
+      <c r="FG3"/>
+      <c r="FH3"/>
+      <c r="FI3"/>
+      <c r="FJ3"/>
+      <c r="FK3"/>
+      <c r="FL3"/>
+      <c r="FM3"/>
+      <c r="FN3"/>
+      <c r="FO3"/>
+      <c r="FP3"/>
+      <c r="FQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR3" t="n">
+        <v>47</v>
+      </c>
+      <c r="FS3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT3" t="n">
+        <v>47</v>
+      </c>
+      <c r="FU3"/>
+      <c r="FV3"/>
+      <c r="FW3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX3" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" t="s">
         <v>182</v>
       </c>
-      <c r="B4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C4" t="s">
-        <v>136</v>
-      </c>
       <c r="D4" t="s">
-        <v>184</v>
+        <v>230</v>
       </c>
       <c r="E4" t="s">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c r="F4"/>
       <c r="G4" t="s">
+        <v>232</v>
+      </c>
+      <c r="H4" t="s">
         <v>186</v>
       </c>
-      <c r="H4" t="s">
-        <v>140</v>
-      </c>
       <c r="I4" t="s">
-        <v>187</v>
+        <v>233</v>
       </c>
       <c r="J4" t="s">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="K4" t="s">
-        <v>189</v>
+        <v>235</v>
       </c>
       <c r="L4" t="s">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="M4" t="s">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="N4" t="s">
-        <v>192</v>
+        <v>238</v>
       </c>
       <c r="O4" t="s">
-        <v>193</v>
+        <v>239</v>
       </c>
       <c r="P4" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="Q4" t="s">
-        <v>195</v>
+        <v>241</v>
       </c>
       <c r="R4" t="s">
-        <v>196</v>
+        <v>242</v>
       </c>
       <c r="S4" t="s">
-        <v>192</v>
+        <v>238</v>
       </c>
       <c r="T4" t="s">
-        <v>197</v>
+        <v>243</v>
       </c>
       <c r="U4" t="s">
-        <v>198</v>
+        <v>244</v>
       </c>
       <c r="V4"/>
       <c r="W4"/>
       <c r="X4" t="s">
-        <v>199</v>
+        <v>245</v>
       </c>
       <c r="Y4" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="Z4" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="AA4"/>
       <c r="AB4" t="s">
-        <v>196</v>
+        <v>242</v>
       </c>
       <c r="AC4" t="s">
-        <v>201</v>
+        <v>247</v>
       </c>
       <c r="AD4" t="s">
-        <v>202</v>
+        <v>248</v>
       </c>
       <c r="AE4" t="s">
-        <v>203</v>
+        <v>249</v>
       </c>
       <c r="AF4"/>
       <c r="AG4" t="s">
+        <v>250</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>251</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>204</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AK4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM4" t="s">
         <v>205</v>
       </c>
-      <c r="AI4" t="s">
-        <v>157</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>158</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>158</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>158</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>159</v>
-      </c>
       <c r="AN4" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AO4" t="n">
         <v>1.5</v>
@@ -4088,116 +4572,210 @@
       </c>
       <c r="ED4" t="n">
         <v>17999</v>
+      </c>
+      <c r="EE4" t="n">
+        <v>3</v>
+      </c>
+      <c r="EF4" t="n">
+        <v>42</v>
+      </c>
+      <c r="EG4"/>
+      <c r="EH4"/>
+      <c r="EI4"/>
+      <c r="EJ4"/>
+      <c r="EK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL4" t="n">
+        <v>47</v>
+      </c>
+      <c r="EM4" t="n">
+        <v>2</v>
+      </c>
+      <c r="EN4" t="n">
+        <v>199</v>
+      </c>
+      <c r="EO4"/>
+      <c r="EP4"/>
+      <c r="EQ4" t="n">
+        <v>9</v>
+      </c>
+      <c r="ER4" t="n">
+        <v>134</v>
+      </c>
+      <c r="ES4"/>
+      <c r="ET4"/>
+      <c r="EU4"/>
+      <c r="EV4"/>
+      <c r="EW4" t="n">
+        <v>7</v>
+      </c>
+      <c r="EX4" t="n">
+        <v>249</v>
+      </c>
+      <c r="EY4" t="n">
+        <v>4</v>
+      </c>
+      <c r="EZ4" t="n">
+        <v>306</v>
+      </c>
+      <c r="FA4" t="n">
+        <v>2</v>
+      </c>
+      <c r="FB4" t="n">
+        <v>195</v>
+      </c>
+      <c r="FC4"/>
+      <c r="FD4"/>
+      <c r="FE4"/>
+      <c r="FF4"/>
+      <c r="FG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH4" t="n">
+        <v>3</v>
+      </c>
+      <c r="FI4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FJ4" t="n">
+        <v>6</v>
+      </c>
+      <c r="FK4"/>
+      <c r="FL4"/>
+      <c r="FM4"/>
+      <c r="FN4"/>
+      <c r="FO4"/>
+      <c r="FP4"/>
+      <c r="FQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR4" t="n">
+        <v>265</v>
+      </c>
+      <c r="FS4"/>
+      <c r="FT4"/>
+      <c r="FU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV4" t="n">
+        <v>22</v>
+      </c>
+      <c r="FW4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX4" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>252</v>
       </c>
       <c r="B5" t="s">
-        <v>207</v>
+        <v>253</v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="D5" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="E5" t="s">
-        <v>209</v>
+        <v>255</v>
       </c>
       <c r="F5"/>
       <c r="G5" t="s">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="H5" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="I5" t="s">
-        <v>210</v>
+        <v>256</v>
       </c>
       <c r="J5" t="s">
-        <v>211</v>
+        <v>257</v>
       </c>
       <c r="K5" t="s">
-        <v>212</v>
+        <v>258</v>
       </c>
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5" t="s">
-        <v>213</v>
+        <v>259</v>
       </c>
       <c r="O5" t="s">
-        <v>211</v>
+        <v>257</v>
       </c>
       <c r="P5" t="s">
-        <v>212</v>
+        <v>258</v>
       </c>
       <c r="Q5"/>
       <c r="R5" t="s">
-        <v>214</v>
+        <v>260</v>
       </c>
       <c r="S5" t="s">
-        <v>215</v>
+        <v>261</v>
       </c>
       <c r="T5" t="s">
-        <v>216</v>
+        <v>262</v>
       </c>
       <c r="U5" t="s">
-        <v>217</v>
+        <v>263</v>
       </c>
       <c r="V5"/>
       <c r="W5" t="s">
-        <v>218</v>
+        <v>264</v>
       </c>
       <c r="X5" t="s">
-        <v>215</v>
+        <v>261</v>
       </c>
       <c r="Y5" t="s">
-        <v>219</v>
+        <v>265</v>
       </c>
       <c r="Z5" t="s">
-        <v>217</v>
+        <v>263</v>
       </c>
       <c r="AA5"/>
       <c r="AB5" t="s">
-        <v>218</v>
+        <v>264</v>
       </c>
       <c r="AC5" t="s">
-        <v>220</v>
+        <v>266</v>
       </c>
       <c r="AD5" t="s">
-        <v>221</v>
+        <v>267</v>
       </c>
       <c r="AE5" t="s">
-        <v>217</v>
+        <v>263</v>
       </c>
       <c r="AF5" t="s">
-        <v>222</v>
+        <v>268</v>
       </c>
       <c r="AG5" t="s">
-        <v>218</v>
+        <v>264</v>
       </c>
       <c r="AH5" t="s">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="AI5" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="AJ5" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AK5" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AL5" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AM5" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AN5" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AO5" t="n">
         <v>1.53</v>
@@ -4390,7 +4968,7 @@
       </c>
       <c r="CZ5"/>
       <c r="DA5" t="s">
-        <v>224</v>
+        <v>270</v>
       </c>
       <c r="DB5" t="n">
         <v>0.8</v>
@@ -4445,7 +5023,7 @@
         <v>232</v>
       </c>
       <c r="DT5" t="s">
-        <v>225</v>
+        <v>271</v>
       </c>
       <c r="DU5" t="n">
         <v>11.53</v>
@@ -4476,120 +5054,258 @@
       </c>
       <c r="ED5" t="n">
         <v>42290</v>
+      </c>
+      <c r="EE5" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF5" t="n">
+        <v>100</v>
+      </c>
+      <c r="EG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI5" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ5" t="n">
+        <v>49</v>
+      </c>
+      <c r="EK5" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL5" t="n">
+        <v>34</v>
+      </c>
+      <c r="EM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ5" t="n">
+        <v>8</v>
+      </c>
+      <c r="ER5" t="n">
+        <v>386</v>
+      </c>
+      <c r="ES5" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW5" t="n">
+        <v>15</v>
+      </c>
+      <c r="EX5" t="n">
+        <v>256</v>
+      </c>
+      <c r="EY5" t="n">
+        <v>8</v>
+      </c>
+      <c r="EZ5" t="n">
+        <v>291</v>
+      </c>
+      <c r="FA5" t="n">
+        <v>2</v>
+      </c>
+      <c r="FB5" t="n">
+        <v>49</v>
+      </c>
+      <c r="FC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE5" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF5" t="n">
+        <v>27</v>
+      </c>
+      <c r="FG5" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH5" t="n">
+        <v>13</v>
+      </c>
+      <c r="FI5" t="n">
+        <v>4</v>
+      </c>
+      <c r="FJ5" t="n">
+        <v>140</v>
+      </c>
+      <c r="FK5" t="n">
+        <v>2</v>
+      </c>
+      <c r="FL5" t="n">
+        <v>25</v>
+      </c>
+      <c r="FM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR5" t="n">
+        <v>21</v>
+      </c>
+      <c r="FS5" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT5" t="n">
+        <v>18</v>
+      </c>
+      <c r="FU5" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV5" t="n">
+        <v>175</v>
+      </c>
+      <c r="FW5" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX5" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>226</v>
+        <v>272</v>
       </c>
       <c r="B6" t="s">
-        <v>227</v>
+        <v>273</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="D6" t="s">
-        <v>228</v>
+        <v>274</v>
       </c>
       <c r="E6" t="s">
-        <v>229</v>
+        <v>275</v>
       </c>
       <c r="F6"/>
       <c r="G6" t="s">
-        <v>230</v>
+        <v>276</v>
       </c>
       <c r="H6" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="I6" t="s">
-        <v>231</v>
+        <v>277</v>
       </c>
       <c r="J6" t="s">
-        <v>232</v>
+        <v>278</v>
       </c>
       <c r="K6" t="s">
-        <v>233</v>
+        <v>279</v>
       </c>
       <c r="L6" t="s">
-        <v>234</v>
+        <v>280</v>
       </c>
       <c r="M6"/>
       <c r="N6" t="s">
-        <v>235</v>
+        <v>281</v>
       </c>
       <c r="O6" t="s">
-        <v>236</v>
+        <v>282</v>
       </c>
       <c r="P6" t="s">
-        <v>233</v>
+        <v>279</v>
       </c>
       <c r="Q6" t="s">
-        <v>237</v>
+        <v>283</v>
       </c>
       <c r="R6" t="s">
-        <v>238</v>
+        <v>284</v>
       </c>
       <c r="S6" t="s">
-        <v>235</v>
+        <v>281</v>
       </c>
       <c r="T6" t="s">
-        <v>239</v>
+        <v>285</v>
       </c>
       <c r="U6" t="s">
-        <v>233</v>
+        <v>279</v>
       </c>
       <c r="V6"/>
       <c r="W6" t="s">
-        <v>238</v>
+        <v>284</v>
       </c>
       <c r="X6" t="s">
-        <v>240</v>
+        <v>286</v>
       </c>
       <c r="Y6" t="s">
-        <v>241</v>
+        <v>287</v>
       </c>
       <c r="Z6" t="s">
-        <v>242</v>
+        <v>288</v>
       </c>
       <c r="AA6"/>
       <c r="AB6" t="s">
-        <v>243</v>
+        <v>289</v>
       </c>
       <c r="AC6" t="s">
-        <v>244</v>
+        <v>290</v>
       </c>
       <c r="AD6" t="s">
-        <v>245</v>
+        <v>291</v>
       </c>
       <c r="AE6" t="s">
-        <v>233</v>
+        <v>279</v>
       </c>
       <c r="AF6" t="s">
-        <v>246</v>
+        <v>292</v>
       </c>
       <c r="AG6" t="s">
-        <v>238</v>
+        <v>284</v>
       </c>
       <c r="AH6" t="s">
-        <v>247</v>
+        <v>293</v>
       </c>
       <c r="AI6" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="AJ6" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AK6" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AL6" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AM6" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AN6" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AO6" t="n">
         <v>0.3</v>
@@ -4855,54 +5571,192 @@
       <c r="ED6" t="n">
         <v>23646</v>
       </c>
+      <c r="EE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI6" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ6" t="n">
+        <v>119</v>
+      </c>
+      <c r="EK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ6" t="n">
+        <v>6</v>
+      </c>
+      <c r="ER6" t="n">
+        <v>289</v>
+      </c>
+      <c r="ES6" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW6" t="n">
+        <v>11</v>
+      </c>
+      <c r="EX6" t="n">
+        <v>471</v>
+      </c>
+      <c r="EY6" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ6" t="n">
+        <v>6</v>
+      </c>
+      <c r="FA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK6" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL6" t="n">
+        <v>11</v>
+      </c>
+      <c r="FM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR6" t="n">
+        <v>50</v>
+      </c>
+      <c r="FS6" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT6" t="n">
+        <v>119</v>
+      </c>
+      <c r="FU6" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV6" t="n">
+        <v>396</v>
+      </c>
+      <c r="FW6" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX6" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>248</v>
+        <v>294</v>
       </c>
       <c r="B7" t="s">
-        <v>249</v>
+        <v>295</v>
       </c>
       <c r="C7" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="D7" t="s">
-        <v>250</v>
+        <v>296</v>
       </c>
       <c r="E7" t="s">
-        <v>251</v>
+        <v>297</v>
       </c>
       <c r="F7"/>
       <c r="G7" t="s">
-        <v>252</v>
+        <v>298</v>
       </c>
       <c r="H7" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="I7" t="s">
-        <v>253</v>
+        <v>299</v>
       </c>
       <c r="J7" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="K7" t="s">
-        <v>255</v>
+        <v>301</v>
       </c>
       <c r="L7"/>
       <c r="M7"/>
       <c r="N7" t="s">
-        <v>256</v>
+        <v>302</v>
       </c>
       <c r="O7" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="P7" t="s">
-        <v>255</v>
+        <v>301</v>
       </c>
       <c r="Q7"/>
       <c r="R7"/>
       <c r="S7" t="s">
-        <v>256</v>
+        <v>302</v>
       </c>
       <c r="T7"/>
       <c r="U7"/>
@@ -4910,44 +5764,44 @@
       <c r="W7"/>
       <c r="X7"/>
       <c r="Y7" t="s">
-        <v>257</v>
+        <v>303</v>
       </c>
       <c r="Z7" t="s">
-        <v>258</v>
+        <v>304</v>
       </c>
       <c r="AA7"/>
       <c r="AB7"/>
       <c r="AC7" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AD7" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="AE7" t="s">
-        <v>255</v>
+        <v>301</v>
       </c>
       <c r="AF7"/>
       <c r="AG7"/>
       <c r="AH7" t="s">
-        <v>256</v>
+        <v>302</v>
       </c>
       <c r="AI7" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="AJ7" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AK7" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AL7" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AM7" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="AN7" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AO7"/>
       <c r="AP7"/>
@@ -5117,73 +5971,155 @@
       <c r="ED7" t="n">
         <v>2716</v>
       </c>
+      <c r="EE7"/>
+      <c r="EF7"/>
+      <c r="EG7"/>
+      <c r="EH7"/>
+      <c r="EI7" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ7" t="n">
+        <v>11</v>
+      </c>
+      <c r="EK7" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL7" t="n">
+        <v>24</v>
+      </c>
+      <c r="EM7" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN7" t="n">
+        <v>11</v>
+      </c>
+      <c r="EO7"/>
+      <c r="EP7"/>
+      <c r="EQ7" t="n">
+        <v>2</v>
+      </c>
+      <c r="ER7" t="n">
+        <v>30</v>
+      </c>
+      <c r="ES7"/>
+      <c r="ET7"/>
+      <c r="EU7"/>
+      <c r="EV7"/>
+      <c r="EW7" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX7" t="n">
+        <v>9</v>
+      </c>
+      <c r="EY7"/>
+      <c r="EZ7"/>
+      <c r="FA7"/>
+      <c r="FB7"/>
+      <c r="FC7"/>
+      <c r="FD7"/>
+      <c r="FE7"/>
+      <c r="FF7"/>
+      <c r="FG7"/>
+      <c r="FH7"/>
+      <c r="FI7" t="n">
+        <v>1</v>
+      </c>
+      <c r="FJ7" t="n">
+        <v>2</v>
+      </c>
+      <c r="FK7"/>
+      <c r="FL7"/>
+      <c r="FM7"/>
+      <c r="FN7"/>
+      <c r="FO7"/>
+      <c r="FP7"/>
+      <c r="FQ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR7" t="n">
+        <v>27</v>
+      </c>
+      <c r="FS7" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT7" t="n">
+        <v>13</v>
+      </c>
+      <c r="FU7" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV7" t="n">
+        <v>12</v>
+      </c>
+      <c r="FW7"/>
+      <c r="FX7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>260</v>
+        <v>306</v>
       </c>
       <c r="B8" t="s">
-        <v>261</v>
+        <v>307</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="D8" t="s">
-        <v>262</v>
+        <v>308</v>
       </c>
       <c r="E8" t="s">
-        <v>263</v>
+        <v>309</v>
       </c>
       <c r="F8"/>
       <c r="G8" t="s">
-        <v>264</v>
+        <v>310</v>
       </c>
       <c r="H8" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="I8" t="s">
-        <v>265</v>
+        <v>311</v>
       </c>
       <c r="J8" t="s">
-        <v>266</v>
+        <v>312</v>
       </c>
       <c r="K8" t="s">
-        <v>267</v>
+        <v>313</v>
       </c>
       <c r="L8"/>
       <c r="M8" t="s">
-        <v>268</v>
+        <v>314</v>
       </c>
       <c r="N8" t="s">
-        <v>269</v>
+        <v>315</v>
       </c>
       <c r="O8" t="s">
-        <v>266</v>
+        <v>312</v>
       </c>
       <c r="P8" t="s">
-        <v>270</v>
+        <v>316</v>
       </c>
       <c r="Q8" t="s">
-        <v>271</v>
+        <v>317</v>
       </c>
       <c r="R8" t="s">
-        <v>272</v>
+        <v>318</v>
       </c>
       <c r="S8" t="s">
-        <v>269</v>
+        <v>315</v>
       </c>
       <c r="T8" t="s">
-        <v>273</v>
+        <v>319</v>
       </c>
       <c r="U8" t="s">
-        <v>267</v>
+        <v>313</v>
       </c>
       <c r="V8" t="s">
-        <v>274</v>
+        <v>320</v>
       </c>
       <c r="W8"/>
       <c r="X8" t="s">
-        <v>269</v>
+        <v>315</v>
       </c>
       <c r="Y8"/>
       <c r="Z8"/>
@@ -5191,37 +6127,37 @@
       <c r="AB8"/>
       <c r="AC8"/>
       <c r="AD8" t="s">
-        <v>275</v>
+        <v>321</v>
       </c>
       <c r="AE8" t="s">
-        <v>276</v>
+        <v>322</v>
       </c>
       <c r="AF8" t="s">
-        <v>277</v>
+        <v>323</v>
       </c>
       <c r="AG8" t="s">
-        <v>268</v>
+        <v>314</v>
       </c>
       <c r="AH8" t="s">
-        <v>278</v>
+        <v>324</v>
       </c>
       <c r="AI8" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="AJ8" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AK8" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AL8" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AM8" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="AN8" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AO8" t="n">
         <v>2</v>
@@ -5463,7 +6399,7 @@
         <v>0</v>
       </c>
       <c r="DT8" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="DU8" t="n">
         <v>3.7</v>
@@ -5494,124 +6430,258 @@
       </c>
       <c r="ED8" t="n">
         <v>46208</v>
+      </c>
+      <c r="EE8" t="n">
+        <v>2</v>
+      </c>
+      <c r="EF8" t="n">
+        <v>131</v>
+      </c>
+      <c r="EG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM8" t="n">
+        <v>3</v>
+      </c>
+      <c r="EN8" t="n">
+        <v>81</v>
+      </c>
+      <c r="EO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ8" t="n">
+        <v>12</v>
+      </c>
+      <c r="ER8" t="n">
+        <v>336</v>
+      </c>
+      <c r="ES8" t="n">
+        <v>1</v>
+      </c>
+      <c r="ET8" t="n">
+        <v>50</v>
+      </c>
+      <c r="EU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW8" t="n">
+        <v>22</v>
+      </c>
+      <c r="EX8" t="n">
+        <v>44</v>
+      </c>
+      <c r="EY8" t="n">
+        <v>6</v>
+      </c>
+      <c r="EZ8" t="n">
+        <v>28</v>
+      </c>
+      <c r="FA8" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB8" t="n">
+        <v>28</v>
+      </c>
+      <c r="FC8"/>
+      <c r="FD8"/>
+      <c r="FE8" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF8" t="n">
+        <v>3</v>
+      </c>
+      <c r="FG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI8" t="n">
+        <v>2</v>
+      </c>
+      <c r="FJ8" t="n">
+        <v>40</v>
+      </c>
+      <c r="FK8" t="n">
+        <v>5</v>
+      </c>
+      <c r="FL8" t="n">
+        <v>25</v>
+      </c>
+      <c r="FM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ8" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR8" t="n">
+        <v>261</v>
+      </c>
+      <c r="FS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU8" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV8" t="n">
+        <v>8</v>
+      </c>
+      <c r="FW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>279</v>
+        <v>325</v>
       </c>
       <c r="B9" t="s">
-        <v>280</v>
+        <v>326</v>
       </c>
       <c r="C9" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="D9" t="s">
-        <v>281</v>
+        <v>327</v>
       </c>
       <c r="E9" t="s">
-        <v>282</v>
+        <v>328</v>
       </c>
       <c r="F9"/>
       <c r="G9" t="s">
-        <v>252</v>
+        <v>298</v>
       </c>
       <c r="H9" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="I9" t="s">
-        <v>283</v>
+        <v>329</v>
       </c>
       <c r="J9" t="s">
-        <v>284</v>
+        <v>330</v>
       </c>
       <c r="K9" t="s">
-        <v>285</v>
+        <v>331</v>
       </c>
       <c r="L9" t="s">
-        <v>286</v>
+        <v>332</v>
       </c>
       <c r="M9" t="s">
-        <v>287</v>
+        <v>333</v>
       </c>
       <c r="N9" t="s">
-        <v>288</v>
+        <v>334</v>
       </c>
       <c r="O9" t="s">
-        <v>289</v>
+        <v>335</v>
       </c>
       <c r="P9" t="s">
-        <v>285</v>
+        <v>331</v>
       </c>
       <c r="Q9" t="s">
-        <v>286</v>
+        <v>332</v>
       </c>
       <c r="R9" t="s">
-        <v>287</v>
+        <v>333</v>
       </c>
       <c r="S9" t="s">
-        <v>288</v>
+        <v>334</v>
       </c>
       <c r="T9" t="s">
-        <v>290</v>
+        <v>336</v>
       </c>
       <c r="U9" t="s">
-        <v>285</v>
+        <v>331</v>
       </c>
       <c r="V9"/>
       <c r="W9" t="s">
-        <v>287</v>
+        <v>333</v>
       </c>
       <c r="X9" t="s">
-        <v>291</v>
+        <v>337</v>
       </c>
       <c r="Y9" t="s">
-        <v>292</v>
+        <v>338</v>
       </c>
       <c r="Z9" t="s">
-        <v>285</v>
+        <v>331</v>
       </c>
       <c r="AA9" t="s">
-        <v>293</v>
+        <v>339</v>
       </c>
       <c r="AB9" t="s">
-        <v>287</v>
+        <v>333</v>
       </c>
       <c r="AC9" t="s">
-        <v>294</v>
+        <v>340</v>
       </c>
       <c r="AD9" t="s">
-        <v>289</v>
+        <v>335</v>
       </c>
       <c r="AE9" t="s">
-        <v>285</v>
+        <v>331</v>
       </c>
       <c r="AF9" t="s">
-        <v>286</v>
+        <v>332</v>
       </c>
       <c r="AG9" t="s">
-        <v>287</v>
+        <v>333</v>
       </c>
       <c r="AH9" t="s">
-        <v>288</v>
+        <v>334</v>
       </c>
       <c r="AI9" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="AJ9" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AK9" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AL9" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AM9" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="AN9" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AO9" t="n">
         <v>1</v>
@@ -5778,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="DA9" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="DB9" t="n">
         <v>1</v>
@@ -5851,58 +6921,164 @@
       <c r="ED9" t="n">
         <v>33547</v>
       </c>
+      <c r="EE9" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF9" t="n">
+        <v>136</v>
+      </c>
+      <c r="EG9"/>
+      <c r="EH9"/>
+      <c r="EI9" t="n">
+        <v>3</v>
+      </c>
+      <c r="EJ9" t="n">
+        <v>209</v>
+      </c>
+      <c r="EK9" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL9" t="n">
+        <v>84</v>
+      </c>
+      <c r="EM9" t="n">
+        <v>2</v>
+      </c>
+      <c r="EN9" t="n">
+        <v>49</v>
+      </c>
+      <c r="EO9" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP9" t="n">
+        <v>173</v>
+      </c>
+      <c r="EQ9" t="n">
+        <v>2</v>
+      </c>
+      <c r="ER9" t="n">
+        <v>121</v>
+      </c>
+      <c r="ES9"/>
+      <c r="ET9"/>
+      <c r="EU9"/>
+      <c r="EV9"/>
+      <c r="EW9" t="n">
+        <v>4</v>
+      </c>
+      <c r="EX9" t="n">
+        <v>173</v>
+      </c>
+      <c r="EY9" t="n">
+        <v>6</v>
+      </c>
+      <c r="EZ9" t="n">
+        <v>257</v>
+      </c>
+      <c r="FA9" t="n">
+        <v>2</v>
+      </c>
+      <c r="FB9" t="n">
+        <v>100</v>
+      </c>
+      <c r="FC9"/>
+      <c r="FD9"/>
+      <c r="FE9" t="n">
+        <v>4</v>
+      </c>
+      <c r="FF9" t="n">
+        <v>186</v>
+      </c>
+      <c r="FG9"/>
+      <c r="FH9"/>
+      <c r="FI9" t="n">
+        <v>4</v>
+      </c>
+      <c r="FJ9" t="n">
+        <v>363</v>
+      </c>
+      <c r="FK9" t="n">
+        <v>4</v>
+      </c>
+      <c r="FL9" t="n">
+        <v>239</v>
+      </c>
+      <c r="FM9"/>
+      <c r="FN9"/>
+      <c r="FO9"/>
+      <c r="FP9"/>
+      <c r="FQ9" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR9" t="n">
+        <v>317</v>
+      </c>
+      <c r="FS9" t="n">
+        <v>2</v>
+      </c>
+      <c r="FT9" t="n">
+        <v>27</v>
+      </c>
+      <c r="FU9" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV9" t="n">
+        <v>31</v>
+      </c>
+      <c r="FW9"/>
+      <c r="FX9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>295</v>
+        <v>341</v>
       </c>
       <c r="B10" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="D10" t="s">
-        <v>297</v>
+        <v>343</v>
       </c>
       <c r="E10" t="s">
-        <v>298</v>
+        <v>344</v>
       </c>
       <c r="F10"/>
       <c r="G10" t="s">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="H10" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="I10" t="s">
-        <v>210</v>
+        <v>256</v>
       </c>
       <c r="J10" t="s">
-        <v>299</v>
+        <v>345</v>
       </c>
       <c r="K10" t="s">
-        <v>300</v>
+        <v>346</v>
       </c>
       <c r="L10"/>
       <c r="M10" t="s">
-        <v>300</v>
+        <v>346</v>
       </c>
       <c r="N10" t="s">
-        <v>301</v>
+        <v>347</v>
       </c>
       <c r="O10" t="s">
-        <v>302</v>
+        <v>348</v>
       </c>
       <c r="P10" t="s">
-        <v>300</v>
+        <v>346</v>
       </c>
       <c r="Q10"/>
       <c r="R10" t="s">
-        <v>303</v>
+        <v>349</v>
       </c>
       <c r="S10" t="s">
-        <v>301</v>
+        <v>347</v>
       </c>
       <c r="T10"/>
       <c r="U10"/>
@@ -5915,37 +7091,37 @@
       <c r="AB10"/>
       <c r="AC10"/>
       <c r="AD10" t="s">
-        <v>304</v>
+        <v>350</v>
       </c>
       <c r="AE10" t="s">
-        <v>305</v>
+        <v>351</v>
       </c>
       <c r="AF10" t="s">
-        <v>306</v>
+        <v>352</v>
       </c>
       <c r="AG10" t="s">
-        <v>303</v>
+        <v>349</v>
       </c>
       <c r="AH10" t="s">
-        <v>307</v>
+        <v>353</v>
       </c>
       <c r="AI10" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="AJ10" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AK10" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AL10" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AM10" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="AN10" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AO10" t="n">
         <v>0.1</v>
@@ -6140,7 +7316,7 @@
         <v>0</v>
       </c>
       <c r="DA10" t="s">
-        <v>224</v>
+        <v>270</v>
       </c>
       <c r="DB10" t="n">
         <v>0.25</v>
@@ -6224,110 +7400,248 @@
       </c>
       <c r="ED10" t="n">
         <v>22460</v>
+      </c>
+      <c r="EE10" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF10" t="n">
+        <v>29</v>
+      </c>
+      <c r="EG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM10" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN10" t="n">
+        <v>21</v>
+      </c>
+      <c r="EO10" t="n">
+        <v>2</v>
+      </c>
+      <c r="EP10" t="n">
+        <v>73</v>
+      </c>
+      <c r="EQ10" t="n">
+        <v>3</v>
+      </c>
+      <c r="ER10" t="n">
+        <v>54</v>
+      </c>
+      <c r="ES10" t="n">
+        <v>1</v>
+      </c>
+      <c r="ET10" t="n">
+        <v>6</v>
+      </c>
+      <c r="EU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW10" t="n">
+        <v>5</v>
+      </c>
+      <c r="EX10" t="n">
+        <v>113</v>
+      </c>
+      <c r="EY10" t="n">
+        <v>2</v>
+      </c>
+      <c r="EZ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="FA10" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB10" t="n">
+        <v>9</v>
+      </c>
+      <c r="FC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG10" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH10" t="n">
+        <v>3</v>
+      </c>
+      <c r="FI10" t="n">
+        <v>1</v>
+      </c>
+      <c r="FJ10" t="n">
+        <v>16</v>
+      </c>
+      <c r="FK10" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL10" t="n">
+        <v>4</v>
+      </c>
+      <c r="FM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ10" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR10" t="n">
+        <v>266</v>
+      </c>
+      <c r="FS10" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT10" t="n">
+        <v>2</v>
+      </c>
+      <c r="FU10" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV10" t="n">
+        <v>6</v>
+      </c>
+      <c r="FW10" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>308</v>
+        <v>354</v>
       </c>
       <c r="B11" t="s">
-        <v>309</v>
+        <v>355</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="D11" t="s">
-        <v>310</v>
+        <v>356</v>
       </c>
       <c r="E11" t="s">
-        <v>311</v>
+        <v>357</v>
       </c>
       <c r="F11"/>
       <c r="G11" t="s">
-        <v>312</v>
+        <v>358</v>
       </c>
       <c r="H11" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="I11" t="s">
-        <v>313</v>
+        <v>359</v>
       </c>
       <c r="J11" t="s">
-        <v>314</v>
+        <v>360</v>
       </c>
       <c r="K11" t="s">
-        <v>315</v>
+        <v>361</v>
       </c>
       <c r="L11"/>
       <c r="M11" t="s">
-        <v>316</v>
+        <v>362</v>
       </c>
       <c r="N11" t="s">
-        <v>317</v>
+        <v>363</v>
       </c>
       <c r="O11" t="s">
-        <v>314</v>
+        <v>360</v>
       </c>
       <c r="P11" t="s">
-        <v>318</v>
+        <v>364</v>
       </c>
       <c r="Q11"/>
       <c r="R11"/>
       <c r="S11" t="s">
-        <v>317</v>
+        <v>363</v>
       </c>
       <c r="T11" t="s">
-        <v>319</v>
+        <v>365</v>
       </c>
       <c r="U11" t="s">
-        <v>320</v>
+        <v>366</v>
       </c>
       <c r="V11"/>
       <c r="W11"/>
       <c r="X11" t="s">
-        <v>321</v>
+        <v>367</v>
       </c>
       <c r="Y11" t="s">
-        <v>322</v>
+        <v>368</v>
       </c>
       <c r="Z11" t="s">
-        <v>318</v>
+        <v>364</v>
       </c>
       <c r="AA11"/>
       <c r="AB11"/>
       <c r="AC11" t="s">
-        <v>323</v>
+        <v>369</v>
       </c>
       <c r="AD11" t="s">
-        <v>314</v>
+        <v>360</v>
       </c>
       <c r="AE11" t="s">
-        <v>315</v>
+        <v>361</v>
       </c>
       <c r="AF11"/>
       <c r="AG11" t="s">
-        <v>324</v>
+        <v>370</v>
       </c>
       <c r="AH11" t="s">
-        <v>317</v>
+        <v>363</v>
       </c>
       <c r="AI11" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="AJ11" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AK11" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AL11" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AM11" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AN11" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AO11" t="n">
         <v>0.2</v>
@@ -6558,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="DO11" t="s">
-        <v>325</v>
+        <v>371</v>
       </c>
       <c r="DP11" t="n">
         <v>0</v>
@@ -6603,121 +7917,215 @@
       <c r="ED11" t="n">
         <v>25371</v>
       </c>
+      <c r="EE11" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF11" t="n">
+        <v>4</v>
+      </c>
+      <c r="EG11"/>
+      <c r="EH11"/>
+      <c r="EI11" t="n">
+        <v>2</v>
+      </c>
+      <c r="EJ11" t="n">
+        <v>115</v>
+      </c>
+      <c r="EK11"/>
+      <c r="EL11"/>
+      <c r="EM11"/>
+      <c r="EN11"/>
+      <c r="EO11"/>
+      <c r="EP11"/>
+      <c r="EQ11" t="n">
+        <v>5</v>
+      </c>
+      <c r="ER11" t="n">
+        <v>267</v>
+      </c>
+      <c r="ES11"/>
+      <c r="ET11"/>
+      <c r="EU11"/>
+      <c r="EV11"/>
+      <c r="EW11" t="n">
+        <v>18</v>
+      </c>
+      <c r="EX11" t="n">
+        <v>475</v>
+      </c>
+      <c r="EY11" t="n">
+        <v>3</v>
+      </c>
+      <c r="EZ11" t="n">
+        <v>115</v>
+      </c>
+      <c r="FA11" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB11" t="n">
+        <v>22</v>
+      </c>
+      <c r="FC11"/>
+      <c r="FD11"/>
+      <c r="FE11" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF11" t="n">
+        <v>24</v>
+      </c>
+      <c r="FG11"/>
+      <c r="FH11"/>
+      <c r="FI11" t="n">
+        <v>2</v>
+      </c>
+      <c r="FJ11" t="n">
+        <v>91</v>
+      </c>
+      <c r="FK11" t="n">
+        <v>6</v>
+      </c>
+      <c r="FL11" t="n">
+        <v>212</v>
+      </c>
+      <c r="FM11"/>
+      <c r="FN11"/>
+      <c r="FO11"/>
+      <c r="FP11"/>
+      <c r="FQ11" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR11" t="n">
+        <v>77</v>
+      </c>
+      <c r="FS11" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT11" t="n">
+        <v>63</v>
+      </c>
+      <c r="FU11" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV11" t="n">
+        <v>21</v>
+      </c>
+      <c r="FW11"/>
+      <c r="FX11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>326</v>
+        <v>372</v>
       </c>
       <c r="B12" t="s">
-        <v>327</v>
+        <v>373</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="D12" t="s">
-        <v>328</v>
+        <v>374</v>
       </c>
       <c r="E12" t="s">
-        <v>329</v>
+        <v>375</v>
       </c>
       <c r="F12"/>
       <c r="G12" t="s">
-        <v>330</v>
+        <v>376</v>
       </c>
       <c r="H12" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="I12" t="s">
-        <v>331</v>
+        <v>377</v>
       </c>
       <c r="J12" t="s">
-        <v>332</v>
+        <v>378</v>
       </c>
       <c r="K12" t="s">
-        <v>333</v>
+        <v>379</v>
       </c>
       <c r="L12" t="s">
-        <v>334</v>
+        <v>380</v>
       </c>
       <c r="M12" t="s">
-        <v>335</v>
+        <v>381</v>
       </c>
       <c r="N12" t="s">
-        <v>336</v>
+        <v>382</v>
       </c>
       <c r="O12" t="s">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="P12" t="s">
-        <v>333</v>
+        <v>379</v>
       </c>
       <c r="Q12" t="s">
-        <v>334</v>
+        <v>380</v>
       </c>
       <c r="R12" t="s">
-        <v>335</v>
+        <v>381</v>
       </c>
       <c r="S12" t="s">
-        <v>336</v>
+        <v>382</v>
       </c>
       <c r="T12" t="s">
-        <v>338</v>
+        <v>384</v>
       </c>
       <c r="U12" t="s">
-        <v>333</v>
+        <v>379</v>
       </c>
       <c r="V12"/>
       <c r="W12" t="s">
-        <v>335</v>
+        <v>381</v>
       </c>
       <c r="X12" t="s">
-        <v>339</v>
+        <v>385</v>
       </c>
       <c r="Y12" t="s">
-        <v>340</v>
+        <v>386</v>
       </c>
       <c r="Z12" t="s">
-        <v>333</v>
+        <v>379</v>
       </c>
       <c r="AA12"/>
       <c r="AB12" t="s">
-        <v>335</v>
+        <v>381</v>
       </c>
       <c r="AC12" t="s">
-        <v>341</v>
+        <v>387</v>
       </c>
       <c r="AD12" t="s">
-        <v>342</v>
+        <v>388</v>
       </c>
       <c r="AE12" t="s">
-        <v>333</v>
+        <v>379</v>
       </c>
       <c r="AF12" t="s">
-        <v>343</v>
+        <v>389</v>
       </c>
       <c r="AG12" t="s">
-        <v>335</v>
+        <v>381</v>
       </c>
       <c r="AH12" t="s">
-        <v>344</v>
+        <v>390</v>
       </c>
       <c r="AI12" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="AJ12" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AK12" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AL12" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AM12" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AN12" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AO12" t="n">
         <v>3.6</v>
@@ -6912,7 +8320,7 @@
         <v>0</v>
       </c>
       <c r="DA12" t="s">
-        <v>345</v>
+        <v>391</v>
       </c>
       <c r="DB12" t="n">
         <v>0.24</v>
@@ -6993,121 +8401,259 @@
       <c r="ED12" t="n">
         <v>90685</v>
       </c>
+      <c r="EE12" t="n">
+        <v>4</v>
+      </c>
+      <c r="EF12" t="n">
+        <v>175</v>
+      </c>
+      <c r="EG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI12" t="n">
+        <v>2</v>
+      </c>
+      <c r="EJ12" t="n">
+        <v>231</v>
+      </c>
+      <c r="EK12" t="n">
+        <v>2</v>
+      </c>
+      <c r="EL12" t="n">
+        <v>86</v>
+      </c>
+      <c r="EM12" t="n">
+        <v>2</v>
+      </c>
+      <c r="EN12" t="n">
+        <v>84</v>
+      </c>
+      <c r="EO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ12" t="n">
+        <v>12</v>
+      </c>
+      <c r="ER12" t="n">
+        <v>727</v>
+      </c>
+      <c r="ES12" t="n">
+        <v>1</v>
+      </c>
+      <c r="ET12" t="n">
+        <v>98</v>
+      </c>
+      <c r="EU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW12" t="n">
+        <v>23</v>
+      </c>
+      <c r="EX12" t="n">
+        <v>1151</v>
+      </c>
+      <c r="EY12" t="n">
+        <v>8</v>
+      </c>
+      <c r="EZ12" t="n">
+        <v>604</v>
+      </c>
+      <c r="FA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE12" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF12" t="n">
+        <v>170</v>
+      </c>
+      <c r="FG12" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH12" t="n">
+        <v>20</v>
+      </c>
+      <c r="FI12" t="n">
+        <v>2</v>
+      </c>
+      <c r="FJ12" t="n">
+        <v>96</v>
+      </c>
+      <c r="FK12" t="n">
+        <v>5</v>
+      </c>
+      <c r="FL12" t="n">
+        <v>510</v>
+      </c>
+      <c r="FM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ12" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR12" t="n">
+        <v>202</v>
+      </c>
+      <c r="FS12" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT12" t="n">
+        <v>197</v>
+      </c>
+      <c r="FU12" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV12" t="n">
+        <v>42</v>
+      </c>
+      <c r="FW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>346</v>
+        <v>392</v>
       </c>
       <c r="B13" t="s">
-        <v>347</v>
+        <v>393</v>
       </c>
       <c r="C13" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="D13" t="s">
-        <v>348</v>
+        <v>394</v>
       </c>
       <c r="E13" t="s">
-        <v>349</v>
+        <v>395</v>
       </c>
       <c r="F13"/>
       <c r="G13" t="s">
-        <v>350</v>
+        <v>396</v>
       </c>
       <c r="H13" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="I13" t="s">
-        <v>351</v>
+        <v>397</v>
       </c>
       <c r="J13" t="s">
-        <v>352</v>
+        <v>398</v>
       </c>
       <c r="K13" t="s">
-        <v>353</v>
+        <v>399</v>
       </c>
       <c r="L13"/>
       <c r="M13" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="N13" t="s">
-        <v>355</v>
+        <v>401</v>
       </c>
       <c r="O13" t="s">
-        <v>356</v>
+        <v>402</v>
       </c>
       <c r="P13" t="s">
-        <v>353</v>
+        <v>399</v>
       </c>
       <c r="Q13" t="s">
-        <v>357</v>
+        <v>403</v>
       </c>
       <c r="R13" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="S13" t="s">
-        <v>355</v>
+        <v>401</v>
       </c>
       <c r="T13" t="s">
-        <v>358</v>
+        <v>404</v>
       </c>
       <c r="U13" t="s">
-        <v>359</v>
+        <v>405</v>
       </c>
       <c r="V13"/>
       <c r="W13" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="X13" t="s">
-        <v>360</v>
+        <v>406</v>
       </c>
       <c r="Y13" t="s">
-        <v>361</v>
+        <v>407</v>
       </c>
       <c r="Z13" t="s">
-        <v>353</v>
+        <v>399</v>
       </c>
       <c r="AA13" t="s">
-        <v>362</v>
+        <v>408</v>
       </c>
       <c r="AB13" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="AC13" t="s">
-        <v>363</v>
+        <v>409</v>
       </c>
       <c r="AD13" t="s">
-        <v>356</v>
+        <v>402</v>
       </c>
       <c r="AE13" t="s">
-        <v>353</v>
+        <v>399</v>
       </c>
       <c r="AF13" t="s">
-        <v>357</v>
+        <v>403</v>
       </c>
       <c r="AG13" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="AH13" t="s">
-        <v>355</v>
+        <v>401</v>
       </c>
       <c r="AI13" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="AJ13" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AK13" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AL13" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AM13" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AN13" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AO13" t="n">
         <v>0.63</v>
@@ -7302,7 +8848,7 @@
         <v>0</v>
       </c>
       <c r="DA13" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="DB13" t="n">
         <v>0.13</v>
@@ -7385,111 +8931,249 @@
       <c r="ED13" t="n">
         <v>30198</v>
       </c>
+      <c r="EE13" t="n">
+        <v>2</v>
+      </c>
+      <c r="EF13" t="n">
+        <v>25</v>
+      </c>
+      <c r="EG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ13" t="n">
+        <v>7</v>
+      </c>
+      <c r="ER13" t="n">
+        <v>351</v>
+      </c>
+      <c r="ES13" t="n">
+        <v>1</v>
+      </c>
+      <c r="ET13" t="n">
+        <v>30</v>
+      </c>
+      <c r="EU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW13" t="n">
+        <v>14</v>
+      </c>
+      <c r="EX13" t="n">
+        <v>429</v>
+      </c>
+      <c r="EY13" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ13" t="n">
+        <v>39</v>
+      </c>
+      <c r="FA13" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB13" t="n">
+        <v>135</v>
+      </c>
+      <c r="FC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI13" t="n">
+        <v>2</v>
+      </c>
+      <c r="FJ13" t="n">
+        <v>54</v>
+      </c>
+      <c r="FK13" t="n">
+        <v>2</v>
+      </c>
+      <c r="FL13" t="n">
+        <v>11</v>
+      </c>
+      <c r="FM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ13" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR13" t="n">
+        <v>80</v>
+      </c>
+      <c r="FS13" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT13" t="n">
+        <v>18</v>
+      </c>
+      <c r="FU13" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV13" t="n">
+        <v>46</v>
+      </c>
+      <c r="FW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>364</v>
+        <v>410</v>
       </c>
       <c r="B14" t="s">
-        <v>365</v>
+        <v>411</v>
       </c>
       <c r="C14" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="D14" t="s">
-        <v>366</v>
+        <v>412</v>
       </c>
       <c r="E14" t="s">
-        <v>367</v>
+        <v>413</v>
       </c>
       <c r="F14"/>
       <c r="G14" t="s">
-        <v>368</v>
+        <v>414</v>
       </c>
       <c r="H14" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="I14" t="s">
-        <v>369</v>
+        <v>415</v>
       </c>
       <c r="J14" t="s">
-        <v>370</v>
+        <v>416</v>
       </c>
       <c r="K14" t="s">
-        <v>371</v>
+        <v>417</v>
       </c>
       <c r="L14"/>
       <c r="M14" t="s">
-        <v>372</v>
+        <v>418</v>
       </c>
       <c r="N14" t="s">
-        <v>373</v>
+        <v>419</v>
       </c>
       <c r="O14" t="s">
-        <v>370</v>
+        <v>416</v>
       </c>
       <c r="P14" t="s">
-        <v>371</v>
+        <v>417</v>
       </c>
       <c r="Q14"/>
       <c r="R14"/>
       <c r="S14" t="s">
-        <v>373</v>
+        <v>419</v>
       </c>
       <c r="T14" t="s">
-        <v>374</v>
+        <v>420</v>
       </c>
       <c r="U14" t="s">
-        <v>375</v>
+        <v>421</v>
       </c>
       <c r="V14"/>
       <c r="W14"/>
       <c r="X14" t="s">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="Y14" t="s">
-        <v>377</v>
+        <v>423</v>
       </c>
       <c r="Z14" t="s">
-        <v>378</v>
+        <v>424</v>
       </c>
       <c r="AA14"/>
       <c r="AB14" t="s">
-        <v>379</v>
+        <v>425</v>
       </c>
       <c r="AC14" t="s">
-        <v>380</v>
+        <v>426</v>
       </c>
       <c r="AD14" t="s">
-        <v>381</v>
+        <v>427</v>
       </c>
       <c r="AE14" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
       <c r="AF14"/>
       <c r="AG14" t="s">
-        <v>372</v>
+        <v>418</v>
       </c>
       <c r="AH14" t="s">
-        <v>383</v>
+        <v>429</v>
       </c>
       <c r="AI14" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="AJ14" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AK14" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AL14" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AM14" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AN14" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AO14"/>
       <c r="AP14" t="n">
@@ -7628,7 +9312,7 @@
       <c r="CY14"/>
       <c r="CZ14"/>
       <c r="DA14" t="s">
-        <v>224</v>
+        <v>270</v>
       </c>
       <c r="DB14" t="n">
         <v>1</v>
@@ -7652,7 +9336,7 @@
       <c r="DM14"/>
       <c r="DN14"/>
       <c r="DO14" t="s">
-        <v>384</v>
+        <v>430</v>
       </c>
       <c r="DP14" t="n">
         <v>4</v>
@@ -7689,111 +9373,209 @@
       <c r="ED14" t="n">
         <v>26207</v>
       </c>
+      <c r="EE14"/>
+      <c r="EF14"/>
+      <c r="EG14" t="n">
+        <v>2</v>
+      </c>
+      <c r="EH14" t="n">
+        <v>93</v>
+      </c>
+      <c r="EI14" t="n">
+        <v>2</v>
+      </c>
+      <c r="EJ14" t="n">
+        <v>84</v>
+      </c>
+      <c r="EK14" t="n">
+        <v>4</v>
+      </c>
+      <c r="EL14" t="n">
+        <v>94</v>
+      </c>
+      <c r="EM14" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN14" t="n">
+        <v>6</v>
+      </c>
+      <c r="EO14" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP14" t="n">
+        <v>5</v>
+      </c>
+      <c r="EQ14" t="n">
+        <v>5</v>
+      </c>
+      <c r="ER14" t="n">
+        <v>464</v>
+      </c>
+      <c r="ES14"/>
+      <c r="ET14"/>
+      <c r="EU14"/>
+      <c r="EV14"/>
+      <c r="EW14" t="n">
+        <v>4</v>
+      </c>
+      <c r="EX14" t="n">
+        <v>218</v>
+      </c>
+      <c r="EY14" t="n">
+        <v>5</v>
+      </c>
+      <c r="EZ14" t="n">
+        <v>155</v>
+      </c>
+      <c r="FA14"/>
+      <c r="FB14"/>
+      <c r="FC14"/>
+      <c r="FD14"/>
+      <c r="FE14" t="n">
+        <v>2</v>
+      </c>
+      <c r="FF14" t="n">
+        <v>10</v>
+      </c>
+      <c r="FG14" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH14" t="n">
+        <v>5</v>
+      </c>
+      <c r="FI14"/>
+      <c r="FJ14"/>
+      <c r="FK14"/>
+      <c r="FL14"/>
+      <c r="FM14"/>
+      <c r="FN14"/>
+      <c r="FO14"/>
+      <c r="FP14"/>
+      <c r="FQ14" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR14" t="n">
+        <v>76</v>
+      </c>
+      <c r="FS14" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT14" t="n">
+        <v>76</v>
+      </c>
+      <c r="FU14" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV14" t="n">
+        <v>53</v>
+      </c>
+      <c r="FW14"/>
+      <c r="FX14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>385</v>
+        <v>431</v>
       </c>
       <c r="B15" t="s">
-        <v>386</v>
+        <v>432</v>
       </c>
       <c r="C15" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="D15" t="s">
-        <v>387</v>
+        <v>433</v>
       </c>
       <c r="E15" t="s">
-        <v>388</v>
+        <v>434</v>
       </c>
       <c r="F15"/>
       <c r="G15" t="s">
-        <v>389</v>
+        <v>435</v>
       </c>
       <c r="H15" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="I15" t="s">
-        <v>390</v>
+        <v>436</v>
       </c>
       <c r="J15" t="s">
-        <v>391</v>
+        <v>437</v>
       </c>
       <c r="K15" t="s">
-        <v>392</v>
+        <v>438</v>
       </c>
       <c r="L15" t="s">
-        <v>393</v>
+        <v>439</v>
       </c>
       <c r="M15" t="s">
-        <v>394</v>
+        <v>440</v>
       </c>
       <c r="N15" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="O15" t="s">
-        <v>396</v>
+        <v>442</v>
       </c>
       <c r="P15" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
       <c r="Q15"/>
       <c r="R15"/>
       <c r="S15" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="T15" t="s">
-        <v>398</v>
+        <v>444</v>
       </c>
       <c r="U15" t="s">
-        <v>399</v>
+        <v>445</v>
       </c>
       <c r="V15"/>
       <c r="W15"/>
       <c r="X15" t="s">
-        <v>400</v>
+        <v>446</v>
       </c>
       <c r="Y15" t="s">
-        <v>401</v>
+        <v>447</v>
       </c>
       <c r="Z15" t="s">
-        <v>402</v>
+        <v>448</v>
       </c>
       <c r="AA15"/>
       <c r="AB15"/>
       <c r="AC15" t="s">
-        <v>403</v>
+        <v>449</v>
       </c>
       <c r="AD15" t="s">
-        <v>396</v>
+        <v>442</v>
       </c>
       <c r="AE15" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
       <c r="AF15"/>
       <c r="AG15" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
       <c r="AH15" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="AI15" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="AJ15" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AK15" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AL15" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AM15" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="AN15" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AO15" t="n">
         <v>0.23</v>
@@ -8043,113 +9825,191 @@
       <c r="ED15" t="n">
         <v>39088</v>
       </c>
+      <c r="EE15"/>
+      <c r="EF15"/>
+      <c r="EG15"/>
+      <c r="EH15"/>
+      <c r="EI15"/>
+      <c r="EJ15"/>
+      <c r="EK15"/>
+      <c r="EL15"/>
+      <c r="EM15"/>
+      <c r="EN15"/>
+      <c r="EO15"/>
+      <c r="EP15"/>
+      <c r="EQ15" t="n">
+        <v>3</v>
+      </c>
+      <c r="ER15" t="n">
+        <v>178</v>
+      </c>
+      <c r="ES15"/>
+      <c r="ET15"/>
+      <c r="EU15"/>
+      <c r="EV15"/>
+      <c r="EW15" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX15" t="n">
+        <v>25</v>
+      </c>
+      <c r="EY15"/>
+      <c r="EZ15"/>
+      <c r="FA15"/>
+      <c r="FB15"/>
+      <c r="FC15"/>
+      <c r="FD15"/>
+      <c r="FE15" t="n">
+        <v>9</v>
+      </c>
+      <c r="FF15" t="n">
+        <v>811</v>
+      </c>
+      <c r="FG15"/>
+      <c r="FH15"/>
+      <c r="FI15" t="n">
+        <v>8</v>
+      </c>
+      <c r="FJ15" t="n">
+        <v>594</v>
+      </c>
+      <c r="FK15" t="n">
+        <v>4</v>
+      </c>
+      <c r="FL15" t="n">
+        <v>139</v>
+      </c>
+      <c r="FM15"/>
+      <c r="FN15"/>
+      <c r="FO15"/>
+      <c r="FP15"/>
+      <c r="FQ15" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR15" t="n">
+        <v>304</v>
+      </c>
+      <c r="FS15" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT15" t="n">
+        <v>146</v>
+      </c>
+      <c r="FU15"/>
+      <c r="FV15"/>
+      <c r="FW15" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX15" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>404</v>
+        <v>450</v>
       </c>
       <c r="B16" t="s">
-        <v>405</v>
+        <v>451</v>
       </c>
       <c r="C16" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="D16" t="s">
-        <v>406</v>
+        <v>452</v>
       </c>
       <c r="E16" t="s">
-        <v>407</v>
+        <v>453</v>
       </c>
       <c r="F16"/>
       <c r="G16" t="s">
-        <v>252</v>
+        <v>298</v>
       </c>
       <c r="H16" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="I16" t="s">
-        <v>408</v>
+        <v>454</v>
       </c>
       <c r="J16" t="s">
-        <v>409</v>
+        <v>455</v>
       </c>
       <c r="K16" t="s">
-        <v>410</v>
+        <v>456</v>
       </c>
       <c r="L16"/>
       <c r="M16" t="s">
-        <v>411</v>
+        <v>457</v>
       </c>
       <c r="N16" t="s">
-        <v>412</v>
+        <v>458</v>
       </c>
       <c r="O16" t="s">
-        <v>413</v>
+        <v>459</v>
       </c>
       <c r="P16" t="s">
-        <v>410</v>
+        <v>456</v>
       </c>
       <c r="Q16"/>
       <c r="R16" t="s">
-        <v>411</v>
+        <v>457</v>
       </c>
       <c r="S16" t="s">
-        <v>412</v>
+        <v>458</v>
       </c>
       <c r="T16" t="s">
-        <v>414</v>
+        <v>460</v>
       </c>
       <c r="U16" t="s">
-        <v>415</v>
+        <v>461</v>
       </c>
       <c r="V16"/>
       <c r="W16"/>
       <c r="X16" t="s">
-        <v>416</v>
+        <v>462</v>
       </c>
       <c r="Y16" t="s">
-        <v>417</v>
+        <v>463</v>
       </c>
       <c r="Z16" t="s">
-        <v>418</v>
+        <v>464</v>
       </c>
       <c r="AA16" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="AB16"/>
       <c r="AC16" t="s">
-        <v>420</v>
+        <v>466</v>
       </c>
       <c r="AD16" t="s">
-        <v>421</v>
+        <v>467</v>
       </c>
       <c r="AE16" t="s">
-        <v>422</v>
+        <v>468</v>
       </c>
       <c r="AF16"/>
       <c r="AG16" t="s">
-        <v>411</v>
+        <v>457</v>
       </c>
       <c r="AH16" t="s">
-        <v>423</v>
+        <v>469</v>
       </c>
       <c r="AI16" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="AJ16" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AK16" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AL16" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="AM16" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="AN16" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AO16" t="n">
         <v>7.91</v>
@@ -8308,7 +10168,7 @@
       <c r="CY16"/>
       <c r="CZ16"/>
       <c r="DA16" t="s">
-        <v>424</v>
+        <v>470</v>
       </c>
       <c r="DB16" t="n">
         <v>0.38</v>
@@ -8371,60 +10231,178 @@
       <c r="ED16" t="n">
         <v>168750</v>
       </c>
+      <c r="EE16" t="n">
+        <v>10</v>
+      </c>
+      <c r="EF16" t="n">
+        <v>694</v>
+      </c>
+      <c r="EG16"/>
+      <c r="EH16"/>
+      <c r="EI16" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ16" t="n">
+        <v>16</v>
+      </c>
+      <c r="EK16" t="n">
+        <v>3</v>
+      </c>
+      <c r="EL16" t="n">
+        <v>129</v>
+      </c>
+      <c r="EM16" t="n">
+        <v>13</v>
+      </c>
+      <c r="EN16" t="n">
+        <v>617</v>
+      </c>
+      <c r="EO16" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP16" t="n">
+        <v>15</v>
+      </c>
+      <c r="EQ16" t="n">
+        <v>18</v>
+      </c>
+      <c r="ER16" t="n">
+        <v>971</v>
+      </c>
+      <c r="ES16" t="n">
+        <v>1</v>
+      </c>
+      <c r="ET16" t="n">
+        <v>34</v>
+      </c>
+      <c r="EU16" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV16" t="n">
+        <v>102</v>
+      </c>
+      <c r="EW16"/>
+      <c r="EX16"/>
+      <c r="EY16" t="n">
+        <v>9</v>
+      </c>
+      <c r="EZ16" t="n">
+        <v>359</v>
+      </c>
+      <c r="FA16" t="n">
+        <v>2</v>
+      </c>
+      <c r="FB16" t="n">
+        <v>42</v>
+      </c>
+      <c r="FC16"/>
+      <c r="FD16"/>
+      <c r="FE16" t="n">
+        <v>2</v>
+      </c>
+      <c r="FF16" t="n">
+        <v>29</v>
+      </c>
+      <c r="FG16" t="n">
+        <v>2</v>
+      </c>
+      <c r="FH16" t="n">
+        <v>76</v>
+      </c>
+      <c r="FI16" t="n">
+        <v>5</v>
+      </c>
+      <c r="FJ16" t="n">
+        <v>188</v>
+      </c>
+      <c r="FK16" t="n">
+        <v>7</v>
+      </c>
+      <c r="FL16" t="n">
+        <v>99</v>
+      </c>
+      <c r="FM16"/>
+      <c r="FN16"/>
+      <c r="FO16"/>
+      <c r="FP16"/>
+      <c r="FQ16" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR16" t="n">
+        <v>125</v>
+      </c>
+      <c r="FS16" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT16" t="n">
+        <v>267</v>
+      </c>
+      <c r="FU16" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV16" t="n">
+        <v>26</v>
+      </c>
+      <c r="FW16" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX16" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>425</v>
+        <v>471</v>
       </c>
       <c r="B17" t="s">
-        <v>426</v>
+        <v>472</v>
       </c>
       <c r="C17" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="D17" t="s">
-        <v>427</v>
+        <v>473</v>
       </c>
       <c r="E17" t="s">
-        <v>428</v>
+        <v>474</v>
       </c>
       <c r="F17"/>
       <c r="G17" t="s">
-        <v>429</v>
+        <v>475</v>
       </c>
       <c r="H17" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="I17" t="s">
-        <v>430</v>
+        <v>476</v>
       </c>
       <c r="J17" t="s">
-        <v>431</v>
+        <v>477</v>
       </c>
       <c r="K17" t="s">
-        <v>432</v>
+        <v>478</v>
       </c>
       <c r="L17"/>
       <c r="M17" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
       <c r="N17" t="s">
-        <v>434</v>
+        <v>480</v>
       </c>
       <c r="O17" t="s">
-        <v>435</v>
+        <v>481</v>
       </c>
       <c r="P17" t="s">
-        <v>432</v>
+        <v>478</v>
       </c>
       <c r="Q17" t="s">
-        <v>436</v>
+        <v>482</v>
       </c>
       <c r="R17" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
       <c r="S17" t="s">
-        <v>434</v>
+        <v>480</v>
       </c>
       <c r="T17"/>
       <c r="U17"/>
@@ -8432,46 +10410,46 @@
       <c r="W17"/>
       <c r="X17"/>
       <c r="Y17" t="s">
-        <v>437</v>
+        <v>483</v>
       </c>
       <c r="Z17" t="s">
-        <v>432</v>
+        <v>478</v>
       </c>
       <c r="AA17"/>
       <c r="AB17"/>
       <c r="AC17" t="s">
-        <v>438</v>
+        <v>484</v>
       </c>
       <c r="AD17" t="s">
-        <v>431</v>
+        <v>477</v>
       </c>
       <c r="AE17" t="s">
-        <v>432</v>
+        <v>478</v>
       </c>
       <c r="AF17"/>
       <c r="AG17" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
       <c r="AH17" t="s">
-        <v>434</v>
+        <v>480</v>
       </c>
       <c r="AI17" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="AJ17" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AK17" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AL17" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AM17" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AN17" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AO17"/>
       <c r="AP17" t="n">
@@ -8669,105 +10647,187 @@
       <c r="ED17" t="n">
         <v>41060</v>
       </c>
+      <c r="EE17"/>
+      <c r="EF17"/>
+      <c r="EG17" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH17" t="n">
+        <v>73</v>
+      </c>
+      <c r="EI17"/>
+      <c r="EJ17"/>
+      <c r="EK17"/>
+      <c r="EL17"/>
+      <c r="EM17" t="n">
+        <v>2</v>
+      </c>
+      <c r="EN17" t="n">
+        <v>128</v>
+      </c>
+      <c r="EO17"/>
+      <c r="EP17"/>
+      <c r="EQ17" t="n">
+        <v>13</v>
+      </c>
+      <c r="ER17" t="n">
+        <v>457</v>
+      </c>
+      <c r="ES17"/>
+      <c r="ET17"/>
+      <c r="EU17"/>
+      <c r="EV17"/>
+      <c r="EW17" t="n">
+        <v>28</v>
+      </c>
+      <c r="EX17" t="n">
+        <v>903</v>
+      </c>
+      <c r="EY17"/>
+      <c r="EZ17"/>
+      <c r="FA17"/>
+      <c r="FB17"/>
+      <c r="FC17"/>
+      <c r="FD17"/>
+      <c r="FE17"/>
+      <c r="FF17"/>
+      <c r="FG17"/>
+      <c r="FH17"/>
+      <c r="FI17" t="n">
+        <v>1</v>
+      </c>
+      <c r="FJ17" t="n">
+        <v>9</v>
+      </c>
+      <c r="FK17" t="n">
+        <v>5</v>
+      </c>
+      <c r="FL17" t="n">
+        <v>193</v>
+      </c>
+      <c r="FM17"/>
+      <c r="FN17"/>
+      <c r="FO17"/>
+      <c r="FP17"/>
+      <c r="FQ17" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR17" t="n">
+        <v>134</v>
+      </c>
+      <c r="FS17" t="n">
+        <v>2</v>
+      </c>
+      <c r="FT17" t="n">
+        <v>93</v>
+      </c>
+      <c r="FU17" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV17" t="n">
+        <v>32</v>
+      </c>
+      <c r="FW17"/>
+      <c r="FX17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>439</v>
+        <v>485</v>
       </c>
       <c r="B18" t="s">
-        <v>440</v>
+        <v>486</v>
       </c>
       <c r="C18" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="D18" t="s">
-        <v>441</v>
+        <v>487</v>
       </c>
       <c r="E18" t="s">
-        <v>442</v>
+        <v>488</v>
       </c>
       <c r="F18"/>
       <c r="G18" t="s">
-        <v>252</v>
+        <v>298</v>
       </c>
       <c r="H18" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="I18" t="s">
-        <v>443</v>
+        <v>489</v>
       </c>
       <c r="J18" t="s">
-        <v>444</v>
+        <v>490</v>
       </c>
       <c r="K18" t="s">
-        <v>445</v>
+        <v>491</v>
       </c>
       <c r="L18"/>
       <c r="M18"/>
       <c r="N18" t="s">
-        <v>446</v>
+        <v>492</v>
       </c>
       <c r="O18" t="s">
-        <v>444</v>
+        <v>490</v>
       </c>
       <c r="P18" t="s">
-        <v>447</v>
+        <v>493</v>
       </c>
       <c r="Q18"/>
       <c r="R18"/>
       <c r="S18" t="s">
-        <v>446</v>
+        <v>492</v>
       </c>
       <c r="T18" t="s">
-        <v>448</v>
+        <v>494</v>
       </c>
       <c r="U18" t="s">
-        <v>449</v>
+        <v>495</v>
       </c>
       <c r="V18"/>
       <c r="W18"/>
       <c r="X18" t="s">
-        <v>450</v>
+        <v>496</v>
       </c>
       <c r="Y18" t="s">
-        <v>451</v>
+        <v>497</v>
       </c>
       <c r="Z18" t="s">
-        <v>452</v>
+        <v>498</v>
       </c>
       <c r="AA18"/>
       <c r="AB18"/>
       <c r="AC18" t="s">
-        <v>453</v>
+        <v>499</v>
       </c>
       <c r="AD18" t="s">
-        <v>454</v>
+        <v>500</v>
       </c>
       <c r="AE18" t="s">
-        <v>455</v>
+        <v>501</v>
       </c>
       <c r="AF18"/>
       <c r="AG18"/>
       <c r="AH18" t="s">
-        <v>456</v>
+        <v>502</v>
       </c>
       <c r="AI18" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="AJ18" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="AK18" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AL18" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AM18" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="AN18" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AO18" t="n">
         <v>1</v>
@@ -8997,60 +11057,154 @@
       <c r="ED18" t="n">
         <v>15621</v>
       </c>
+      <c r="EE18" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF18" t="n">
+        <v>15</v>
+      </c>
+      <c r="EG18"/>
+      <c r="EH18"/>
+      <c r="EI18" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ18" t="n">
+        <v>109</v>
+      </c>
+      <c r="EK18" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL18" t="n">
+        <v>27</v>
+      </c>
+      <c r="EM18" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN18" t="n">
+        <v>59</v>
+      </c>
+      <c r="EO18" t="n">
+        <v>2</v>
+      </c>
+      <c r="EP18" t="n">
+        <v>54</v>
+      </c>
+      <c r="EQ18" t="n">
+        <v>2</v>
+      </c>
+      <c r="ER18" t="n">
+        <v>147</v>
+      </c>
+      <c r="ES18"/>
+      <c r="ET18"/>
+      <c r="EU18"/>
+      <c r="EV18"/>
+      <c r="EW18"/>
+      <c r="EX18"/>
+      <c r="EY18"/>
+      <c r="EZ18"/>
+      <c r="FA18"/>
+      <c r="FB18"/>
+      <c r="FC18"/>
+      <c r="FD18"/>
+      <c r="FE18" t="n">
+        <v>3</v>
+      </c>
+      <c r="FF18" t="n">
+        <v>144</v>
+      </c>
+      <c r="FG18" t="n">
+        <v>3</v>
+      </c>
+      <c r="FH18" t="n">
+        <v>140</v>
+      </c>
+      <c r="FI18" t="n">
+        <v>1</v>
+      </c>
+      <c r="FJ18" t="n">
+        <v>50</v>
+      </c>
+      <c r="FK18"/>
+      <c r="FL18"/>
+      <c r="FM18"/>
+      <c r="FN18"/>
+      <c r="FO18"/>
+      <c r="FP18"/>
+      <c r="FQ18" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR18" t="n">
+        <v>136</v>
+      </c>
+      <c r="FS18" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT18" t="n">
+        <v>119</v>
+      </c>
+      <c r="FU18" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV18" t="n">
+        <v>52</v>
+      </c>
+      <c r="FW18"/>
+      <c r="FX18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>457</v>
+        <v>503</v>
       </c>
       <c r="B19" t="s">
-        <v>458</v>
+        <v>504</v>
       </c>
       <c r="C19" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="D19" t="s">
-        <v>459</v>
+        <v>505</v>
       </c>
       <c r="E19" t="s">
-        <v>460</v>
+        <v>506</v>
       </c>
       <c r="F19"/>
       <c r="G19" t="s">
-        <v>252</v>
+        <v>298</v>
       </c>
       <c r="H19" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="I19" t="s">
-        <v>461</v>
+        <v>507</v>
       </c>
       <c r="J19" t="s">
-        <v>462</v>
+        <v>508</v>
       </c>
       <c r="K19" t="s">
-        <v>463</v>
+        <v>509</v>
       </c>
       <c r="L19" t="s">
-        <v>464</v>
+        <v>510</v>
       </c>
       <c r="M19"/>
       <c r="N19" t="s">
-        <v>465</v>
+        <v>511</v>
       </c>
       <c r="O19" t="s">
-        <v>466</v>
+        <v>512</v>
       </c>
       <c r="P19" t="s">
-        <v>463</v>
+        <v>509</v>
       </c>
       <c r="Q19" t="s">
-        <v>467</v>
+        <v>513</v>
       </c>
       <c r="R19" t="s">
-        <v>468</v>
+        <v>514</v>
       </c>
       <c r="S19" t="s">
-        <v>469</v>
+        <v>515</v>
       </c>
       <c r="T19"/>
       <c r="U19"/>
@@ -9058,48 +11212,48 @@
       <c r="W19"/>
       <c r="X19"/>
       <c r="Y19" t="s">
-        <v>470</v>
+        <v>516</v>
       </c>
       <c r="Z19" t="s">
-        <v>463</v>
+        <v>509</v>
       </c>
       <c r="AA19" t="s">
-        <v>471</v>
+        <v>517</v>
       </c>
       <c r="AB19"/>
       <c r="AC19" t="s">
-        <v>472</v>
+        <v>518</v>
       </c>
       <c r="AD19" t="s">
-        <v>473</v>
+        <v>519</v>
       </c>
       <c r="AE19" t="s">
-        <v>463</v>
+        <v>509</v>
       </c>
       <c r="AF19" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="AG19"/>
       <c r="AH19" t="s">
-        <v>475</v>
+        <v>521</v>
       </c>
       <c r="AI19" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="AJ19" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AK19" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AL19" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AM19" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="AN19" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AO19" t="n">
         <v>1.25</v>
@@ -9292,7 +11446,7 @@
         <v>0</v>
       </c>
       <c r="DA19" t="s">
-        <v>476</v>
+        <v>522</v>
       </c>
       <c r="DB19" t="n">
         <v>2.85</v>
@@ -9334,7 +11488,7 @@
         <v>4.75</v>
       </c>
       <c r="DO19" t="s">
-        <v>477</v>
+        <v>523</v>
       </c>
       <c r="DP19" t="n">
         <v>3</v>
@@ -9378,57 +11532,195 @@
       </c>
       <c r="ED19" t="n">
         <v>74371</v>
+      </c>
+      <c r="EE19" t="n">
+        <v>2</v>
+      </c>
+      <c r="EF19" t="n">
+        <v>45</v>
+      </c>
+      <c r="EG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI19" t="n">
+        <v>10</v>
+      </c>
+      <c r="EJ19" t="n">
+        <v>346</v>
+      </c>
+      <c r="EK19" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL19" t="n">
+        <v>45</v>
+      </c>
+      <c r="EM19" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN19" t="n">
+        <v>20</v>
+      </c>
+      <c r="EO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ19" t="n">
+        <v>5</v>
+      </c>
+      <c r="ER19" t="n">
+        <v>196</v>
+      </c>
+      <c r="ES19" t="n">
+        <v>3</v>
+      </c>
+      <c r="ET19" t="n">
+        <v>99</v>
+      </c>
+      <c r="EU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW19" t="n">
+        <v>26</v>
+      </c>
+      <c r="EX19" t="n">
+        <v>1428</v>
+      </c>
+      <c r="EY19" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ19" t="n">
+        <v>17</v>
+      </c>
+      <c r="FA19" t="n">
+        <v>2</v>
+      </c>
+      <c r="FB19" t="n">
+        <v>62</v>
+      </c>
+      <c r="FC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE19" t="n">
+        <v>3</v>
+      </c>
+      <c r="FF19" t="n">
+        <v>19</v>
+      </c>
+      <c r="FG19" t="n">
+        <v>2</v>
+      </c>
+      <c r="FH19" t="n">
+        <v>16</v>
+      </c>
+      <c r="FI19" t="n">
+        <v>11</v>
+      </c>
+      <c r="FJ19" t="n">
+        <v>850</v>
+      </c>
+      <c r="FK19" t="n">
+        <v>2</v>
+      </c>
+      <c r="FL19" t="n">
+        <v>4</v>
+      </c>
+      <c r="FM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ19" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR19" t="n">
+        <v>240</v>
+      </c>
+      <c r="FS19" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT19" t="n">
+        <v>26</v>
+      </c>
+      <c r="FU19" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV19" t="n">
+        <v>11</v>
+      </c>
+      <c r="FW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>478</v>
+        <v>524</v>
       </c>
       <c r="B20" t="s">
-        <v>479</v>
+        <v>525</v>
       </c>
       <c r="C20" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="D20" t="s">
-        <v>480</v>
+        <v>526</v>
       </c>
       <c r="E20" t="s">
-        <v>481</v>
+        <v>527</v>
       </c>
       <c r="F20"/>
       <c r="G20" t="s">
-        <v>252</v>
+        <v>298</v>
       </c>
       <c r="H20" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="I20" t="s">
-        <v>283</v>
+        <v>329</v>
       </c>
       <c r="J20" t="s">
-        <v>482</v>
+        <v>528</v>
       </c>
       <c r="K20" t="s">
-        <v>483</v>
+        <v>529</v>
       </c>
       <c r="L20"/>
       <c r="M20"/>
       <c r="N20" t="s">
-        <v>484</v>
+        <v>530</v>
       </c>
       <c r="O20" t="s">
-        <v>485</v>
+        <v>531</v>
       </c>
       <c r="P20" t="s">
-        <v>483</v>
+        <v>529</v>
       </c>
       <c r="Q20"/>
       <c r="R20" t="s">
-        <v>486</v>
+        <v>532</v>
       </c>
       <c r="S20" t="s">
-        <v>484</v>
+        <v>530</v>
       </c>
       <c r="T20"/>
       <c r="U20"/>
@@ -9436,48 +11728,48 @@
       <c r="W20"/>
       <c r="X20"/>
       <c r="Y20" t="s">
-        <v>487</v>
+        <v>533</v>
       </c>
       <c r="Z20" t="s">
-        <v>488</v>
+        <v>534</v>
       </c>
       <c r="AA20"/>
       <c r="AB20" t="s">
-        <v>486</v>
+        <v>532</v>
       </c>
       <c r="AC20" t="s">
-        <v>489</v>
+        <v>535</v>
       </c>
       <c r="AD20" t="s">
-        <v>485</v>
+        <v>531</v>
       </c>
       <c r="AE20" t="s">
-        <v>483</v>
+        <v>529</v>
       </c>
       <c r="AF20"/>
       <c r="AG20" t="s">
-        <v>486</v>
+        <v>532</v>
       </c>
       <c r="AH20" t="s">
-        <v>484</v>
+        <v>530</v>
       </c>
       <c r="AI20" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AJ20" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AK20" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="AL20" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AM20" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="AN20" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AO20" t="n">
         <v>1</v>
@@ -9670,7 +11962,7 @@
       <c r="DM20"/>
       <c r="DN20"/>
       <c r="DO20" t="s">
-        <v>490</v>
+        <v>536</v>
       </c>
       <c r="DP20" t="n">
         <v>2</v>
@@ -9711,107 +12003,197 @@
       <c r="ED20" t="n">
         <v>10477</v>
       </c>
+      <c r="EE20" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF20" t="n">
+        <v>31</v>
+      </c>
+      <c r="EG20"/>
+      <c r="EH20"/>
+      <c r="EI20"/>
+      <c r="EJ20"/>
+      <c r="EK20"/>
+      <c r="EL20"/>
+      <c r="EM20"/>
+      <c r="EN20"/>
+      <c r="EO20" t="n">
+        <v>2</v>
+      </c>
+      <c r="EP20" t="n">
+        <v>139</v>
+      </c>
+      <c r="EQ20" t="n">
+        <v>3</v>
+      </c>
+      <c r="ER20" t="n">
+        <v>99</v>
+      </c>
+      <c r="ES20"/>
+      <c r="ET20"/>
+      <c r="EU20"/>
+      <c r="EV20"/>
+      <c r="EW20" t="n">
+        <v>2</v>
+      </c>
+      <c r="EX20" t="n">
+        <v>54</v>
+      </c>
+      <c r="EY20" t="n">
+        <v>2</v>
+      </c>
+      <c r="EZ20" t="n">
+        <v>183</v>
+      </c>
+      <c r="FA20" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB20" t="n">
+        <v>16</v>
+      </c>
+      <c r="FC20"/>
+      <c r="FD20"/>
+      <c r="FE20"/>
+      <c r="FF20"/>
+      <c r="FG20" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH20" t="n">
+        <v>60</v>
+      </c>
+      <c r="FI20" t="n">
+        <v>2</v>
+      </c>
+      <c r="FJ20" t="n">
+        <v>96</v>
+      </c>
+      <c r="FK20"/>
+      <c r="FL20"/>
+      <c r="FM20"/>
+      <c r="FN20"/>
+      <c r="FO20"/>
+      <c r="FP20"/>
+      <c r="FQ20" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR20" t="n">
+        <v>47</v>
+      </c>
+      <c r="FS20" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT20" t="n">
+        <v>11</v>
+      </c>
+      <c r="FU20" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV20" t="n">
+        <v>36</v>
+      </c>
+      <c r="FW20"/>
+      <c r="FX20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>491</v>
+        <v>537</v>
       </c>
       <c r="B21" t="s">
-        <v>492</v>
+        <v>538</v>
       </c>
       <c r="C21" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="D21" t="s">
-        <v>493</v>
+        <v>539</v>
       </c>
       <c r="E21" t="s">
-        <v>494</v>
+        <v>540</v>
       </c>
       <c r="F21"/>
       <c r="G21" t="s">
-        <v>252</v>
+        <v>298</v>
       </c>
       <c r="H21" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="I21" t="s">
-        <v>495</v>
+        <v>541</v>
       </c>
       <c r="J21" t="s">
-        <v>496</v>
+        <v>542</v>
       </c>
       <c r="K21" t="s">
-        <v>497</v>
+        <v>543</v>
       </c>
       <c r="L21"/>
       <c r="M21"/>
       <c r="N21" t="s">
-        <v>498</v>
+        <v>544</v>
       </c>
       <c r="O21" t="s">
-        <v>499</v>
+        <v>545</v>
       </c>
       <c r="P21" t="s">
-        <v>497</v>
+        <v>543</v>
       </c>
       <c r="Q21"/>
       <c r="R21"/>
       <c r="S21" t="s">
-        <v>498</v>
+        <v>544</v>
       </c>
       <c r="T21" t="s">
-        <v>500</v>
+        <v>546</v>
       </c>
       <c r="U21" t="s">
-        <v>501</v>
+        <v>547</v>
       </c>
       <c r="V21"/>
       <c r="W21"/>
       <c r="X21" t="s">
-        <v>502</v>
+        <v>548</v>
       </c>
       <c r="Y21" t="s">
-        <v>503</v>
+        <v>549</v>
       </c>
       <c r="Z21" t="s">
-        <v>504</v>
+        <v>550</v>
       </c>
       <c r="AA21" t="s">
-        <v>505</v>
+        <v>551</v>
       </c>
       <c r="AB21"/>
       <c r="AC21" t="s">
-        <v>506</v>
+        <v>552</v>
       </c>
       <c r="AD21" t="s">
-        <v>507</v>
+        <v>553</v>
       </c>
       <c r="AE21" t="s">
-        <v>508</v>
+        <v>554</v>
       </c>
       <c r="AF21"/>
       <c r="AG21"/>
       <c r="AH21" t="s">
-        <v>509</v>
+        <v>555</v>
       </c>
       <c r="AI21" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="AJ21" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AK21" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="AL21" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AM21" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="AN21" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AO21" t="n">
         <v>0.34</v>
@@ -10006,7 +12388,7 @@
         <v>0</v>
       </c>
       <c r="DA21" t="s">
-        <v>510</v>
+        <v>556</v>
       </c>
       <c r="DB21" t="n">
         <v>0.03</v>
@@ -10090,110 +12472,248 @@
       </c>
       <c r="ED21" t="n">
         <v>6721</v>
+      </c>
+      <c r="EE21" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF21" t="n">
+        <v>120</v>
+      </c>
+      <c r="EG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ21" t="n">
+        <v>3</v>
+      </c>
+      <c r="ER21" t="n">
+        <v>75</v>
+      </c>
+      <c r="ES21" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW21" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX21" t="n">
+        <v>71</v>
+      </c>
+      <c r="EY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE21" t="n">
+        <v>6</v>
+      </c>
+      <c r="FF21" t="n">
+        <v>120</v>
+      </c>
+      <c r="FG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ21" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR21" t="n">
+        <v>167</v>
+      </c>
+      <c r="FS21" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT21" t="n">
+        <v>6</v>
+      </c>
+      <c r="FU21" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV21" t="n">
+        <v>134</v>
+      </c>
+      <c r="FW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>511</v>
+        <v>557</v>
       </c>
       <c r="B22" t="s">
-        <v>512</v>
+        <v>558</v>
       </c>
       <c r="C22" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="D22" t="s">
-        <v>513</v>
+        <v>559</v>
       </c>
       <c r="E22" t="s">
-        <v>514</v>
+        <v>560</v>
       </c>
       <c r="F22"/>
       <c r="G22" t="s">
-        <v>515</v>
+        <v>561</v>
       </c>
       <c r="H22" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="I22" t="s">
-        <v>516</v>
+        <v>562</v>
       </c>
       <c r="J22" t="s">
-        <v>517</v>
+        <v>563</v>
       </c>
       <c r="K22" t="s">
-        <v>518</v>
+        <v>564</v>
       </c>
       <c r="L22"/>
       <c r="M22"/>
       <c r="N22" t="s">
-        <v>519</v>
+        <v>565</v>
       </c>
       <c r="O22" t="s">
-        <v>517</v>
+        <v>563</v>
       </c>
       <c r="P22" t="s">
-        <v>518</v>
+        <v>564</v>
       </c>
       <c r="Q22"/>
       <c r="R22" t="s">
-        <v>520</v>
+        <v>566</v>
       </c>
       <c r="S22" t="s">
-        <v>519</v>
+        <v>565</v>
       </c>
       <c r="T22" t="s">
-        <v>521</v>
+        <v>567</v>
       </c>
       <c r="U22" t="s">
-        <v>522</v>
+        <v>568</v>
       </c>
       <c r="V22"/>
       <c r="W22"/>
       <c r="X22" t="s">
-        <v>523</v>
+        <v>569</v>
       </c>
       <c r="Y22" t="s">
-        <v>524</v>
+        <v>570</v>
       </c>
       <c r="Z22" t="s">
-        <v>525</v>
+        <v>571</v>
       </c>
       <c r="AA22"/>
       <c r="AB22"/>
       <c r="AC22" t="s">
-        <v>526</v>
+        <v>572</v>
       </c>
       <c r="AD22" t="s">
-        <v>527</v>
+        <v>573</v>
       </c>
       <c r="AE22" t="s">
-        <v>525</v>
+        <v>571</v>
       </c>
       <c r="AF22" t="s">
-        <v>528</v>
+        <v>574</v>
       </c>
       <c r="AG22"/>
       <c r="AH22" t="s">
-        <v>529</v>
+        <v>575</v>
       </c>
       <c r="AI22" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="AJ22" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AK22" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AL22" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AM22" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AN22" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AO22"/>
       <c r="AP22" t="n">
@@ -10439,7 +12959,7 @@
         <v>0</v>
       </c>
       <c r="DT22" t="s">
-        <v>530</v>
+        <v>576</v>
       </c>
       <c r="DU22" t="n">
         <v>0.68</v>
@@ -10470,116 +12990,254 @@
       </c>
       <c r="ED22" t="n">
         <v>29290</v>
+      </c>
+      <c r="EE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI22" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ22" t="n">
+        <v>20</v>
+      </c>
+      <c r="EK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM22" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN22" t="n">
+        <v>4</v>
+      </c>
+      <c r="EO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ22" t="n">
+        <v>9</v>
+      </c>
+      <c r="ER22" t="n">
+        <v>145</v>
+      </c>
+      <c r="ES22" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW22" t="n">
+        <v>8</v>
+      </c>
+      <c r="EX22" t="n">
+        <v>1040</v>
+      </c>
+      <c r="EY22" t="n">
+        <v>2</v>
+      </c>
+      <c r="EZ22" t="n">
+        <v>147</v>
+      </c>
+      <c r="FA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI22" t="n">
+        <v>3</v>
+      </c>
+      <c r="FJ22" t="n">
+        <v>101</v>
+      </c>
+      <c r="FK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ22" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR22" t="n">
+        <v>22</v>
+      </c>
+      <c r="FS22" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT22" t="n">
+        <v>4</v>
+      </c>
+      <c r="FU22" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV22" t="n">
+        <v>6</v>
+      </c>
+      <c r="FW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>531</v>
+        <v>577</v>
       </c>
       <c r="B23" t="s">
-        <v>532</v>
+        <v>578</v>
       </c>
       <c r="C23" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="D23" t="s">
-        <v>533</v>
+        <v>579</v>
       </c>
       <c r="E23" t="s">
-        <v>534</v>
+        <v>580</v>
       </c>
       <c r="F23"/>
       <c r="G23" t="s">
-        <v>535</v>
+        <v>581</v>
       </c>
       <c r="H23" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="I23" t="s">
-        <v>536</v>
+        <v>582</v>
       </c>
       <c r="J23" t="s">
-        <v>537</v>
+        <v>583</v>
       </c>
       <c r="K23" t="s">
-        <v>538</v>
+        <v>584</v>
       </c>
       <c r="L23"/>
       <c r="M23"/>
       <c r="N23" t="s">
-        <v>539</v>
+        <v>585</v>
       </c>
       <c r="O23" t="s">
-        <v>540</v>
+        <v>586</v>
       </c>
       <c r="P23" t="s">
-        <v>538</v>
+        <v>584</v>
       </c>
       <c r="Q23"/>
       <c r="R23" t="s">
-        <v>541</v>
+        <v>587</v>
       </c>
       <c r="S23" t="s">
-        <v>542</v>
+        <v>588</v>
       </c>
       <c r="T23" t="s">
-        <v>543</v>
+        <v>589</v>
       </c>
       <c r="U23" t="s">
-        <v>544</v>
+        <v>590</v>
       </c>
       <c r="V23"/>
       <c r="W23" t="s">
-        <v>541</v>
+        <v>587</v>
       </c>
       <c r="X23" t="s">
-        <v>545</v>
+        <v>591</v>
       </c>
       <c r="Y23" t="s">
-        <v>546</v>
+        <v>592</v>
       </c>
       <c r="Z23" t="s">
-        <v>538</v>
+        <v>584</v>
       </c>
       <c r="AA23" t="s">
-        <v>547</v>
+        <v>593</v>
       </c>
       <c r="AB23" t="s">
-        <v>548</v>
+        <v>594</v>
       </c>
       <c r="AC23" t="s">
-        <v>549</v>
+        <v>595</v>
       </c>
       <c r="AD23" t="s">
-        <v>550</v>
+        <v>596</v>
       </c>
       <c r="AE23" t="s">
-        <v>544</v>
+        <v>590</v>
       </c>
       <c r="AF23"/>
       <c r="AG23" t="s">
-        <v>541</v>
+        <v>587</v>
       </c>
       <c r="AH23" t="s">
-        <v>551</v>
+        <v>597</v>
       </c>
       <c r="AI23" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="AJ23" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AK23" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AL23" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AM23" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AN23" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AO23" t="n">
         <v>0</v>
@@ -10774,7 +13432,7 @@
         <v>0</v>
       </c>
       <c r="DA23" t="s">
-        <v>224</v>
+        <v>270</v>
       </c>
       <c r="DB23" t="n">
         <v>0.23</v>
@@ -10816,7 +13474,7 @@
         <v>0</v>
       </c>
       <c r="DO23" t="s">
-        <v>246</v>
+        <v>292</v>
       </c>
       <c r="DP23" t="n">
         <v>0</v>
@@ -10860,116 +13518,206 @@
       </c>
       <c r="ED23" t="n">
         <v>116640</v>
+      </c>
+      <c r="EE23"/>
+      <c r="EF23"/>
+      <c r="EG23"/>
+      <c r="EH23"/>
+      <c r="EI23" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ23" t="n">
+        <v>130</v>
+      </c>
+      <c r="EK23"/>
+      <c r="EL23"/>
+      <c r="EM23"/>
+      <c r="EN23"/>
+      <c r="EO23"/>
+      <c r="EP23"/>
+      <c r="EQ23" t="n">
+        <v>29</v>
+      </c>
+      <c r="ER23" t="n">
+        <v>994</v>
+      </c>
+      <c r="ES23"/>
+      <c r="ET23"/>
+      <c r="EU23"/>
+      <c r="EV23"/>
+      <c r="EW23" t="n">
+        <v>39</v>
+      </c>
+      <c r="EX23" t="n">
+        <v>912</v>
+      </c>
+      <c r="EY23" t="n">
+        <v>5</v>
+      </c>
+      <c r="EZ23" t="n">
+        <v>250</v>
+      </c>
+      <c r="FA23" t="n">
+        <v>2</v>
+      </c>
+      <c r="FB23" t="n">
+        <v>179</v>
+      </c>
+      <c r="FC23"/>
+      <c r="FD23"/>
+      <c r="FE23"/>
+      <c r="FF23"/>
+      <c r="FG23"/>
+      <c r="FH23"/>
+      <c r="FI23" t="n">
+        <v>42</v>
+      </c>
+      <c r="FJ23" t="n">
+        <v>1884</v>
+      </c>
+      <c r="FK23" t="n">
+        <v>23</v>
+      </c>
+      <c r="FL23" t="n">
+        <v>549</v>
+      </c>
+      <c r="FM23"/>
+      <c r="FN23"/>
+      <c r="FO23"/>
+      <c r="FP23"/>
+      <c r="FQ23" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR23" t="n">
+        <v>244</v>
+      </c>
+      <c r="FS23" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT23" t="n">
+        <v>231</v>
+      </c>
+      <c r="FU23" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV23" t="n">
+        <v>12</v>
+      </c>
+      <c r="FW23" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX23" t="n">
+        <v>193</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>552</v>
+        <v>598</v>
       </c>
       <c r="B24" t="s">
-        <v>553</v>
+        <v>599</v>
       </c>
       <c r="C24" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="D24" t="s">
-        <v>554</v>
+        <v>600</v>
       </c>
       <c r="E24" t="s">
-        <v>555</v>
+        <v>601</v>
       </c>
       <c r="F24"/>
       <c r="G24" t="s">
-        <v>556</v>
+        <v>602</v>
       </c>
       <c r="H24" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="I24" t="s">
-        <v>557</v>
+        <v>603</v>
       </c>
       <c r="J24" t="s">
-        <v>558</v>
+        <v>604</v>
       </c>
       <c r="K24" t="s">
-        <v>559</v>
+        <v>605</v>
       </c>
       <c r="L24"/>
       <c r="M24" t="s">
-        <v>560</v>
+        <v>606</v>
       </c>
       <c r="N24" t="s">
-        <v>561</v>
+        <v>607</v>
       </c>
       <c r="O24" t="s">
-        <v>562</v>
+        <v>608</v>
       </c>
       <c r="P24" t="s">
-        <v>559</v>
+        <v>605</v>
       </c>
       <c r="Q24"/>
       <c r="R24" t="s">
-        <v>560</v>
+        <v>606</v>
       </c>
       <c r="S24" t="s">
-        <v>561</v>
+        <v>607</v>
       </c>
       <c r="T24" t="s">
-        <v>563</v>
+        <v>609</v>
       </c>
       <c r="U24" t="s">
-        <v>559</v>
+        <v>605</v>
       </c>
       <c r="V24"/>
       <c r="W24" t="s">
-        <v>560</v>
+        <v>606</v>
       </c>
       <c r="X24" t="s">
-        <v>561</v>
+        <v>607</v>
       </c>
       <c r="Y24" t="s">
-        <v>564</v>
+        <v>610</v>
       </c>
       <c r="Z24" t="s">
-        <v>559</v>
+        <v>605</v>
       </c>
       <c r="AA24"/>
       <c r="AB24" t="s">
-        <v>560</v>
+        <v>606</v>
       </c>
       <c r="AC24" t="s">
-        <v>565</v>
+        <v>611</v>
       </c>
       <c r="AD24" t="s">
-        <v>566</v>
+        <v>612</v>
       </c>
       <c r="AE24" t="s">
-        <v>559</v>
+        <v>605</v>
       </c>
       <c r="AF24"/>
       <c r="AG24" t="s">
-        <v>567</v>
+        <v>613</v>
       </c>
       <c r="AH24" t="s">
-        <v>568</v>
+        <v>614</v>
       </c>
       <c r="AI24" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="AJ24" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AK24" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="AL24" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="AM24" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="AN24" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AO24" t="n">
         <v>0.09</v>
@@ -11183,115 +13931,207 @@
       <c r="ED24" t="n">
         <v>113502</v>
       </c>
+      <c r="EE24" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF24" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG24"/>
+      <c r="EH24"/>
+      <c r="EI24"/>
+      <c r="EJ24"/>
+      <c r="EK24" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL24" t="n">
+        <v>24</v>
+      </c>
+      <c r="EM24" t="n">
+        <v>2</v>
+      </c>
+      <c r="EN24" t="n">
+        <v>74</v>
+      </c>
+      <c r="EO24"/>
+      <c r="EP24"/>
+      <c r="EQ24" t="n">
+        <v>12</v>
+      </c>
+      <c r="ER24" t="n">
+        <v>313</v>
+      </c>
+      <c r="ES24"/>
+      <c r="ET24"/>
+      <c r="EU24"/>
+      <c r="EV24"/>
+      <c r="EW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX24"/>
+      <c r="EY24" t="n">
+        <v>4</v>
+      </c>
+      <c r="EZ24" t="n">
+        <v>113</v>
+      </c>
+      <c r="FA24" t="n">
+        <v>2</v>
+      </c>
+      <c r="FB24" t="n">
+        <v>10</v>
+      </c>
+      <c r="FC24"/>
+      <c r="FD24"/>
+      <c r="FE24"/>
+      <c r="FF24"/>
+      <c r="FG24"/>
+      <c r="FH24"/>
+      <c r="FI24" t="n">
+        <v>1</v>
+      </c>
+      <c r="FJ24" t="n">
+        <v>5</v>
+      </c>
+      <c r="FK24" t="n">
+        <v>4</v>
+      </c>
+      <c r="FL24" t="n">
+        <v>215</v>
+      </c>
+      <c r="FM24"/>
+      <c r="FN24"/>
+      <c r="FO24"/>
+      <c r="FP24"/>
+      <c r="FQ24" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR24" t="n">
+        <v>240</v>
+      </c>
+      <c r="FS24" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT24" t="n">
+        <v>5</v>
+      </c>
+      <c r="FU24" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV24" t="n">
+        <v>69</v>
+      </c>
+      <c r="FW24"/>
+      <c r="FX24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>569</v>
+        <v>615</v>
       </c>
       <c r="B25" t="s">
-        <v>570</v>
+        <v>616</v>
       </c>
       <c r="C25" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="D25" t="s">
-        <v>571</v>
+        <v>617</v>
       </c>
       <c r="E25" t="s">
-        <v>572</v>
+        <v>618</v>
       </c>
       <c r="F25"/>
       <c r="G25" t="s">
-        <v>573</v>
+        <v>619</v>
       </c>
       <c r="H25" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="I25" t="s">
-        <v>574</v>
+        <v>620</v>
       </c>
       <c r="J25" t="s">
-        <v>575</v>
+        <v>621</v>
       </c>
       <c r="K25" t="s">
-        <v>576</v>
+        <v>622</v>
       </c>
       <c r="L25"/>
       <c r="M25" t="s">
-        <v>577</v>
+        <v>623</v>
       </c>
       <c r="N25" t="s">
-        <v>578</v>
+        <v>624</v>
       </c>
       <c r="O25" t="s">
-        <v>575</v>
+        <v>621</v>
       </c>
       <c r="P25" t="s">
-        <v>579</v>
+        <v>625</v>
       </c>
       <c r="Q25"/>
       <c r="R25" t="s">
-        <v>580</v>
+        <v>626</v>
       </c>
       <c r="S25" t="s">
-        <v>578</v>
+        <v>624</v>
       </c>
       <c r="T25" t="s">
-        <v>581</v>
+        <v>627</v>
       </c>
       <c r="U25" t="s">
-        <v>579</v>
+        <v>625</v>
       </c>
       <c r="V25"/>
       <c r="W25" t="s">
-        <v>580</v>
+        <v>626</v>
       </c>
       <c r="X25" t="s">
-        <v>582</v>
+        <v>628</v>
       </c>
       <c r="Y25" t="s">
-        <v>583</v>
+        <v>629</v>
       </c>
       <c r="Z25" t="s">
-        <v>579</v>
+        <v>625</v>
       </c>
       <c r="AA25"/>
       <c r="AB25" t="s">
-        <v>580</v>
+        <v>626</v>
       </c>
       <c r="AC25" t="s">
-        <v>584</v>
+        <v>630</v>
       </c>
       <c r="AD25" t="s">
-        <v>585</v>
+        <v>631</v>
       </c>
       <c r="AE25" t="s">
-        <v>579</v>
+        <v>625</v>
       </c>
       <c r="AF25"/>
       <c r="AG25" t="s">
-        <v>580</v>
+        <v>626</v>
       </c>
       <c r="AH25" t="s">
-        <v>586</v>
+        <v>632</v>
       </c>
       <c r="AI25" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="AJ25" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AK25" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AL25" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AM25" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="AN25" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AO25" t="n">
         <v>1</v>
@@ -11471,121 +14311,203 @@
       <c r="ED25" t="n">
         <v>13957</v>
       </c>
+      <c r="EE25" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF25" t="n">
+        <v>28</v>
+      </c>
+      <c r="EG25"/>
+      <c r="EH25"/>
+      <c r="EI25"/>
+      <c r="EJ25"/>
+      <c r="EK25"/>
+      <c r="EL25"/>
+      <c r="EM25" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN25" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO25"/>
+      <c r="EP25"/>
+      <c r="EQ25" t="n">
+        <v>2</v>
+      </c>
+      <c r="ER25" t="n">
+        <v>40</v>
+      </c>
+      <c r="ES25"/>
+      <c r="ET25"/>
+      <c r="EU25"/>
+      <c r="EV25"/>
+      <c r="EW25" t="n">
+        <v>2</v>
+      </c>
+      <c r="EX25" t="n">
+        <v>59</v>
+      </c>
+      <c r="EY25"/>
+      <c r="EZ25"/>
+      <c r="FA25"/>
+      <c r="FB25"/>
+      <c r="FC25"/>
+      <c r="FD25"/>
+      <c r="FE25" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF25" t="n">
+        <v>47</v>
+      </c>
+      <c r="FG25"/>
+      <c r="FH25"/>
+      <c r="FI25" t="n">
+        <v>2</v>
+      </c>
+      <c r="FJ25" t="n">
+        <v>13</v>
+      </c>
+      <c r="FK25"/>
+      <c r="FL25"/>
+      <c r="FM25"/>
+      <c r="FN25"/>
+      <c r="FO25"/>
+      <c r="FP25"/>
+      <c r="FQ25" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR25" t="n">
+        <v>104</v>
+      </c>
+      <c r="FS25" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT25" t="n">
+        <v>41</v>
+      </c>
+      <c r="FU25" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV25" t="n">
+        <v>31</v>
+      </c>
+      <c r="FW25"/>
+      <c r="FX25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>587</v>
+        <v>633</v>
       </c>
       <c r="B26" t="s">
-        <v>588</v>
+        <v>634</v>
       </c>
       <c r="C26" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="D26" t="s">
-        <v>589</v>
+        <v>635</v>
       </c>
       <c r="E26" t="s">
-        <v>590</v>
+        <v>636</v>
       </c>
       <c r="F26"/>
       <c r="G26" t="s">
-        <v>591</v>
+        <v>637</v>
       </c>
       <c r="H26" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="I26" t="s">
-        <v>592</v>
+        <v>638</v>
       </c>
       <c r="J26" t="s">
-        <v>593</v>
+        <v>639</v>
       </c>
       <c r="K26" t="s">
-        <v>594</v>
+        <v>640</v>
       </c>
       <c r="L26" t="s">
-        <v>595</v>
+        <v>641</v>
       </c>
       <c r="M26" t="s">
-        <v>594</v>
+        <v>640</v>
       </c>
       <c r="N26" t="s">
-        <v>596</v>
+        <v>642</v>
       </c>
       <c r="O26" t="s">
-        <v>597</v>
+        <v>643</v>
       </c>
       <c r="P26" t="s">
-        <v>594</v>
+        <v>640</v>
       </c>
       <c r="Q26" t="s">
-        <v>598</v>
+        <v>644</v>
       </c>
       <c r="R26" t="s">
-        <v>599</v>
+        <v>645</v>
       </c>
       <c r="S26" t="s">
-        <v>596</v>
+        <v>642</v>
       </c>
       <c r="T26" t="s">
-        <v>600</v>
+        <v>646</v>
       </c>
       <c r="U26" t="s">
-        <v>594</v>
+        <v>640</v>
       </c>
       <c r="V26"/>
       <c r="W26" t="s">
-        <v>599</v>
+        <v>645</v>
       </c>
       <c r="X26" t="s">
-        <v>596</v>
+        <v>642</v>
       </c>
       <c r="Y26" t="s">
-        <v>601</v>
+        <v>647</v>
       </c>
       <c r="Z26" t="s">
-        <v>594</v>
+        <v>640</v>
       </c>
       <c r="AA26"/>
       <c r="AB26" t="s">
-        <v>599</v>
+        <v>645</v>
       </c>
       <c r="AC26" t="s">
-        <v>602</v>
+        <v>648</v>
       </c>
       <c r="AD26" t="s">
-        <v>597</v>
+        <v>643</v>
       </c>
       <c r="AE26" t="s">
-        <v>594</v>
+        <v>640</v>
       </c>
       <c r="AF26" t="s">
-        <v>598</v>
+        <v>644</v>
       </c>
       <c r="AG26" t="s">
-        <v>599</v>
+        <v>645</v>
       </c>
       <c r="AH26" t="s">
-        <v>596</v>
+        <v>642</v>
       </c>
       <c r="AI26" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="AJ26" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AK26" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AL26" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AM26" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="AN26" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AO26" t="n">
         <v>2.55</v>
@@ -11763,113 +14685,203 @@
       <c r="ED26" t="n">
         <v>29353</v>
       </c>
+      <c r="EE26" t="n">
+        <v>2</v>
+      </c>
+      <c r="EF26" t="n">
+        <v>40</v>
+      </c>
+      <c r="EG26"/>
+      <c r="EH26"/>
+      <c r="EI26" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ26" t="n">
+        <v>72</v>
+      </c>
+      <c r="EK26"/>
+      <c r="EL26"/>
+      <c r="EM26"/>
+      <c r="EN26"/>
+      <c r="EO26"/>
+      <c r="EP26"/>
+      <c r="EQ26" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER26" t="n">
+        <v>2</v>
+      </c>
+      <c r="ES26"/>
+      <c r="ET26"/>
+      <c r="EU26"/>
+      <c r="EV26"/>
+      <c r="EW26" t="n">
+        <v>3</v>
+      </c>
+      <c r="EX26" t="n">
+        <v>24</v>
+      </c>
+      <c r="EY26" t="n">
+        <v>3</v>
+      </c>
+      <c r="EZ26" t="n">
+        <v>90</v>
+      </c>
+      <c r="FA26"/>
+      <c r="FB26"/>
+      <c r="FC26"/>
+      <c r="FD26"/>
+      <c r="FE26"/>
+      <c r="FF26"/>
+      <c r="FG26" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH26" t="n">
+        <v>25</v>
+      </c>
+      <c r="FI26" t="n">
+        <v>1</v>
+      </c>
+      <c r="FJ26" t="n">
+        <v>2</v>
+      </c>
+      <c r="FK26"/>
+      <c r="FL26"/>
+      <c r="FM26"/>
+      <c r="FN26"/>
+      <c r="FO26"/>
+      <c r="FP26"/>
+      <c r="FQ26" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR26" t="n">
+        <v>136</v>
+      </c>
+      <c r="FS26" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT26" t="n">
+        <v>24</v>
+      </c>
+      <c r="FU26" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV26" t="n">
+        <v>36</v>
+      </c>
+      <c r="FW26" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX26" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>603</v>
+        <v>649</v>
       </c>
       <c r="B27" t="s">
-        <v>604</v>
+        <v>650</v>
       </c>
       <c r="C27" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="D27" t="s">
-        <v>605</v>
+        <v>651</v>
       </c>
       <c r="E27" t="s">
-        <v>606</v>
+        <v>652</v>
       </c>
       <c r="F27"/>
       <c r="G27" t="s">
-        <v>607</v>
+        <v>653</v>
       </c>
       <c r="H27" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="I27" t="s">
-        <v>608</v>
+        <v>654</v>
       </c>
       <c r="J27" t="s">
-        <v>609</v>
+        <v>655</v>
       </c>
       <c r="K27" t="s">
-        <v>610</v>
+        <v>656</v>
       </c>
       <c r="L27"/>
       <c r="M27" t="s">
-        <v>611</v>
+        <v>657</v>
       </c>
       <c r="N27" t="s">
-        <v>612</v>
+        <v>658</v>
       </c>
       <c r="O27" t="s">
-        <v>609</v>
+        <v>655</v>
       </c>
       <c r="P27" t="s">
-        <v>610</v>
+        <v>656</v>
       </c>
       <c r="Q27"/>
       <c r="R27" t="s">
-        <v>613</v>
+        <v>659</v>
       </c>
       <c r="S27" t="s">
-        <v>612</v>
+        <v>658</v>
       </c>
       <c r="T27" t="s">
-        <v>614</v>
+        <v>660</v>
       </c>
       <c r="U27" t="s">
-        <v>615</v>
+        <v>661</v>
       </c>
       <c r="V27"/>
       <c r="W27"/>
       <c r="X27" t="s">
-        <v>616</v>
+        <v>662</v>
       </c>
       <c r="Y27" t="s">
-        <v>617</v>
+        <v>663</v>
       </c>
       <c r="Z27" t="s">
-        <v>618</v>
+        <v>664</v>
       </c>
       <c r="AA27"/>
       <c r="AB27" t="s">
-        <v>619</v>
+        <v>665</v>
       </c>
       <c r="AC27" t="s">
-        <v>620</v>
+        <v>666</v>
       </c>
       <c r="AD27" t="s">
-        <v>609</v>
+        <v>655</v>
       </c>
       <c r="AE27" t="s">
-        <v>610</v>
+        <v>656</v>
       </c>
       <c r="AF27"/>
       <c r="AG27" t="s">
-        <v>613</v>
+        <v>659</v>
       </c>
       <c r="AH27" t="s">
-        <v>612</v>
+        <v>658</v>
       </c>
       <c r="AI27" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="AJ27" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="AK27" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AL27" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AM27" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AN27" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AO27" t="n">
         <v>0.28</v>
@@ -12008,7 +15020,7 @@
         <v>0</v>
       </c>
       <c r="DA27" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="DB27" t="n">
         <v>1</v>
@@ -12047,7 +15059,7 @@
         <v>0</v>
       </c>
       <c r="DT27" t="s">
-        <v>621</v>
+        <v>667</v>
       </c>
       <c r="DU27" t="n">
         <v>4.53</v>
@@ -12079,119 +15091,209 @@
       <c r="ED27" t="n">
         <v>39421</v>
       </c>
+      <c r="EE27" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF27" t="n">
+        <v>24</v>
+      </c>
+      <c r="EG27"/>
+      <c r="EH27"/>
+      <c r="EI27"/>
+      <c r="EJ27"/>
+      <c r="EK27" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL27" t="n">
+        <v>36</v>
+      </c>
+      <c r="EM27"/>
+      <c r="EN27"/>
+      <c r="EO27" t="n">
+        <v>2</v>
+      </c>
+      <c r="EP27" t="n">
+        <v>139</v>
+      </c>
+      <c r="EQ27" t="n">
+        <v>7</v>
+      </c>
+      <c r="ER27" t="n">
+        <v>371</v>
+      </c>
+      <c r="ES27"/>
+      <c r="ET27"/>
+      <c r="EU27"/>
+      <c r="EV27"/>
+      <c r="EW27" t="n">
+        <v>20</v>
+      </c>
+      <c r="EX27" t="n">
+        <v>948</v>
+      </c>
+      <c r="EY27" t="n">
+        <v>5</v>
+      </c>
+      <c r="EZ27" t="n">
+        <v>160</v>
+      </c>
+      <c r="FA27"/>
+      <c r="FB27"/>
+      <c r="FC27"/>
+      <c r="FD27"/>
+      <c r="FE27"/>
+      <c r="FF27"/>
+      <c r="FG27"/>
+      <c r="FH27"/>
+      <c r="FI27" t="n">
+        <v>2</v>
+      </c>
+      <c r="FJ27" t="n">
+        <v>88</v>
+      </c>
+      <c r="FK27" t="n">
+        <v>4</v>
+      </c>
+      <c r="FL27" t="n">
+        <v>141</v>
+      </c>
+      <c r="FM27"/>
+      <c r="FN27"/>
+      <c r="FO27"/>
+      <c r="FP27"/>
+      <c r="FQ27" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR27" t="n">
+        <v>49</v>
+      </c>
+      <c r="FS27" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT27" t="n">
+        <v>26</v>
+      </c>
+      <c r="FU27" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV27" t="n">
+        <v>46</v>
+      </c>
+      <c r="FW27"/>
+      <c r="FX27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>622</v>
+        <v>668</v>
       </c>
       <c r="B28" t="s">
-        <v>623</v>
+        <v>669</v>
       </c>
       <c r="C28" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="D28" t="s">
-        <v>624</v>
+        <v>670</v>
       </c>
       <c r="E28" t="s">
-        <v>625</v>
+        <v>671</v>
       </c>
       <c r="F28"/>
       <c r="G28" t="s">
-        <v>626</v>
+        <v>672</v>
       </c>
       <c r="H28" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="I28" t="s">
-        <v>627</v>
+        <v>673</v>
       </c>
       <c r="J28" t="s">
-        <v>628</v>
+        <v>674</v>
       </c>
       <c r="K28" t="s">
-        <v>629</v>
+        <v>675</v>
       </c>
       <c r="L28"/>
       <c r="M28" t="s">
-        <v>630</v>
+        <v>676</v>
       </c>
       <c r="N28" t="s">
-        <v>631</v>
+        <v>677</v>
       </c>
       <c r="O28" t="s">
-        <v>628</v>
+        <v>674</v>
       </c>
       <c r="P28" t="s">
-        <v>629</v>
+        <v>675</v>
       </c>
       <c r="Q28" t="s">
-        <v>632</v>
+        <v>678</v>
       </c>
       <c r="R28" t="s">
-        <v>630</v>
+        <v>676</v>
       </c>
       <c r="S28" t="s">
-        <v>631</v>
+        <v>677</v>
       </c>
       <c r="T28" t="s">
-        <v>633</v>
+        <v>679</v>
       </c>
       <c r="U28" t="s">
-        <v>629</v>
+        <v>675</v>
       </c>
       <c r="V28"/>
       <c r="W28" t="s">
-        <v>630</v>
+        <v>676</v>
       </c>
       <c r="X28" t="s">
-        <v>631</v>
+        <v>677</v>
       </c>
       <c r="Y28" t="s">
-        <v>634</v>
+        <v>680</v>
       </c>
       <c r="Z28" t="s">
-        <v>635</v>
+        <v>681</v>
       </c>
       <c r="AA28" t="s">
-        <v>636</v>
+        <v>682</v>
       </c>
       <c r="AB28" t="s">
-        <v>630</v>
+        <v>676</v>
       </c>
       <c r="AC28" t="s">
-        <v>637</v>
+        <v>683</v>
       </c>
       <c r="AD28" t="s">
-        <v>638</v>
+        <v>684</v>
       </c>
       <c r="AE28" t="s">
-        <v>629</v>
+        <v>675</v>
       </c>
       <c r="AF28"/>
       <c r="AG28" t="s">
-        <v>639</v>
+        <v>685</v>
       </c>
       <c r="AH28" t="s">
-        <v>640</v>
+        <v>686</v>
       </c>
       <c r="AI28" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="AJ28" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AK28" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="AL28" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AM28" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="AN28" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AO28" t="n">
         <v>0.4</v>
@@ -12322,7 +15424,7 @@
       <c r="CY28"/>
       <c r="CZ28"/>
       <c r="DA28" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="DB28" t="n">
         <v>0.3</v>
@@ -12389,117 +15491,207 @@
       <c r="ED28" t="n">
         <v>33306</v>
       </c>
+      <c r="EE28" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF28" t="n">
+        <v>156</v>
+      </c>
+      <c r="EG28"/>
+      <c r="EH28"/>
+      <c r="EI28"/>
+      <c r="EJ28"/>
+      <c r="EK28"/>
+      <c r="EL28"/>
+      <c r="EM28" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN28" t="n">
+        <v>38</v>
+      </c>
+      <c r="EO28"/>
+      <c r="EP28"/>
+      <c r="EQ28" t="n">
+        <v>5</v>
+      </c>
+      <c r="ER28" t="n">
+        <v>159</v>
+      </c>
+      <c r="ES28"/>
+      <c r="ET28"/>
+      <c r="EU28"/>
+      <c r="EV28"/>
+      <c r="EW28" t="n">
+        <v>7</v>
+      </c>
+      <c r="EX28" t="n">
+        <v>456</v>
+      </c>
+      <c r="EY28" t="n">
+        <v>2</v>
+      </c>
+      <c r="EZ28" t="n">
+        <v>131</v>
+      </c>
+      <c r="FA28" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB28" t="n">
+        <v>112</v>
+      </c>
+      <c r="FC28"/>
+      <c r="FD28"/>
+      <c r="FE28" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF28" t="n">
+        <v>54</v>
+      </c>
+      <c r="FG28"/>
+      <c r="FH28"/>
+      <c r="FI28"/>
+      <c r="FJ28"/>
+      <c r="FK28"/>
+      <c r="FL28"/>
+      <c r="FM28"/>
+      <c r="FN28"/>
+      <c r="FO28"/>
+      <c r="FP28"/>
+      <c r="FQ28" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR28" t="n">
+        <v>312</v>
+      </c>
+      <c r="FS28" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT28" t="n">
+        <v>151</v>
+      </c>
+      <c r="FU28" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV28" t="n">
+        <v>155</v>
+      </c>
+      <c r="FW28" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX28" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>641</v>
+        <v>687</v>
       </c>
       <c r="B29" t="s">
-        <v>642</v>
+        <v>688</v>
       </c>
       <c r="C29" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="D29" t="s">
-        <v>643</v>
+        <v>689</v>
       </c>
       <c r="E29" t="s">
-        <v>644</v>
+        <v>690</v>
       </c>
       <c r="F29"/>
       <c r="G29" t="s">
-        <v>645</v>
+        <v>691</v>
       </c>
       <c r="H29" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="I29" t="s">
-        <v>646</v>
+        <v>692</v>
       </c>
       <c r="J29" t="s">
-        <v>647</v>
+        <v>693</v>
       </c>
       <c r="K29" t="s">
-        <v>648</v>
+        <v>694</v>
       </c>
       <c r="L29" t="s">
-        <v>649</v>
+        <v>695</v>
       </c>
       <c r="M29" t="s">
-        <v>650</v>
+        <v>696</v>
       </c>
       <c r="N29" t="s">
-        <v>651</v>
+        <v>697</v>
       </c>
       <c r="O29" t="s">
-        <v>647</v>
+        <v>693</v>
       </c>
       <c r="P29" t="s">
-        <v>648</v>
+        <v>694</v>
       </c>
       <c r="Q29"/>
       <c r="R29" t="s">
-        <v>650</v>
+        <v>696</v>
       </c>
       <c r="S29" t="s">
-        <v>651</v>
+        <v>697</v>
       </c>
       <c r="T29" t="s">
-        <v>652</v>
+        <v>698</v>
       </c>
       <c r="U29" t="s">
-        <v>653</v>
+        <v>699</v>
       </c>
       <c r="V29"/>
       <c r="W29" t="s">
-        <v>650</v>
+        <v>696</v>
       </c>
       <c r="X29" t="s">
-        <v>654</v>
+        <v>700</v>
       </c>
       <c r="Y29" t="s">
-        <v>655</v>
+        <v>701</v>
       </c>
       <c r="Z29" t="s">
-        <v>648</v>
+        <v>694</v>
       </c>
       <c r="AA29"/>
       <c r="AB29" t="s">
-        <v>650</v>
+        <v>696</v>
       </c>
       <c r="AC29" t="s">
-        <v>656</v>
+        <v>702</v>
       </c>
       <c r="AD29" t="s">
-        <v>657</v>
+        <v>703</v>
       </c>
       <c r="AE29" t="s">
-        <v>648</v>
+        <v>694</v>
       </c>
       <c r="AF29"/>
       <c r="AG29" t="s">
-        <v>650</v>
+        <v>696</v>
       </c>
       <c r="AH29" t="s">
-        <v>658</v>
+        <v>704</v>
       </c>
       <c r="AI29" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="AJ29" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AK29" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AL29" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AM29" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AN29" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AO29" t="n">
         <v>0.04</v>
@@ -12776,118 +15968,256 @@
       </c>
       <c r="ED29" t="n">
         <v>8567</v>
+      </c>
+      <c r="EE29" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF29" t="n">
+        <v>38</v>
+      </c>
+      <c r="EG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL29" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM29" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN29" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO29" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP29" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ29" t="n">
+        <v>7</v>
+      </c>
+      <c r="ER29" t="n">
+        <v>172</v>
+      </c>
+      <c r="ES29" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET29" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU29" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV29" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW29" t="n">
+        <v>7</v>
+      </c>
+      <c r="EX29" t="n">
+        <v>119</v>
+      </c>
+      <c r="EY29" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ29" t="n">
+        <v>9</v>
+      </c>
+      <c r="FA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI29" t="n">
+        <v>1</v>
+      </c>
+      <c r="FJ29" t="n">
+        <v>5</v>
+      </c>
+      <c r="FK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL29" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM29" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN29" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO29" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP29" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ29" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR29" t="n">
+        <v>22</v>
+      </c>
+      <c r="FS29" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT29" t="n">
+        <v>22</v>
+      </c>
+      <c r="FU29" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV29" t="n">
+        <v>22</v>
+      </c>
+      <c r="FW29" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>659</v>
+        <v>705</v>
       </c>
       <c r="B30" t="s">
-        <v>660</v>
+        <v>706</v>
       </c>
       <c r="C30" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="D30" t="s">
-        <v>661</v>
+        <v>707</v>
       </c>
       <c r="E30" t="s">
-        <v>662</v>
+        <v>708</v>
       </c>
       <c r="F30"/>
       <c r="G30" t="s">
-        <v>252</v>
+        <v>298</v>
       </c>
       <c r="H30" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="I30" t="s">
-        <v>663</v>
+        <v>709</v>
       </c>
       <c r="J30" t="s">
-        <v>664</v>
+        <v>710</v>
       </c>
       <c r="K30" t="s">
-        <v>665</v>
+        <v>711</v>
       </c>
       <c r="L30" t="s">
-        <v>362</v>
+        <v>408</v>
       </c>
       <c r="M30" t="s">
-        <v>666</v>
+        <v>712</v>
       </c>
       <c r="N30" t="s">
-        <v>667</v>
+        <v>713</v>
       </c>
       <c r="O30" t="s">
-        <v>668</v>
+        <v>714</v>
       </c>
       <c r="P30" t="s">
-        <v>665</v>
+        <v>711</v>
       </c>
       <c r="Q30" t="s">
-        <v>669</v>
+        <v>715</v>
       </c>
       <c r="R30"/>
       <c r="S30" t="s">
-        <v>667</v>
+        <v>713</v>
       </c>
       <c r="T30" t="s">
-        <v>670</v>
+        <v>716</v>
       </c>
       <c r="U30" t="s">
-        <v>665</v>
+        <v>711</v>
       </c>
       <c r="V30" t="s">
-        <v>669</v>
+        <v>715</v>
       </c>
       <c r="W30"/>
       <c r="X30" t="s">
-        <v>671</v>
+        <v>717</v>
       </c>
       <c r="Y30" t="s">
-        <v>672</v>
+        <v>718</v>
       </c>
       <c r="Z30" t="s">
-        <v>665</v>
+        <v>711</v>
       </c>
       <c r="AA30" t="s">
-        <v>669</v>
+        <v>715</v>
       </c>
       <c r="AB30"/>
       <c r="AC30" t="s">
-        <v>667</v>
+        <v>713</v>
       </c>
       <c r="AD30" t="s">
-        <v>673</v>
+        <v>719</v>
       </c>
       <c r="AE30" t="s">
-        <v>665</v>
+        <v>711</v>
       </c>
       <c r="AF30" t="s">
-        <v>669</v>
+        <v>715</v>
       </c>
       <c r="AG30"/>
       <c r="AH30" t="s">
-        <v>674</v>
+        <v>720</v>
       </c>
       <c r="AI30" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="AJ30" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AK30" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AL30" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AM30" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="AN30" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AO30" t="n">
         <v>2.42</v>
@@ -13125,60 +16455,166 @@
       <c r="ED30" t="n">
         <v>91587</v>
       </c>
+      <c r="EE30" t="n">
+        <v>2</v>
+      </c>
+      <c r="EF30" t="n">
+        <v>24</v>
+      </c>
+      <c r="EG30"/>
+      <c r="EH30"/>
+      <c r="EI30" t="n">
+        <v>3</v>
+      </c>
+      <c r="EJ30" t="n">
+        <v>356</v>
+      </c>
+      <c r="EK30"/>
+      <c r="EL30"/>
+      <c r="EM30" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN30" t="n">
+        <v>12</v>
+      </c>
+      <c r="EO30" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP30" t="n">
+        <v>26</v>
+      </c>
+      <c r="EQ30" t="n">
+        <v>16</v>
+      </c>
+      <c r="ER30" t="n">
+        <v>570</v>
+      </c>
+      <c r="ES30" t="n">
+        <v>5</v>
+      </c>
+      <c r="ET30" t="n">
+        <v>78</v>
+      </c>
+      <c r="EU30"/>
+      <c r="EV30"/>
+      <c r="EW30" t="n">
+        <v>8</v>
+      </c>
+      <c r="EX30" t="n">
+        <v>440</v>
+      </c>
+      <c r="EY30"/>
+      <c r="EZ30"/>
+      <c r="FA30"/>
+      <c r="FB30"/>
+      <c r="FC30"/>
+      <c r="FD30"/>
+      <c r="FE30" t="n">
+        <v>2</v>
+      </c>
+      <c r="FF30" t="n">
+        <v>48</v>
+      </c>
+      <c r="FG30" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH30" t="n">
+        <v>71</v>
+      </c>
+      <c r="FI30" t="n">
+        <v>2</v>
+      </c>
+      <c r="FJ30" t="n">
+        <v>54</v>
+      </c>
+      <c r="FK30"/>
+      <c r="FL30"/>
+      <c r="FM30"/>
+      <c r="FN30"/>
+      <c r="FO30" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP30" t="n">
+        <v>108</v>
+      </c>
+      <c r="FQ30" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR30" t="n">
+        <v>159</v>
+      </c>
+      <c r="FS30" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT30" t="n">
+        <v>159</v>
+      </c>
+      <c r="FU30" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV30" t="n">
+        <v>48</v>
+      </c>
+      <c r="FW30" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX30" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>675</v>
+        <v>721</v>
       </c>
       <c r="B31" t="s">
-        <v>676</v>
+        <v>722</v>
       </c>
       <c r="C31" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="D31" t="s">
-        <v>677</v>
+        <v>723</v>
       </c>
       <c r="E31" t="s">
-        <v>678</v>
+        <v>724</v>
       </c>
       <c r="F31"/>
       <c r="G31" t="s">
-        <v>679</v>
+        <v>725</v>
       </c>
       <c r="H31" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="I31" t="s">
-        <v>680</v>
+        <v>726</v>
       </c>
       <c r="J31" t="s">
-        <v>681</v>
+        <v>727</v>
       </c>
       <c r="K31" t="s">
-        <v>682</v>
+        <v>728</v>
       </c>
       <c r="L31"/>
       <c r="M31" t="s">
-        <v>683</v>
+        <v>729</v>
       </c>
       <c r="N31" t="s">
-        <v>684</v>
+        <v>730</v>
       </c>
       <c r="O31" t="s">
-        <v>681</v>
+        <v>727</v>
       </c>
       <c r="P31" t="s">
-        <v>685</v>
+        <v>731</v>
       </c>
       <c r="Q31" t="s">
-        <v>686</v>
+        <v>732</v>
       </c>
       <c r="R31" t="s">
-        <v>683</v>
+        <v>729</v>
       </c>
       <c r="S31" t="s">
-        <v>684</v>
+        <v>730</v>
       </c>
       <c r="T31"/>
       <c r="U31"/>
@@ -13186,48 +16622,48 @@
       <c r="W31"/>
       <c r="X31"/>
       <c r="Y31" t="s">
-        <v>687</v>
+        <v>733</v>
       </c>
       <c r="Z31" t="s">
-        <v>688</v>
+        <v>734</v>
       </c>
       <c r="AA31"/>
       <c r="AB31" t="s">
-        <v>689</v>
+        <v>735</v>
       </c>
       <c r="AC31" t="s">
-        <v>690</v>
+        <v>736</v>
       </c>
       <c r="AD31" t="s">
-        <v>691</v>
+        <v>737</v>
       </c>
       <c r="AE31" t="s">
-        <v>685</v>
+        <v>731</v>
       </c>
       <c r="AF31"/>
       <c r="AG31" t="s">
-        <v>683</v>
+        <v>729</v>
       </c>
       <c r="AH31" t="s">
-        <v>692</v>
+        <v>738</v>
       </c>
       <c r="AI31" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AJ31" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AK31" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="AL31" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AM31" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="AN31" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AO31" t="n">
         <v>0</v>
@@ -13471,7 +16907,7 @@
         <v>3067</v>
       </c>
       <c r="DT31" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="DU31" t="n">
         <v>0.67</v>
@@ -13502,112 +16938,250 @@
       </c>
       <c r="ED31" t="n">
         <v>84424</v>
+      </c>
+      <c r="EE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI31" t="n">
+        <v>2</v>
+      </c>
+      <c r="EJ31" t="n">
+        <v>18</v>
+      </c>
+      <c r="EK31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO31" t="n">
+        <v>2</v>
+      </c>
+      <c r="EP31" t="n">
+        <v>24</v>
+      </c>
+      <c r="EQ31" t="n">
+        <v>5</v>
+      </c>
+      <c r="ER31" t="n">
+        <v>61</v>
+      </c>
+      <c r="ES31" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW31" t="n">
+        <v>4</v>
+      </c>
+      <c r="EX31" t="n">
+        <v>26</v>
+      </c>
+      <c r="EY31" t="n">
+        <v>2</v>
+      </c>
+      <c r="EZ31" t="n">
+        <v>15</v>
+      </c>
+      <c r="FA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE31" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF31" t="n">
+        <v>12</v>
+      </c>
+      <c r="FG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI31" t="n">
+        <v>4</v>
+      </c>
+      <c r="FJ31" t="n">
+        <v>66</v>
+      </c>
+      <c r="FK31" t="n">
+        <v>6</v>
+      </c>
+      <c r="FL31" t="n">
+        <v>61</v>
+      </c>
+      <c r="FM31" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN31" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO31" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP31" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ31" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR31" t="n">
+        <v>37</v>
+      </c>
+      <c r="FS31" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT31" t="n">
+        <v>12</v>
+      </c>
+      <c r="FU31" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV31" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW31" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>693</v>
+        <v>739</v>
       </c>
       <c r="B32" t="s">
-        <v>694</v>
+        <v>740</v>
       </c>
       <c r="C32" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="D32" t="s">
-        <v>695</v>
+        <v>741</v>
       </c>
       <c r="E32" t="s">
-        <v>696</v>
+        <v>742</v>
       </c>
       <c r="F32"/>
       <c r="G32" t="s">
-        <v>697</v>
+        <v>743</v>
       </c>
       <c r="H32" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="I32" t="s">
-        <v>698</v>
+        <v>744</v>
       </c>
       <c r="J32" t="s">
-        <v>699</v>
+        <v>745</v>
       </c>
       <c r="K32" t="s">
-        <v>700</v>
+        <v>746</v>
       </c>
       <c r="L32"/>
       <c r="M32"/>
       <c r="N32" t="s">
-        <v>701</v>
+        <v>747</v>
       </c>
       <c r="O32" t="s">
-        <v>702</v>
+        <v>748</v>
       </c>
       <c r="P32" t="s">
-        <v>703</v>
+        <v>749</v>
       </c>
       <c r="Q32"/>
       <c r="R32" t="s">
-        <v>704</v>
+        <v>750</v>
       </c>
       <c r="S32" t="s">
-        <v>701</v>
+        <v>747</v>
       </c>
       <c r="T32" t="s">
-        <v>705</v>
+        <v>751</v>
       </c>
       <c r="U32" t="s">
-        <v>706</v>
+        <v>752</v>
       </c>
       <c r="V32"/>
       <c r="W32"/>
       <c r="X32" t="s">
-        <v>707</v>
+        <v>753</v>
       </c>
       <c r="Y32" t="s">
-        <v>708</v>
+        <v>754</v>
       </c>
       <c r="Z32" t="s">
-        <v>700</v>
+        <v>746</v>
       </c>
       <c r="AA32"/>
       <c r="AB32" t="s">
-        <v>704</v>
+        <v>750</v>
       </c>
       <c r="AC32" t="s">
-        <v>709</v>
+        <v>755</v>
       </c>
       <c r="AD32" t="s">
-        <v>710</v>
+        <v>756</v>
       </c>
       <c r="AE32" t="s">
-        <v>711</v>
+        <v>757</v>
       </c>
       <c r="AF32"/>
       <c r="AG32" t="s">
-        <v>704</v>
+        <v>750</v>
       </c>
       <c r="AH32" t="s">
-        <v>712</v>
+        <v>758</v>
       </c>
       <c r="AI32" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="AJ32" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AK32" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AL32" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="AM32" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="AN32" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AO32" t="n">
         <v>2.38</v>
@@ -13802,7 +17376,7 @@
         <v>0</v>
       </c>
       <c r="DA32" t="s">
-        <v>713</v>
+        <v>759</v>
       </c>
       <c r="DB32" t="n">
         <v>1.3</v>
@@ -13857,7 +17431,7 @@
         <v>6271</v>
       </c>
       <c r="DT32" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="DU32" t="n">
         <v>1.67</v>
@@ -13888,126 +17462,264 @@
       </c>
       <c r="ED32" t="n">
         <v>93289</v>
+      </c>
+      <c r="EE32" t="n">
+        <v>2</v>
+      </c>
+      <c r="EF32" t="n">
+        <v>84</v>
+      </c>
+      <c r="EG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI32" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ32" t="n">
+        <v>24</v>
+      </c>
+      <c r="EK32" t="n">
+        <v>4</v>
+      </c>
+      <c r="EL32" t="n">
+        <v>368</v>
+      </c>
+      <c r="EM32" t="n">
+        <v>5</v>
+      </c>
+      <c r="EN32" t="n">
+        <v>228</v>
+      </c>
+      <c r="EO32" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP32" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ32" t="n">
+        <v>8</v>
+      </c>
+      <c r="ER32" t="n">
+        <v>513</v>
+      </c>
+      <c r="ES32" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET32" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU32" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV32" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW32" t="n">
+        <v>32</v>
+      </c>
+      <c r="EX32" t="n">
+        <v>968</v>
+      </c>
+      <c r="EY32" t="n">
+        <v>9</v>
+      </c>
+      <c r="EZ32" t="n">
+        <v>307</v>
+      </c>
+      <c r="FA32" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB32" t="n">
+        <v>47</v>
+      </c>
+      <c r="FC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE32" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF32" t="n">
+        <v>63</v>
+      </c>
+      <c r="FG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI32" t="n">
+        <v>1</v>
+      </c>
+      <c r="FJ32" t="n">
+        <v>9</v>
+      </c>
+      <c r="FK32" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL32" t="n">
+        <v>24</v>
+      </c>
+      <c r="FM32" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN32" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO32" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP32" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR32" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS32" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT32" t="n">
+        <v>18</v>
+      </c>
+      <c r="FU32" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV32" t="n">
+        <v>38</v>
+      </c>
+      <c r="FW32" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX32" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>714</v>
+        <v>760</v>
       </c>
       <c r="B33" t="s">
-        <v>715</v>
+        <v>761</v>
       </c>
       <c r="C33" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="D33" t="s">
-        <v>716</v>
+        <v>762</v>
       </c>
       <c r="E33" t="s">
-        <v>717</v>
+        <v>763</v>
       </c>
       <c r="F33"/>
       <c r="G33" t="s">
-        <v>718</v>
+        <v>764</v>
       </c>
       <c r="H33" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="I33" t="s">
-        <v>719</v>
+        <v>765</v>
       </c>
       <c r="J33" t="s">
-        <v>720</v>
+        <v>766</v>
       </c>
       <c r="K33" t="s">
-        <v>721</v>
+        <v>767</v>
       </c>
       <c r="L33" t="s">
-        <v>722</v>
+        <v>768</v>
       </c>
       <c r="M33" t="s">
-        <v>723</v>
+        <v>769</v>
       </c>
       <c r="N33" t="s">
-        <v>724</v>
+        <v>770</v>
       </c>
       <c r="O33" t="s">
-        <v>720</v>
+        <v>766</v>
       </c>
       <c r="P33" t="s">
-        <v>721</v>
+        <v>767</v>
       </c>
       <c r="Q33" t="s">
-        <v>722</v>
+        <v>768</v>
       </c>
       <c r="R33" t="s">
-        <v>723</v>
+        <v>769</v>
       </c>
       <c r="S33" t="s">
-        <v>724</v>
+        <v>770</v>
       </c>
       <c r="T33" t="s">
-        <v>725</v>
+        <v>771</v>
       </c>
       <c r="U33" t="s">
-        <v>721</v>
+        <v>767</v>
       </c>
       <c r="V33" t="s">
-        <v>726</v>
+        <v>772</v>
       </c>
       <c r="W33" t="s">
-        <v>723</v>
+        <v>769</v>
       </c>
       <c r="X33" t="s">
-        <v>727</v>
+        <v>773</v>
       </c>
       <c r="Y33" t="s">
-        <v>728</v>
+        <v>774</v>
       </c>
       <c r="Z33" t="s">
-        <v>721</v>
+        <v>767</v>
       </c>
       <c r="AA33" t="s">
-        <v>729</v>
+        <v>775</v>
       </c>
       <c r="AB33" t="s">
-        <v>723</v>
+        <v>769</v>
       </c>
       <c r="AC33" t="s">
-        <v>730</v>
+        <v>776</v>
       </c>
       <c r="AD33" t="s">
-        <v>731</v>
+        <v>777</v>
       </c>
       <c r="AE33" t="s">
-        <v>721</v>
+        <v>767</v>
       </c>
       <c r="AF33" t="s">
-        <v>732</v>
+        <v>778</v>
       </c>
       <c r="AG33" t="s">
-        <v>733</v>
+        <v>779</v>
       </c>
       <c r="AH33" t="s">
-        <v>727</v>
+        <v>773</v>
       </c>
       <c r="AI33" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="AJ33" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AK33" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AL33" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AM33" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="AN33" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AO33" t="n">
         <v>0</v>
@@ -14245,7 +17957,7 @@
         <v>932</v>
       </c>
       <c r="DT33" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="DU33" t="n">
         <v>9.14</v>
@@ -14276,110 +17988,248 @@
       </c>
       <c r="ED33" t="n">
         <v>79930</v>
+      </c>
+      <c r="EE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI33" t="n">
+        <v>3</v>
+      </c>
+      <c r="EJ33" t="n">
+        <v>528</v>
+      </c>
+      <c r="EK33" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL33" t="n">
+        <v>110</v>
+      </c>
+      <c r="EM33" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN33" t="n">
+        <v>97</v>
+      </c>
+      <c r="EO33" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP33" t="n">
+        <v>40</v>
+      </c>
+      <c r="EQ33" t="n">
+        <v>16</v>
+      </c>
+      <c r="ER33" t="n">
+        <v>1038</v>
+      </c>
+      <c r="ES33" t="n">
+        <v>3</v>
+      </c>
+      <c r="ET33" t="n">
+        <v>361</v>
+      </c>
+      <c r="EU33" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV33" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW33" t="n">
+        <v>25</v>
+      </c>
+      <c r="EX33" t="n">
+        <v>783</v>
+      </c>
+      <c r="EY33" t="n">
+        <v>4</v>
+      </c>
+      <c r="EZ33" t="n">
+        <v>94</v>
+      </c>
+      <c r="FA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE33" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF33" t="n">
+        <v>157</v>
+      </c>
+      <c r="FG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI33" t="n">
+        <v>6</v>
+      </c>
+      <c r="FJ33" t="n">
+        <v>123</v>
+      </c>
+      <c r="FK33" t="n">
+        <v>2</v>
+      </c>
+      <c r="FL33" t="n">
+        <v>132</v>
+      </c>
+      <c r="FM33" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN33" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO33" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP33" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ33" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR33" t="n">
+        <v>180</v>
+      </c>
+      <c r="FS33" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT33" t="n">
+        <v>48</v>
+      </c>
+      <c r="FU33" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV33" t="n">
+        <v>236</v>
+      </c>
+      <c r="FW33" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>734</v>
+        <v>780</v>
       </c>
       <c r="B34" t="s">
-        <v>735</v>
+        <v>781</v>
       </c>
       <c r="C34" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="D34" t="s">
-        <v>736</v>
+        <v>782</v>
       </c>
       <c r="E34" t="s">
-        <v>737</v>
+        <v>783</v>
       </c>
       <c r="F34"/>
       <c r="G34" t="s">
-        <v>738</v>
+        <v>784</v>
       </c>
       <c r="H34" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="I34" t="s">
-        <v>739</v>
+        <v>785</v>
       </c>
       <c r="J34" t="s">
-        <v>740</v>
+        <v>786</v>
       </c>
       <c r="K34" t="s">
-        <v>741</v>
+        <v>787</v>
       </c>
       <c r="L34"/>
       <c r="M34" t="s">
-        <v>742</v>
+        <v>788</v>
       </c>
       <c r="N34" t="s">
-        <v>743</v>
+        <v>789</v>
       </c>
       <c r="O34" t="s">
-        <v>744</v>
+        <v>790</v>
       </c>
       <c r="P34" t="s">
-        <v>745</v>
+        <v>791</v>
       </c>
       <c r="Q34"/>
       <c r="R34" t="s">
-        <v>746</v>
+        <v>792</v>
       </c>
       <c r="S34" t="s">
-        <v>743</v>
+        <v>789</v>
       </c>
       <c r="T34" t="s">
-        <v>747</v>
+        <v>793</v>
       </c>
       <c r="U34" t="s">
-        <v>748</v>
+        <v>794</v>
       </c>
       <c r="V34"/>
       <c r="W34"/>
       <c r="X34" t="s">
-        <v>743</v>
+        <v>789</v>
       </c>
       <c r="Y34" t="s">
-        <v>749</v>
+        <v>795</v>
       </c>
       <c r="Z34" t="s">
-        <v>748</v>
+        <v>794</v>
       </c>
       <c r="AA34"/>
       <c r="AB34"/>
       <c r="AC34" t="s">
-        <v>743</v>
+        <v>789</v>
       </c>
       <c r="AD34" t="s">
-        <v>750</v>
+        <v>796</v>
       </c>
       <c r="AE34" t="s">
-        <v>751</v>
+        <v>797</v>
       </c>
       <c r="AF34"/>
       <c r="AG34"/>
       <c r="AH34" t="s">
-        <v>752</v>
+        <v>798</v>
       </c>
       <c r="AI34" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="AJ34" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AK34" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AL34" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AM34" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AN34" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AO34" t="n">
         <v>0</v>
@@ -14623,7 +18473,7 @@
         <v>0</v>
       </c>
       <c r="DT34" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="DU34" t="n">
         <v>0.76</v>
@@ -14655,105 +18505,175 @@
       <c r="ED34" t="n">
         <v>9011</v>
       </c>
+      <c r="EE34"/>
+      <c r="EF34"/>
+      <c r="EG34"/>
+      <c r="EH34"/>
+      <c r="EI34"/>
+      <c r="EJ34"/>
+      <c r="EK34"/>
+      <c r="EL34"/>
+      <c r="EM34"/>
+      <c r="EN34"/>
+      <c r="EO34"/>
+      <c r="EP34"/>
+      <c r="EQ34" t="n">
+        <v>3</v>
+      </c>
+      <c r="ER34" t="n">
+        <v>51</v>
+      </c>
+      <c r="ES34"/>
+      <c r="ET34"/>
+      <c r="EU34"/>
+      <c r="EV34"/>
+      <c r="EW34" t="n">
+        <v>3</v>
+      </c>
+      <c r="EX34" t="n">
+        <v>91</v>
+      </c>
+      <c r="EY34" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ34" t="n">
+        <v>79</v>
+      </c>
+      <c r="FA34" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB34" t="n">
+        <v>18</v>
+      </c>
+      <c r="FC34"/>
+      <c r="FD34"/>
+      <c r="FE34"/>
+      <c r="FF34"/>
+      <c r="FG34"/>
+      <c r="FH34"/>
+      <c r="FI34"/>
+      <c r="FJ34"/>
+      <c r="FK34"/>
+      <c r="FL34"/>
+      <c r="FM34"/>
+      <c r="FN34"/>
+      <c r="FO34"/>
+      <c r="FP34"/>
+      <c r="FQ34" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR34" t="n">
+        <v>136</v>
+      </c>
+      <c r="FS34" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT34" t="n">
+        <v>53</v>
+      </c>
+      <c r="FU34"/>
+      <c r="FV34"/>
+      <c r="FW34"/>
+      <c r="FX34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>753</v>
+        <v>799</v>
       </c>
       <c r="B35" t="s">
-        <v>754</v>
+        <v>800</v>
       </c>
       <c r="C35" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="D35" t="s">
-        <v>755</v>
+        <v>801</v>
       </c>
       <c r="E35" t="s">
-        <v>756</v>
+        <v>802</v>
       </c>
       <c r="F35"/>
       <c r="G35" t="s">
-        <v>757</v>
+        <v>803</v>
       </c>
       <c r="H35" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="I35" t="s">
-        <v>758</v>
+        <v>804</v>
       </c>
       <c r="J35" t="s">
-        <v>759</v>
+        <v>805</v>
       </c>
       <c r="K35" t="s">
-        <v>760</v>
+        <v>806</v>
       </c>
       <c r="L35"/>
       <c r="M35"/>
       <c r="N35" t="s">
-        <v>761</v>
+        <v>807</v>
       </c>
       <c r="O35" t="s">
-        <v>759</v>
+        <v>805</v>
       </c>
       <c r="P35" t="s">
-        <v>762</v>
+        <v>808</v>
       </c>
       <c r="Q35"/>
       <c r="R35"/>
       <c r="S35" t="s">
-        <v>763</v>
+        <v>809</v>
       </c>
       <c r="T35" t="s">
-        <v>764</v>
+        <v>810</v>
       </c>
       <c r="U35" t="s">
-        <v>765</v>
+        <v>811</v>
       </c>
       <c r="V35"/>
       <c r="W35"/>
       <c r="X35" t="s">
-        <v>766</v>
+        <v>812</v>
       </c>
       <c r="Y35" t="s">
-        <v>767</v>
+        <v>813</v>
       </c>
       <c r="Z35" t="s">
-        <v>762</v>
+        <v>808</v>
       </c>
       <c r="AA35"/>
       <c r="AB35"/>
       <c r="AC35" t="s">
-        <v>768</v>
+        <v>814</v>
       </c>
       <c r="AD35" t="s">
-        <v>769</v>
+        <v>815</v>
       </c>
       <c r="AE35" t="s">
-        <v>762</v>
+        <v>808</v>
       </c>
       <c r="AF35"/>
       <c r="AG35"/>
       <c r="AH35" t="s">
-        <v>770</v>
+        <v>816</v>
       </c>
       <c r="AI35" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="AJ35" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AK35" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AL35" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AM35" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="AN35" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AO35" t="n">
         <v>2.07</v>
@@ -14985,6 +18905,108 @@
       <c r="ED35" t="n">
         <v>60451</v>
       </c>
+      <c r="EE35" t="n">
+        <v>2</v>
+      </c>
+      <c r="EF35" t="n">
+        <v>38</v>
+      </c>
+      <c r="EG35"/>
+      <c r="EH35"/>
+      <c r="EI35"/>
+      <c r="EJ35"/>
+      <c r="EK35"/>
+      <c r="EL35"/>
+      <c r="EM35" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN35" t="n">
+        <v>61</v>
+      </c>
+      <c r="EO35" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP35" t="n">
+        <v>8</v>
+      </c>
+      <c r="EQ35" t="n">
+        <v>16</v>
+      </c>
+      <c r="ER35" t="n">
+        <v>382</v>
+      </c>
+      <c r="ES35" t="n">
+        <v>1</v>
+      </c>
+      <c r="ET35" t="n">
+        <v>26</v>
+      </c>
+      <c r="EU35"/>
+      <c r="EV35"/>
+      <c r="EW35" t="n">
+        <v>22</v>
+      </c>
+      <c r="EX35" t="n">
+        <v>669</v>
+      </c>
+      <c r="EY35" t="n">
+        <v>4</v>
+      </c>
+      <c r="EZ35" t="n">
+        <v>106</v>
+      </c>
+      <c r="FA35" t="n">
+        <v>4</v>
+      </c>
+      <c r="FB35" t="n">
+        <v>118</v>
+      </c>
+      <c r="FC35"/>
+      <c r="FD35"/>
+      <c r="FE35"/>
+      <c r="FF35"/>
+      <c r="FG35" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH35" t="n">
+        <v>9</v>
+      </c>
+      <c r="FI35" t="n">
+        <v>2</v>
+      </c>
+      <c r="FJ35" t="n">
+        <v>96</v>
+      </c>
+      <c r="FK35" t="n">
+        <v>2</v>
+      </c>
+      <c r="FL35" t="n">
+        <v>28</v>
+      </c>
+      <c r="FM35"/>
+      <c r="FN35"/>
+      <c r="FO35"/>
+      <c r="FP35"/>
+      <c r="FQ35" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR35" t="n">
+        <v>114</v>
+      </c>
+      <c r="FS35" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT35" t="n">
+        <v>9</v>
+      </c>
+      <c r="FU35" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV35" t="n">
+        <v>106</v>
+      </c>
+      <c r="FW35"/>
+      <c r="FX35"/>
     </row>
     <row r="36">
       <c r="A36"/>
@@ -15121,6 +19143,52 @@
       <c r="EB36"/>
       <c r="EC36"/>
       <c r="ED36"/>
+      <c r="EE36"/>
+      <c r="EF36"/>
+      <c r="EG36"/>
+      <c r="EH36"/>
+      <c r="EI36"/>
+      <c r="EJ36"/>
+      <c r="EK36"/>
+      <c r="EL36"/>
+      <c r="EM36"/>
+      <c r="EN36"/>
+      <c r="EO36"/>
+      <c r="EP36"/>
+      <c r="EQ36"/>
+      <c r="ER36"/>
+      <c r="ES36"/>
+      <c r="ET36"/>
+      <c r="EU36"/>
+      <c r="EV36"/>
+      <c r="EW36"/>
+      <c r="EX36"/>
+      <c r="EY36"/>
+      <c r="EZ36"/>
+      <c r="FA36"/>
+      <c r="FB36"/>
+      <c r="FC36"/>
+      <c r="FD36"/>
+      <c r="FE36"/>
+      <c r="FF36"/>
+      <c r="FG36"/>
+      <c r="FH36"/>
+      <c r="FI36"/>
+      <c r="FJ36"/>
+      <c r="FK36"/>
+      <c r="FL36"/>
+      <c r="FM36"/>
+      <c r="FN36"/>
+      <c r="FO36"/>
+      <c r="FP36"/>
+      <c r="FQ36"/>
+      <c r="FR36"/>
+      <c r="FS36"/>
+      <c r="FT36"/>
+      <c r="FU36"/>
+      <c r="FV36"/>
+      <c r="FW36"/>
+      <c r="FX36"/>
     </row>
     <row r="37">
       <c r="A37"/>
@@ -15257,6 +19325,52 @@
       <c r="EB37"/>
       <c r="EC37"/>
       <c r="ED37"/>
+      <c r="EE37"/>
+      <c r="EF37"/>
+      <c r="EG37"/>
+      <c r="EH37"/>
+      <c r="EI37"/>
+      <c r="EJ37"/>
+      <c r="EK37"/>
+      <c r="EL37"/>
+      <c r="EM37"/>
+      <c r="EN37"/>
+      <c r="EO37"/>
+      <c r="EP37"/>
+      <c r="EQ37"/>
+      <c r="ER37"/>
+      <c r="ES37"/>
+      <c r="ET37"/>
+      <c r="EU37"/>
+      <c r="EV37"/>
+      <c r="EW37"/>
+      <c r="EX37"/>
+      <c r="EY37"/>
+      <c r="EZ37"/>
+      <c r="FA37"/>
+      <c r="FB37"/>
+      <c r="FC37"/>
+      <c r="FD37"/>
+      <c r="FE37"/>
+      <c r="FF37"/>
+      <c r="FG37"/>
+      <c r="FH37"/>
+      <c r="FI37"/>
+      <c r="FJ37"/>
+      <c r="FK37"/>
+      <c r="FL37"/>
+      <c r="FM37"/>
+      <c r="FN37"/>
+      <c r="FO37"/>
+      <c r="FP37"/>
+      <c r="FQ37"/>
+      <c r="FR37"/>
+      <c r="FS37"/>
+      <c r="FT37"/>
+      <c r="FU37"/>
+      <c r="FV37"/>
+      <c r="FW37"/>
+      <c r="FX37"/>
     </row>
     <row r="38">
       <c r="A38"/>
@@ -15393,6 +19507,52 @@
       <c r="EB38"/>
       <c r="EC38"/>
       <c r="ED38"/>
+      <c r="EE38"/>
+      <c r="EF38"/>
+      <c r="EG38"/>
+      <c r="EH38"/>
+      <c r="EI38"/>
+      <c r="EJ38"/>
+      <c r="EK38"/>
+      <c r="EL38"/>
+      <c r="EM38"/>
+      <c r="EN38"/>
+      <c r="EO38"/>
+      <c r="EP38"/>
+      <c r="EQ38"/>
+      <c r="ER38"/>
+      <c r="ES38"/>
+      <c r="ET38"/>
+      <c r="EU38"/>
+      <c r="EV38"/>
+      <c r="EW38"/>
+      <c r="EX38"/>
+      <c r="EY38"/>
+      <c r="EZ38"/>
+      <c r="FA38"/>
+      <c r="FB38"/>
+      <c r="FC38"/>
+      <c r="FD38"/>
+      <c r="FE38"/>
+      <c r="FF38"/>
+      <c r="FG38"/>
+      <c r="FH38"/>
+      <c r="FI38"/>
+      <c r="FJ38"/>
+      <c r="FK38"/>
+      <c r="FL38"/>
+      <c r="FM38"/>
+      <c r="FN38"/>
+      <c r="FO38"/>
+      <c r="FP38"/>
+      <c r="FQ38"/>
+      <c r="FR38"/>
+      <c r="FS38"/>
+      <c r="FT38"/>
+      <c r="FU38"/>
+      <c r="FV38"/>
+      <c r="FW38"/>
+      <c r="FX38"/>
     </row>
     <row r="39">
       <c r="A39"/>
@@ -15529,6 +19689,52 @@
       <c r="EB39"/>
       <c r="EC39"/>
       <c r="ED39"/>
+      <c r="EE39"/>
+      <c r="EF39"/>
+      <c r="EG39"/>
+      <c r="EH39"/>
+      <c r="EI39"/>
+      <c r="EJ39"/>
+      <c r="EK39"/>
+      <c r="EL39"/>
+      <c r="EM39"/>
+      <c r="EN39"/>
+      <c r="EO39"/>
+      <c r="EP39"/>
+      <c r="EQ39"/>
+      <c r="ER39"/>
+      <c r="ES39"/>
+      <c r="ET39"/>
+      <c r="EU39"/>
+      <c r="EV39"/>
+      <c r="EW39"/>
+      <c r="EX39"/>
+      <c r="EY39"/>
+      <c r="EZ39"/>
+      <c r="FA39"/>
+      <c r="FB39"/>
+      <c r="FC39"/>
+      <c r="FD39"/>
+      <c r="FE39"/>
+      <c r="FF39"/>
+      <c r="FG39"/>
+      <c r="FH39"/>
+      <c r="FI39"/>
+      <c r="FJ39"/>
+      <c r="FK39"/>
+      <c r="FL39"/>
+      <c r="FM39"/>
+      <c r="FN39"/>
+      <c r="FO39"/>
+      <c r="FP39"/>
+      <c r="FQ39"/>
+      <c r="FR39"/>
+      <c r="FS39"/>
+      <c r="FT39"/>
+      <c r="FU39"/>
+      <c r="FV39"/>
+      <c r="FW39"/>
+      <c r="FX39"/>
     </row>
     <row r="40">
       <c r="A40"/>
@@ -15665,6 +19871,52 @@
       <c r="EB40"/>
       <c r="EC40"/>
       <c r="ED40"/>
+      <c r="EE40"/>
+      <c r="EF40"/>
+      <c r="EG40"/>
+      <c r="EH40"/>
+      <c r="EI40"/>
+      <c r="EJ40"/>
+      <c r="EK40"/>
+      <c r="EL40"/>
+      <c r="EM40"/>
+      <c r="EN40"/>
+      <c r="EO40"/>
+      <c r="EP40"/>
+      <c r="EQ40"/>
+      <c r="ER40"/>
+      <c r="ES40"/>
+      <c r="ET40"/>
+      <c r="EU40"/>
+      <c r="EV40"/>
+      <c r="EW40"/>
+      <c r="EX40"/>
+      <c r="EY40"/>
+      <c r="EZ40"/>
+      <c r="FA40"/>
+      <c r="FB40"/>
+      <c r="FC40"/>
+      <c r="FD40"/>
+      <c r="FE40"/>
+      <c r="FF40"/>
+      <c r="FG40"/>
+      <c r="FH40"/>
+      <c r="FI40"/>
+      <c r="FJ40"/>
+      <c r="FK40"/>
+      <c r="FL40"/>
+      <c r="FM40"/>
+      <c r="FN40"/>
+      <c r="FO40"/>
+      <c r="FP40"/>
+      <c r="FQ40"/>
+      <c r="FR40"/>
+      <c r="FS40"/>
+      <c r="FT40"/>
+      <c r="FU40"/>
+      <c r="FV40"/>
+      <c r="FW40"/>
+      <c r="FX40"/>
     </row>
     <row r="41">
       <c r="A41"/>
@@ -15803,6 +20055,52 @@
       <c r="EB41"/>
       <c r="EC41"/>
       <c r="ED41"/>
+      <c r="EE41"/>
+      <c r="EF41"/>
+      <c r="EG41"/>
+      <c r="EH41"/>
+      <c r="EI41"/>
+      <c r="EJ41"/>
+      <c r="EK41"/>
+      <c r="EL41"/>
+      <c r="EM41"/>
+      <c r="EN41"/>
+      <c r="EO41"/>
+      <c r="EP41"/>
+      <c r="EQ41"/>
+      <c r="ER41"/>
+      <c r="ES41"/>
+      <c r="ET41"/>
+      <c r="EU41"/>
+      <c r="EV41"/>
+      <c r="EW41"/>
+      <c r="EX41"/>
+      <c r="EY41"/>
+      <c r="EZ41"/>
+      <c r="FA41"/>
+      <c r="FB41"/>
+      <c r="FC41"/>
+      <c r="FD41"/>
+      <c r="FE41"/>
+      <c r="FF41"/>
+      <c r="FG41"/>
+      <c r="FH41"/>
+      <c r="FI41"/>
+      <c r="FJ41"/>
+      <c r="FK41"/>
+      <c r="FL41"/>
+      <c r="FM41"/>
+      <c r="FN41"/>
+      <c r="FO41"/>
+      <c r="FP41"/>
+      <c r="FQ41"/>
+      <c r="FR41"/>
+      <c r="FS41"/>
+      <c r="FT41"/>
+      <c r="FU41"/>
+      <c r="FV41"/>
+      <c r="FW41"/>
+      <c r="FX41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/uds2018info_T5_T5A.xlsx
+++ b/uds2018info_T5_T5A.xlsx
@@ -566,7 +566,7 @@
     <t xml:space="preserve">Access Health Louisiana</t>
   </si>
   <si>
-    <t xml:space="preserve">843 Milling Ave</t>
+    <t xml:space="preserve">843 MILLING AVE</t>
   </si>
   <si>
     <t xml:space="preserve">Luling</t>
@@ -653,7 +653,7 @@
     <t xml:space="preserve">Baton Rouge Primary Care Collaborative, Inc.</t>
   </si>
   <si>
-    <t xml:space="preserve">220 Saint Vincent De Paul Dr</t>
+    <t xml:space="preserve">220 SAINT VINCENT DE PAUL DR</t>
   </si>
   <si>
     <t xml:space="preserve">Baton Rouge</t>
@@ -707,7 +707,7 @@
     <t xml:space="preserve">C A S S E Dental Health Institute</t>
   </si>
   <si>
-    <t xml:space="preserve">2120 Bert Kouns Industrial Loop Ste A</t>
+    <t xml:space="preserve">2120 BERT KOUNS INDUSTRIAL LOOP STE A</t>
   </si>
   <si>
     <t xml:space="preserve">Mansfield</t>
@@ -839,7 +839,7 @@
     <t xml:space="preserve">Catahoula Parish Hospital District # 2</t>
   </si>
   <si>
-    <t xml:space="preserve">307 Chisum St</t>
+    <t xml:space="preserve">307 chisum st</t>
   </si>
   <si>
     <t xml:space="preserve">SICILY ISLAND</t>
@@ -998,7 +998,7 @@
     <t xml:space="preserve">Excelth Inc.</t>
   </si>
   <si>
-    <t xml:space="preserve">1515 Poydras St Ste 1070</t>
+    <t xml:space="preserve">1515 POYDRAS ST STE 1070</t>
   </si>
   <si>
     <t xml:space="preserve">70112</t>
@@ -1085,7 +1085,7 @@
     <t xml:space="preserve">Hospital Service District No. 1-A Of The Parish Of Richland</t>
   </si>
   <si>
-    <t xml:space="preserve">407 Cincinnati St</t>
+    <t xml:space="preserve">407 CINCINNATI ST</t>
   </si>
   <si>
     <t xml:space="preserve">Delhi</t>
@@ -1139,7 +1139,7 @@
     <t xml:space="preserve">Iberia Comprehensive Community Health Center</t>
   </si>
   <si>
-    <t xml:space="preserve">806 Jefferson Terrace</t>
+    <t xml:space="preserve">806 JEFFERSON TERRACE</t>
   </si>
   <si>
     <t xml:space="preserve">New Iberia</t>
@@ -1199,7 +1199,7 @@
     <t xml:space="preserve">Innis Community Health Center, Inc.</t>
   </si>
   <si>
-    <t xml:space="preserve">6450 La Highway 1</t>
+    <t xml:space="preserve">6450 LA HIGHWAY 1</t>
   </si>
   <si>
     <t xml:space="preserve">Innis</t>
@@ -1253,7 +1253,7 @@
     <t xml:space="preserve">Jefferson Community Health Care Centers, Inc.</t>
   </si>
   <si>
-    <t xml:space="preserve">4028 Us Hwy 90 W</t>
+    <t xml:space="preserve">4028 US Hwy 90 W</t>
   </si>
   <si>
     <t xml:space="preserve">Avondale</t>
@@ -1316,7 +1316,7 @@
     <t xml:space="preserve">Jefferson Parish Human Services Authority</t>
   </si>
   <si>
-    <t xml:space="preserve">3616 S I 10 Service Rd W</t>
+    <t xml:space="preserve">3616 S I 10 SERVICE RD W</t>
   </si>
   <si>
     <t xml:space="preserve">Metairie</t>
@@ -1373,7 +1373,7 @@
     <t xml:space="preserve">Marillac Community Health Centers</t>
   </si>
   <si>
-    <t xml:space="preserve">3201 S Carrollton Ave</t>
+    <t xml:space="preserve">3201 S CARROLLTON AVE</t>
   </si>
   <si>
     <t xml:space="preserve">70118</t>
@@ -1436,7 +1436,7 @@
     <t xml:space="preserve">Morehouse Community Medical Centers, Inc</t>
   </si>
   <si>
-    <t xml:space="preserve">518 Durham St</t>
+    <t xml:space="preserve">518 DURHAM ST</t>
   </si>
   <si>
     <t xml:space="preserve">Bastrop</t>
@@ -1595,7 +1595,7 @@
     <t xml:space="preserve">New Orleans Health Department</t>
   </si>
   <si>
-    <t xml:space="preserve">1300 Perdido St Bsmt</t>
+    <t xml:space="preserve">1300 PERDIDO ST BSMT</t>
   </si>
   <si>
     <t xml:space="preserve">Ragan  Collins</t>
@@ -1634,7 +1634,7 @@
     <t xml:space="preserve">Odyssey House Louisiana, Inc.</t>
   </si>
   <si>
-    <t xml:space="preserve">1125 N Tonti St</t>
+    <t xml:space="preserve">1125 N TONTI ST</t>
   </si>
   <si>
     <t xml:space="preserve">70119</t>
@@ -1817,7 +1817,7 @@
     <t xml:space="preserve">Primary Health Services Center</t>
   </si>
   <si>
-    <t xml:space="preserve">2914 Betin Ave</t>
+    <t xml:space="preserve">2914 BETIN AVE</t>
   </si>
   <si>
     <t xml:space="preserve">Monroe</t>
@@ -1868,7 +1868,7 @@
     <t xml:space="preserve">Priority Health Care</t>
   </si>
   <si>
-    <t xml:space="preserve">4700 Wichers Dr Ste 300</t>
+    <t xml:space="preserve">4700 WICHERS DR STE 300</t>
   </si>
   <si>
     <t xml:space="preserve">Marrero</t>
@@ -2027,7 +2027,7 @@
     <t xml:space="preserve">Southwest Louisiana Primary Health Care Ctr, Inc.</t>
   </si>
   <si>
-    <t xml:space="preserve">8762 Hwy 182</t>
+    <t xml:space="preserve">8762 HWY 182</t>
   </si>
   <si>
     <t xml:space="preserve">Opelousas</t>
@@ -2186,7 +2186,7 @@
     <t xml:space="preserve">Start Corporation</t>
   </si>
   <si>
-    <t xml:space="preserve">420 Magnolia St</t>
+    <t xml:space="preserve">420 MAGNOLIA ST</t>
   </si>
   <si>
     <t xml:space="preserve">Houma</t>
@@ -2420,7 +2420,7 @@
     <t xml:space="preserve">Winn Community Health Center, Inc</t>
   </si>
   <si>
-    <t xml:space="preserve">201 Cherokee Dr</t>
+    <t xml:space="preserve">201 CHEROKEE DR</t>
   </si>
   <si>
     <t xml:space="preserve">Winnfield</t>
@@ -19008,1100 +19008,6 @@
       <c r="FW35"/>
       <c r="FX35"/>
     </row>
-    <row r="36">
-      <c r="A36"/>
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36"/>
-      <c r="N36"/>
-      <c r="O36"/>
-      <c r="P36"/>
-      <c r="Q36"/>
-      <c r="R36"/>
-      <c r="S36"/>
-      <c r="T36"/>
-      <c r="U36"/>
-      <c r="V36"/>
-      <c r="W36"/>
-      <c r="X36"/>
-      <c r="Y36"/>
-      <c r="Z36"/>
-      <c r="AA36"/>
-      <c r="AB36"/>
-      <c r="AC36"/>
-      <c r="AD36"/>
-      <c r="AE36"/>
-      <c r="AF36"/>
-      <c r="AG36"/>
-      <c r="AH36"/>
-      <c r="AI36"/>
-      <c r="AJ36"/>
-      <c r="AK36"/>
-      <c r="AL36"/>
-      <c r="AM36"/>
-      <c r="AN36"/>
-      <c r="AO36"/>
-      <c r="AP36"/>
-      <c r="AQ36"/>
-      <c r="AR36"/>
-      <c r="AS36"/>
-      <c r="AT36"/>
-      <c r="AU36"/>
-      <c r="AV36"/>
-      <c r="AW36"/>
-      <c r="AX36"/>
-      <c r="AY36"/>
-      <c r="AZ36"/>
-      <c r="BA36"/>
-      <c r="BB36"/>
-      <c r="BC36"/>
-      <c r="BD36"/>
-      <c r="BE36"/>
-      <c r="BF36"/>
-      <c r="BG36"/>
-      <c r="BH36"/>
-      <c r="BI36"/>
-      <c r="BJ36"/>
-      <c r="BK36"/>
-      <c r="BL36"/>
-      <c r="BM36"/>
-      <c r="BN36"/>
-      <c r="BO36"/>
-      <c r="BP36"/>
-      <c r="BQ36"/>
-      <c r="BR36"/>
-      <c r="BS36"/>
-      <c r="BT36"/>
-      <c r="BU36"/>
-      <c r="BV36"/>
-      <c r="BW36"/>
-      <c r="BX36"/>
-      <c r="BY36"/>
-      <c r="BZ36"/>
-      <c r="CA36"/>
-      <c r="CB36"/>
-      <c r="CC36"/>
-      <c r="CD36"/>
-      <c r="CE36"/>
-      <c r="CF36"/>
-      <c r="CG36"/>
-      <c r="CH36"/>
-      <c r="CI36"/>
-      <c r="CJ36"/>
-      <c r="CK36"/>
-      <c r="CL36"/>
-      <c r="CM36"/>
-      <c r="CN36"/>
-      <c r="CO36"/>
-      <c r="CP36"/>
-      <c r="CQ36"/>
-      <c r="CR36"/>
-      <c r="CS36"/>
-      <c r="CT36"/>
-      <c r="CU36"/>
-      <c r="CV36"/>
-      <c r="CW36"/>
-      <c r="CX36"/>
-      <c r="CY36"/>
-      <c r="CZ36"/>
-      <c r="DA36"/>
-      <c r="DB36"/>
-      <c r="DC36"/>
-      <c r="DD36"/>
-      <c r="DE36"/>
-      <c r="DF36"/>
-      <c r="DG36"/>
-      <c r="DH36"/>
-      <c r="DI36"/>
-      <c r="DJ36"/>
-      <c r="DK36"/>
-      <c r="DL36"/>
-      <c r="DM36"/>
-      <c r="DN36"/>
-      <c r="DO36"/>
-      <c r="DP36"/>
-      <c r="DQ36"/>
-      <c r="DR36"/>
-      <c r="DS36"/>
-      <c r="DT36"/>
-      <c r="DU36"/>
-      <c r="DV36"/>
-      <c r="DW36"/>
-      <c r="DX36"/>
-      <c r="DY36"/>
-      <c r="DZ36"/>
-      <c r="EA36"/>
-      <c r="EB36"/>
-      <c r="EC36"/>
-      <c r="ED36"/>
-      <c r="EE36"/>
-      <c r="EF36"/>
-      <c r="EG36"/>
-      <c r="EH36"/>
-      <c r="EI36"/>
-      <c r="EJ36"/>
-      <c r="EK36"/>
-      <c r="EL36"/>
-      <c r="EM36"/>
-      <c r="EN36"/>
-      <c r="EO36"/>
-      <c r="EP36"/>
-      <c r="EQ36"/>
-      <c r="ER36"/>
-      <c r="ES36"/>
-      <c r="ET36"/>
-      <c r="EU36"/>
-      <c r="EV36"/>
-      <c r="EW36"/>
-      <c r="EX36"/>
-      <c r="EY36"/>
-      <c r="EZ36"/>
-      <c r="FA36"/>
-      <c r="FB36"/>
-      <c r="FC36"/>
-      <c r="FD36"/>
-      <c r="FE36"/>
-      <c r="FF36"/>
-      <c r="FG36"/>
-      <c r="FH36"/>
-      <c r="FI36"/>
-      <c r="FJ36"/>
-      <c r="FK36"/>
-      <c r="FL36"/>
-      <c r="FM36"/>
-      <c r="FN36"/>
-      <c r="FO36"/>
-      <c r="FP36"/>
-      <c r="FQ36"/>
-      <c r="FR36"/>
-      <c r="FS36"/>
-      <c r="FT36"/>
-      <c r="FU36"/>
-      <c r="FV36"/>
-      <c r="FW36"/>
-      <c r="FX36"/>
-    </row>
-    <row r="37">
-      <c r="A37"/>
-      <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37"/>
-      <c r="G37"/>
-      <c r="H37"/>
-      <c r="I37"/>
-      <c r="J37"/>
-      <c r="K37"/>
-      <c r="L37"/>
-      <c r="M37"/>
-      <c r="N37"/>
-      <c r="O37"/>
-      <c r="P37"/>
-      <c r="Q37"/>
-      <c r="R37"/>
-      <c r="S37"/>
-      <c r="T37"/>
-      <c r="U37"/>
-      <c r="V37"/>
-      <c r="W37"/>
-      <c r="X37"/>
-      <c r="Y37"/>
-      <c r="Z37"/>
-      <c r="AA37"/>
-      <c r="AB37"/>
-      <c r="AC37"/>
-      <c r="AD37"/>
-      <c r="AE37"/>
-      <c r="AF37"/>
-      <c r="AG37"/>
-      <c r="AH37"/>
-      <c r="AI37"/>
-      <c r="AJ37"/>
-      <c r="AK37"/>
-      <c r="AL37"/>
-      <c r="AM37"/>
-      <c r="AN37"/>
-      <c r="AO37"/>
-      <c r="AP37"/>
-      <c r="AQ37"/>
-      <c r="AR37"/>
-      <c r="AS37"/>
-      <c r="AT37"/>
-      <c r="AU37"/>
-      <c r="AV37"/>
-      <c r="AW37"/>
-      <c r="AX37"/>
-      <c r="AY37"/>
-      <c r="AZ37"/>
-      <c r="BA37"/>
-      <c r="BB37"/>
-      <c r="BC37"/>
-      <c r="BD37"/>
-      <c r="BE37"/>
-      <c r="BF37"/>
-      <c r="BG37"/>
-      <c r="BH37"/>
-      <c r="BI37"/>
-      <c r="BJ37"/>
-      <c r="BK37"/>
-      <c r="BL37"/>
-      <c r="BM37"/>
-      <c r="BN37"/>
-      <c r="BO37"/>
-      <c r="BP37"/>
-      <c r="BQ37"/>
-      <c r="BR37"/>
-      <c r="BS37"/>
-      <c r="BT37"/>
-      <c r="BU37"/>
-      <c r="BV37"/>
-      <c r="BW37"/>
-      <c r="BX37"/>
-      <c r="BY37"/>
-      <c r="BZ37"/>
-      <c r="CA37"/>
-      <c r="CB37"/>
-      <c r="CC37"/>
-      <c r="CD37"/>
-      <c r="CE37"/>
-      <c r="CF37"/>
-      <c r="CG37"/>
-      <c r="CH37"/>
-      <c r="CI37"/>
-      <c r="CJ37"/>
-      <c r="CK37"/>
-      <c r="CL37"/>
-      <c r="CM37"/>
-      <c r="CN37"/>
-      <c r="CO37"/>
-      <c r="CP37"/>
-      <c r="CQ37"/>
-      <c r="CR37"/>
-      <c r="CS37"/>
-      <c r="CT37"/>
-      <c r="CU37"/>
-      <c r="CV37"/>
-      <c r="CW37"/>
-      <c r="CX37"/>
-      <c r="CY37"/>
-      <c r="CZ37"/>
-      <c r="DA37"/>
-      <c r="DB37"/>
-      <c r="DC37"/>
-      <c r="DD37"/>
-      <c r="DE37"/>
-      <c r="DF37"/>
-      <c r="DG37"/>
-      <c r="DH37"/>
-      <c r="DI37"/>
-      <c r="DJ37"/>
-      <c r="DK37"/>
-      <c r="DL37"/>
-      <c r="DM37"/>
-      <c r="DN37"/>
-      <c r="DO37"/>
-      <c r="DP37"/>
-      <c r="DQ37"/>
-      <c r="DR37"/>
-      <c r="DS37"/>
-      <c r="DT37"/>
-      <c r="DU37"/>
-      <c r="DV37"/>
-      <c r="DW37"/>
-      <c r="DX37"/>
-      <c r="DY37"/>
-      <c r="DZ37"/>
-      <c r="EA37"/>
-      <c r="EB37"/>
-      <c r="EC37"/>
-      <c r="ED37"/>
-      <c r="EE37"/>
-      <c r="EF37"/>
-      <c r="EG37"/>
-      <c r="EH37"/>
-      <c r="EI37"/>
-      <c r="EJ37"/>
-      <c r="EK37"/>
-      <c r="EL37"/>
-      <c r="EM37"/>
-      <c r="EN37"/>
-      <c r="EO37"/>
-      <c r="EP37"/>
-      <c r="EQ37"/>
-      <c r="ER37"/>
-      <c r="ES37"/>
-      <c r="ET37"/>
-      <c r="EU37"/>
-      <c r="EV37"/>
-      <c r="EW37"/>
-      <c r="EX37"/>
-      <c r="EY37"/>
-      <c r="EZ37"/>
-      <c r="FA37"/>
-      <c r="FB37"/>
-      <c r="FC37"/>
-      <c r="FD37"/>
-      <c r="FE37"/>
-      <c r="FF37"/>
-      <c r="FG37"/>
-      <c r="FH37"/>
-      <c r="FI37"/>
-      <c r="FJ37"/>
-      <c r="FK37"/>
-      <c r="FL37"/>
-      <c r="FM37"/>
-      <c r="FN37"/>
-      <c r="FO37"/>
-      <c r="FP37"/>
-      <c r="FQ37"/>
-      <c r="FR37"/>
-      <c r="FS37"/>
-      <c r="FT37"/>
-      <c r="FU37"/>
-      <c r="FV37"/>
-      <c r="FW37"/>
-      <c r="FX37"/>
-    </row>
-    <row r="38">
-      <c r="A38"/>
-      <c r="B38"/>
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38"/>
-      <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38"/>
-      <c r="I38"/>
-      <c r="J38"/>
-      <c r="K38"/>
-      <c r="L38"/>
-      <c r="M38"/>
-      <c r="N38"/>
-      <c r="O38"/>
-      <c r="P38"/>
-      <c r="Q38"/>
-      <c r="R38"/>
-      <c r="S38"/>
-      <c r="T38"/>
-      <c r="U38"/>
-      <c r="V38"/>
-      <c r="W38"/>
-      <c r="X38"/>
-      <c r="Y38"/>
-      <c r="Z38"/>
-      <c r="AA38"/>
-      <c r="AB38"/>
-      <c r="AC38"/>
-      <c r="AD38"/>
-      <c r="AE38"/>
-      <c r="AF38"/>
-      <c r="AG38"/>
-      <c r="AH38"/>
-      <c r="AI38"/>
-      <c r="AJ38"/>
-      <c r="AK38"/>
-      <c r="AL38"/>
-      <c r="AM38"/>
-      <c r="AN38"/>
-      <c r="AO38"/>
-      <c r="AP38"/>
-      <c r="AQ38"/>
-      <c r="AR38"/>
-      <c r="AS38"/>
-      <c r="AT38"/>
-      <c r="AU38"/>
-      <c r="AV38"/>
-      <c r="AW38"/>
-      <c r="AX38"/>
-      <c r="AY38"/>
-      <c r="AZ38"/>
-      <c r="BA38"/>
-      <c r="BB38"/>
-      <c r="BC38"/>
-      <c r="BD38"/>
-      <c r="BE38"/>
-      <c r="BF38"/>
-      <c r="BG38"/>
-      <c r="BH38"/>
-      <c r="BI38"/>
-      <c r="BJ38"/>
-      <c r="BK38"/>
-      <c r="BL38"/>
-      <c r="BM38"/>
-      <c r="BN38"/>
-      <c r="BO38"/>
-      <c r="BP38"/>
-      <c r="BQ38"/>
-      <c r="BR38"/>
-      <c r="BS38"/>
-      <c r="BT38"/>
-      <c r="BU38"/>
-      <c r="BV38"/>
-      <c r="BW38"/>
-      <c r="BX38"/>
-      <c r="BY38"/>
-      <c r="BZ38"/>
-      <c r="CA38"/>
-      <c r="CB38"/>
-      <c r="CC38"/>
-      <c r="CD38"/>
-      <c r="CE38"/>
-      <c r="CF38"/>
-      <c r="CG38"/>
-      <c r="CH38"/>
-      <c r="CI38"/>
-      <c r="CJ38"/>
-      <c r="CK38"/>
-      <c r="CL38"/>
-      <c r="CM38"/>
-      <c r="CN38"/>
-      <c r="CO38"/>
-      <c r="CP38"/>
-      <c r="CQ38"/>
-      <c r="CR38"/>
-      <c r="CS38"/>
-      <c r="CT38"/>
-      <c r="CU38"/>
-      <c r="CV38"/>
-      <c r="CW38"/>
-      <c r="CX38"/>
-      <c r="CY38"/>
-      <c r="CZ38"/>
-      <c r="DA38"/>
-      <c r="DB38"/>
-      <c r="DC38"/>
-      <c r="DD38"/>
-      <c r="DE38"/>
-      <c r="DF38"/>
-      <c r="DG38"/>
-      <c r="DH38"/>
-      <c r="DI38"/>
-      <c r="DJ38"/>
-      <c r="DK38"/>
-      <c r="DL38"/>
-      <c r="DM38"/>
-      <c r="DN38"/>
-      <c r="DO38"/>
-      <c r="DP38"/>
-      <c r="DQ38"/>
-      <c r="DR38"/>
-      <c r="DS38"/>
-      <c r="DT38"/>
-      <c r="DU38"/>
-      <c r="DV38"/>
-      <c r="DW38"/>
-      <c r="DX38"/>
-      <c r="DY38"/>
-      <c r="DZ38"/>
-      <c r="EA38"/>
-      <c r="EB38"/>
-      <c r="EC38"/>
-      <c r="ED38"/>
-      <c r="EE38"/>
-      <c r="EF38"/>
-      <c r="EG38"/>
-      <c r="EH38"/>
-      <c r="EI38"/>
-      <c r="EJ38"/>
-      <c r="EK38"/>
-      <c r="EL38"/>
-      <c r="EM38"/>
-      <c r="EN38"/>
-      <c r="EO38"/>
-      <c r="EP38"/>
-      <c r="EQ38"/>
-      <c r="ER38"/>
-      <c r="ES38"/>
-      <c r="ET38"/>
-      <c r="EU38"/>
-      <c r="EV38"/>
-      <c r="EW38"/>
-      <c r="EX38"/>
-      <c r="EY38"/>
-      <c r="EZ38"/>
-      <c r="FA38"/>
-      <c r="FB38"/>
-      <c r="FC38"/>
-      <c r="FD38"/>
-      <c r="FE38"/>
-      <c r="FF38"/>
-      <c r="FG38"/>
-      <c r="FH38"/>
-      <c r="FI38"/>
-      <c r="FJ38"/>
-      <c r="FK38"/>
-      <c r="FL38"/>
-      <c r="FM38"/>
-      <c r="FN38"/>
-      <c r="FO38"/>
-      <c r="FP38"/>
-      <c r="FQ38"/>
-      <c r="FR38"/>
-      <c r="FS38"/>
-      <c r="FT38"/>
-      <c r="FU38"/>
-      <c r="FV38"/>
-      <c r="FW38"/>
-      <c r="FX38"/>
-    </row>
-    <row r="39">
-      <c r="A39"/>
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
-      <c r="O39"/>
-      <c r="P39"/>
-      <c r="Q39"/>
-      <c r="R39"/>
-      <c r="S39"/>
-      <c r="T39"/>
-      <c r="U39"/>
-      <c r="V39"/>
-      <c r="W39"/>
-      <c r="X39"/>
-      <c r="Y39"/>
-      <c r="Z39"/>
-      <c r="AA39"/>
-      <c r="AB39"/>
-      <c r="AC39"/>
-      <c r="AD39"/>
-      <c r="AE39"/>
-      <c r="AF39"/>
-      <c r="AG39"/>
-      <c r="AH39"/>
-      <c r="AI39"/>
-      <c r="AJ39"/>
-      <c r="AK39"/>
-      <c r="AL39"/>
-      <c r="AM39"/>
-      <c r="AN39"/>
-      <c r="AO39"/>
-      <c r="AP39"/>
-      <c r="AQ39"/>
-      <c r="AR39"/>
-      <c r="AS39"/>
-      <c r="AT39"/>
-      <c r="AU39"/>
-      <c r="AV39"/>
-      <c r="AW39"/>
-      <c r="AX39"/>
-      <c r="AY39"/>
-      <c r="AZ39"/>
-      <c r="BA39"/>
-      <c r="BB39"/>
-      <c r="BC39"/>
-      <c r="BD39"/>
-      <c r="BE39"/>
-      <c r="BF39"/>
-      <c r="BG39"/>
-      <c r="BH39"/>
-      <c r="BI39"/>
-      <c r="BJ39"/>
-      <c r="BK39"/>
-      <c r="BL39"/>
-      <c r="BM39"/>
-      <c r="BN39"/>
-      <c r="BO39"/>
-      <c r="BP39"/>
-      <c r="BQ39"/>
-      <c r="BR39"/>
-      <c r="BS39"/>
-      <c r="BT39"/>
-      <c r="BU39"/>
-      <c r="BV39"/>
-      <c r="BW39"/>
-      <c r="BX39"/>
-      <c r="BY39"/>
-      <c r="BZ39"/>
-      <c r="CA39"/>
-      <c r="CB39"/>
-      <c r="CC39"/>
-      <c r="CD39"/>
-      <c r="CE39"/>
-      <c r="CF39"/>
-      <c r="CG39"/>
-      <c r="CH39"/>
-      <c r="CI39"/>
-      <c r="CJ39"/>
-      <c r="CK39"/>
-      <c r="CL39"/>
-      <c r="CM39"/>
-      <c r="CN39"/>
-      <c r="CO39"/>
-      <c r="CP39"/>
-      <c r="CQ39"/>
-      <c r="CR39"/>
-      <c r="CS39"/>
-      <c r="CT39"/>
-      <c r="CU39"/>
-      <c r="CV39"/>
-      <c r="CW39"/>
-      <c r="CX39"/>
-      <c r="CY39"/>
-      <c r="CZ39"/>
-      <c r="DA39"/>
-      <c r="DB39"/>
-      <c r="DC39"/>
-      <c r="DD39"/>
-      <c r="DE39"/>
-      <c r="DF39"/>
-      <c r="DG39"/>
-      <c r="DH39"/>
-      <c r="DI39"/>
-      <c r="DJ39"/>
-      <c r="DK39"/>
-      <c r="DL39"/>
-      <c r="DM39"/>
-      <c r="DN39"/>
-      <c r="DO39"/>
-      <c r="DP39"/>
-      <c r="DQ39"/>
-      <c r="DR39"/>
-      <c r="DS39"/>
-      <c r="DT39"/>
-      <c r="DU39"/>
-      <c r="DV39"/>
-      <c r="DW39"/>
-      <c r="DX39"/>
-      <c r="DY39"/>
-      <c r="DZ39"/>
-      <c r="EA39"/>
-      <c r="EB39"/>
-      <c r="EC39"/>
-      <c r="ED39"/>
-      <c r="EE39"/>
-      <c r="EF39"/>
-      <c r="EG39"/>
-      <c r="EH39"/>
-      <c r="EI39"/>
-      <c r="EJ39"/>
-      <c r="EK39"/>
-      <c r="EL39"/>
-      <c r="EM39"/>
-      <c r="EN39"/>
-      <c r="EO39"/>
-      <c r="EP39"/>
-      <c r="EQ39"/>
-      <c r="ER39"/>
-      <c r="ES39"/>
-      <c r="ET39"/>
-      <c r="EU39"/>
-      <c r="EV39"/>
-      <c r="EW39"/>
-      <c r="EX39"/>
-      <c r="EY39"/>
-      <c r="EZ39"/>
-      <c r="FA39"/>
-      <c r="FB39"/>
-      <c r="FC39"/>
-      <c r="FD39"/>
-      <c r="FE39"/>
-      <c r="FF39"/>
-      <c r="FG39"/>
-      <c r="FH39"/>
-      <c r="FI39"/>
-      <c r="FJ39"/>
-      <c r="FK39"/>
-      <c r="FL39"/>
-      <c r="FM39"/>
-      <c r="FN39"/>
-      <c r="FO39"/>
-      <c r="FP39"/>
-      <c r="FQ39"/>
-      <c r="FR39"/>
-      <c r="FS39"/>
-      <c r="FT39"/>
-      <c r="FU39"/>
-      <c r="FV39"/>
-      <c r="FW39"/>
-      <c r="FX39"/>
-    </row>
-    <row r="40">
-      <c r="A40"/>
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40"/>
-      <c r="H40"/>
-      <c r="I40"/>
-      <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40"/>
-      <c r="M40"/>
-      <c r="N40"/>
-      <c r="O40"/>
-      <c r="P40"/>
-      <c r="Q40"/>
-      <c r="R40"/>
-      <c r="S40"/>
-      <c r="T40"/>
-      <c r="U40"/>
-      <c r="V40"/>
-      <c r="W40"/>
-      <c r="X40"/>
-      <c r="Y40"/>
-      <c r="Z40"/>
-      <c r="AA40"/>
-      <c r="AB40"/>
-      <c r="AC40"/>
-      <c r="AD40"/>
-      <c r="AE40"/>
-      <c r="AF40"/>
-      <c r="AG40"/>
-      <c r="AH40"/>
-      <c r="AI40"/>
-      <c r="AJ40"/>
-      <c r="AK40"/>
-      <c r="AL40"/>
-      <c r="AM40"/>
-      <c r="AN40"/>
-      <c r="AO40"/>
-      <c r="AP40"/>
-      <c r="AQ40"/>
-      <c r="AR40"/>
-      <c r="AS40"/>
-      <c r="AT40"/>
-      <c r="AU40"/>
-      <c r="AV40"/>
-      <c r="AW40"/>
-      <c r="AX40"/>
-      <c r="AY40"/>
-      <c r="AZ40"/>
-      <c r="BA40"/>
-      <c r="BB40"/>
-      <c r="BC40"/>
-      <c r="BD40"/>
-      <c r="BE40"/>
-      <c r="BF40"/>
-      <c r="BG40"/>
-      <c r="BH40"/>
-      <c r="BI40"/>
-      <c r="BJ40"/>
-      <c r="BK40"/>
-      <c r="BL40"/>
-      <c r="BM40"/>
-      <c r="BN40"/>
-      <c r="BO40"/>
-      <c r="BP40"/>
-      <c r="BQ40"/>
-      <c r="BR40"/>
-      <c r="BS40"/>
-      <c r="BT40"/>
-      <c r="BU40"/>
-      <c r="BV40"/>
-      <c r="BW40"/>
-      <c r="BX40"/>
-      <c r="BY40"/>
-      <c r="BZ40"/>
-      <c r="CA40"/>
-      <c r="CB40"/>
-      <c r="CC40"/>
-      <c r="CD40"/>
-      <c r="CE40"/>
-      <c r="CF40"/>
-      <c r="CG40"/>
-      <c r="CH40"/>
-      <c r="CI40"/>
-      <c r="CJ40"/>
-      <c r="CK40"/>
-      <c r="CL40"/>
-      <c r="CM40"/>
-      <c r="CN40"/>
-      <c r="CO40"/>
-      <c r="CP40"/>
-      <c r="CQ40"/>
-      <c r="CR40"/>
-      <c r="CS40"/>
-      <c r="CT40"/>
-      <c r="CU40"/>
-      <c r="CV40"/>
-      <c r="CW40"/>
-      <c r="CX40"/>
-      <c r="CY40"/>
-      <c r="CZ40"/>
-      <c r="DA40"/>
-      <c r="DB40"/>
-      <c r="DC40"/>
-      <c r="DD40"/>
-      <c r="DE40"/>
-      <c r="DF40"/>
-      <c r="DG40"/>
-      <c r="DH40"/>
-      <c r="DI40"/>
-      <c r="DJ40"/>
-      <c r="DK40"/>
-      <c r="DL40"/>
-      <c r="DM40"/>
-      <c r="DN40"/>
-      <c r="DO40"/>
-      <c r="DP40"/>
-      <c r="DQ40"/>
-      <c r="DR40"/>
-      <c r="DS40"/>
-      <c r="DT40"/>
-      <c r="DU40"/>
-      <c r="DV40"/>
-      <c r="DW40"/>
-      <c r="DX40"/>
-      <c r="DY40"/>
-      <c r="DZ40"/>
-      <c r="EA40"/>
-      <c r="EB40"/>
-      <c r="EC40"/>
-      <c r="ED40"/>
-      <c r="EE40"/>
-      <c r="EF40"/>
-      <c r="EG40"/>
-      <c r="EH40"/>
-      <c r="EI40"/>
-      <c r="EJ40"/>
-      <c r="EK40"/>
-      <c r="EL40"/>
-      <c r="EM40"/>
-      <c r="EN40"/>
-      <c r="EO40"/>
-      <c r="EP40"/>
-      <c r="EQ40"/>
-      <c r="ER40"/>
-      <c r="ES40"/>
-      <c r="ET40"/>
-      <c r="EU40"/>
-      <c r="EV40"/>
-      <c r="EW40"/>
-      <c r="EX40"/>
-      <c r="EY40"/>
-      <c r="EZ40"/>
-      <c r="FA40"/>
-      <c r="FB40"/>
-      <c r="FC40"/>
-      <c r="FD40"/>
-      <c r="FE40"/>
-      <c r="FF40"/>
-      <c r="FG40"/>
-      <c r="FH40"/>
-      <c r="FI40"/>
-      <c r="FJ40"/>
-      <c r="FK40"/>
-      <c r="FL40"/>
-      <c r="FM40"/>
-      <c r="FN40"/>
-      <c r="FO40"/>
-      <c r="FP40"/>
-      <c r="FQ40"/>
-      <c r="FR40"/>
-      <c r="FS40"/>
-      <c r="FT40"/>
-      <c r="FU40"/>
-      <c r="FV40"/>
-      <c r="FW40"/>
-      <c r="FX40"/>
-    </row>
-    <row r="41">
-      <c r="A41"/>
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="D41"/>
-      <c r="E41"/>
-      <c r="F41"/>
-      <c r="G41"/>
-      <c r="H41"/>
-      <c r="I41"/>
-      <c r="J41"/>
-      <c r="K41"/>
-      <c r="L41"/>
-      <c r="M41"/>
-      <c r="N41"/>
-      <c r="O41"/>
-      <c r="P41"/>
-      <c r="Q41"/>
-      <c r="R41"/>
-      <c r="S41"/>
-      <c r="T41"/>
-      <c r="U41"/>
-      <c r="V41"/>
-      <c r="W41"/>
-      <c r="X41"/>
-      <c r="Y41"/>
-      <c r="Z41"/>
-      <c r="AA41"/>
-      <c r="AB41"/>
-      <c r="AC41"/>
-      <c r="AD41"/>
-      <c r="AE41"/>
-      <c r="AF41"/>
-      <c r="AG41"/>
-      <c r="AH41"/>
-      <c r="AI41"/>
-      <c r="AJ41"/>
-      <c r="AK41"/>
-      <c r="AL41"/>
-      <c r="AM41"/>
-      <c r="AN41"/>
-      <c r="AO41"/>
-      <c r="AP41"/>
-      <c r="AQ41"/>
-      <c r="AR41"/>
-      <c r="AS41"/>
-      <c r="AT41"/>
-      <c r="AU41"/>
-      <c r="AV41"/>
-      <c r="AW41"/>
-      <c r="AX41"/>
-      <c r="AY41"/>
-      <c r="AZ41"/>
-      <c r="BA41"/>
-      <c r="BB41"/>
-      <c r="BC41"/>
-      <c r="BD41"/>
-      <c r="BE41"/>
-      <c r="BF41"/>
-      <c r="BG41"/>
-      <c r="BH41"/>
-      <c r="BI41" t="n">
-        <v>16.59</v>
-      </c>
-      <c r="BJ41"/>
-      <c r="BK41"/>
-      <c r="BL41"/>
-      <c r="BM41"/>
-      <c r="BN41"/>
-      <c r="BO41"/>
-      <c r="BP41"/>
-      <c r="BQ41"/>
-      <c r="BR41"/>
-      <c r="BS41"/>
-      <c r="BT41"/>
-      <c r="BU41"/>
-      <c r="BV41"/>
-      <c r="BW41"/>
-      <c r="BX41"/>
-      <c r="BY41"/>
-      <c r="BZ41"/>
-      <c r="CA41"/>
-      <c r="CB41"/>
-      <c r="CC41"/>
-      <c r="CD41"/>
-      <c r="CE41"/>
-      <c r="CF41"/>
-      <c r="CG41"/>
-      <c r="CH41"/>
-      <c r="CI41"/>
-      <c r="CJ41"/>
-      <c r="CK41"/>
-      <c r="CL41"/>
-      <c r="CM41"/>
-      <c r="CN41"/>
-      <c r="CO41"/>
-      <c r="CP41"/>
-      <c r="CQ41"/>
-      <c r="CR41"/>
-      <c r="CS41"/>
-      <c r="CT41"/>
-      <c r="CU41"/>
-      <c r="CV41"/>
-      <c r="CW41"/>
-      <c r="CX41"/>
-      <c r="CY41"/>
-      <c r="CZ41"/>
-      <c r="DA41"/>
-      <c r="DB41"/>
-      <c r="DC41"/>
-      <c r="DD41"/>
-      <c r="DE41"/>
-      <c r="DF41"/>
-      <c r="DG41"/>
-      <c r="DH41"/>
-      <c r="DI41"/>
-      <c r="DJ41"/>
-      <c r="DK41"/>
-      <c r="DL41"/>
-      <c r="DM41"/>
-      <c r="DN41"/>
-      <c r="DO41"/>
-      <c r="DP41"/>
-      <c r="DQ41"/>
-      <c r="DR41"/>
-      <c r="DS41"/>
-      <c r="DT41"/>
-      <c r="DU41"/>
-      <c r="DV41"/>
-      <c r="DW41"/>
-      <c r="DX41"/>
-      <c r="DY41"/>
-      <c r="DZ41"/>
-      <c r="EA41"/>
-      <c r="EB41"/>
-      <c r="EC41"/>
-      <c r="ED41"/>
-      <c r="EE41"/>
-      <c r="EF41"/>
-      <c r="EG41"/>
-      <c r="EH41"/>
-      <c r="EI41"/>
-      <c r="EJ41"/>
-      <c r="EK41"/>
-      <c r="EL41"/>
-      <c r="EM41"/>
-      <c r="EN41"/>
-      <c r="EO41"/>
-      <c r="EP41"/>
-      <c r="EQ41"/>
-      <c r="ER41"/>
-      <c r="ES41"/>
-      <c r="ET41"/>
-      <c r="EU41"/>
-      <c r="EV41"/>
-      <c r="EW41"/>
-      <c r="EX41"/>
-      <c r="EY41"/>
-      <c r="EZ41"/>
-      <c r="FA41"/>
-      <c r="FB41"/>
-      <c r="FC41"/>
-      <c r="FD41"/>
-      <c r="FE41"/>
-      <c r="FF41"/>
-      <c r="FG41"/>
-      <c r="FH41"/>
-      <c r="FI41"/>
-      <c r="FJ41"/>
-      <c r="FK41"/>
-      <c r="FL41"/>
-      <c r="FM41"/>
-      <c r="FN41"/>
-      <c r="FO41"/>
-      <c r="FP41"/>
-      <c r="FQ41"/>
-      <c r="FR41"/>
-      <c r="FS41"/>
-      <c r="FT41"/>
-      <c r="FU41"/>
-      <c r="FV41"/>
-      <c r="FW41"/>
-      <c r="FX41"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
